--- a/on_trucks/Processed_Stand_Alone/14_245-70R19.xlsx
+++ b/on_trucks/Processed_Stand_Alone/14_245-70R19.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>131</v>
       </c>
       <c r="E2">
-        <v>0.0121245371930491</v>
+        <v>0.01212149238248066</v>
       </c>
       <c r="F2">
         <v>0.5758899755910358</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>131</v>
       </c>
       <c r="E4">
-        <v>0.006653633988425743</v>
+        <v>0.006438500963779023</v>
       </c>
       <c r="F4">
         <v>0.584728176432381</v>
       </c>
       <c r="G4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>131</v>
       </c>
       <c r="E5">
-        <v>0.005923132377821234</v>
+        <v>0.00557937409517568</v>
       </c>
       <c r="F5">
         <v>0.5881900269188987</v>
       </c>
       <c r="G5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>130</v>
       </c>
       <c r="E6">
-        <v>0.006285625325499304</v>
+        <v>0.006125819114995706</v>
       </c>
       <c r="F6">
         <v>0.5338489839815161</v>
       </c>
       <c r="G6">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>14</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>142</v>
       </c>
       <c r="E2">
-        <v>0.0121245371930491</v>
+        <v>0.01212149238248066</v>
       </c>
       <c r="F2">
         <v>0.7196589670991147</v>
       </c>
       <c r="G2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>141</v>
       </c>
       <c r="E4">
-        <v>0.006653633988425743</v>
+        <v>0.006438500963779023</v>
       </c>
       <c r="F4">
         <v>0.7077298002688246</v>
       </c>
       <c r="G4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>141</v>
       </c>
       <c r="E5">
-        <v>0.005923132377821234</v>
+        <v>0.00557937409517568</v>
       </c>
       <c r="F5">
         <v>0.7248977883722828</v>
       </c>
       <c r="G5">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>141</v>
       </c>
       <c r="E6">
-        <v>0.006285625325499304</v>
+        <v>0.006125819114995706</v>
       </c>
       <c r="F6">
         <v>0.7341785826703343</v>
       </c>
       <c r="G6">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>14</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>151</v>
       </c>
       <c r="E2">
-        <v>0.0121245371930491</v>
+        <v>0.01212149238248066</v>
       </c>
       <c r="F2">
         <v>0.8162422444014047</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>150</v>
       </c>
       <c r="E4">
-        <v>0.006653633988425743</v>
+        <v>0.006438500963779023</v>
       </c>
       <c r="F4">
         <v>0.8014397721679373</v>
       </c>
       <c r="G4">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>150</v>
       </c>
       <c r="E5">
-        <v>0.005923132377821234</v>
+        <v>0.00557937409517568</v>
       </c>
       <c r="F5">
         <v>0.8041820065296631</v>
       </c>
       <c r="G5">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>149</v>
       </c>
       <c r="E6">
-        <v>0.006285625325499304</v>
+        <v>0.006125819114995706</v>
       </c>
       <c r="F6">
         <v>0.8043470922417619</v>
       </c>
       <c r="G6">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H6">
         <v>14</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>162</v>
       </c>
       <c r="E2">
-        <v>0.0121245371930491</v>
+        <v>0.01212149238248066</v>
       </c>
       <c r="F2">
         <v>0.9083630663041</v>
       </c>
       <c r="G2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>162</v>
       </c>
       <c r="E4">
-        <v>0.006653633988425743</v>
+        <v>0.006438500963779023</v>
       </c>
       <c r="F4">
         <v>0.9034307825902894</v>
       </c>
       <c r="G4">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>165</v>
       </c>
       <c r="E5">
-        <v>0.005923132377821234</v>
+        <v>0.00557937409517568</v>
       </c>
       <c r="F5">
         <v>0.9023216676451365</v>
       </c>
       <c r="G5">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>161</v>
       </c>
       <c r="E6">
-        <v>0.006285625325499304</v>
+        <v>0.006125819114995706</v>
       </c>
       <c r="F6">
         <v>0.9046362395761782</v>
       </c>
       <c r="G6">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H6">
         <v>14</v>

--- a/on_trucks/Processed_Stand_Alone/14_245-70R19.xlsx
+++ b/on_trucks/Processed_Stand_Alone/14_245-70R19.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>1.92784007368801E-05</v>
+        <v>1.501603814898358E-05</v>
       </c>
       <c r="C2">
-        <v>4.274737341656546E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.101594671316532E-05</v>
+        <v>1.675501722217567E-05</v>
       </c>
       <c r="E2">
-        <v>1.843309274841722E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2.318363468357978E-07</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2.293495168697391E-05</v>
+        <v>1.867560495703332E-05</v>
       </c>
       <c r="H2">
-        <v>3.65714215008575E-05</v>
+        <v>3.232332188781483E-05</v>
       </c>
       <c r="I2">
-        <v>5.243619228432829E-05</v>
+        <v>4.82011776510491E-05</v>
       </c>
       <c r="J2">
-        <v>6.06811541717975E-05</v>
+        <v>5.645293983591441E-05</v>
       </c>
       <c r="K2">
-        <v>0.0001112725284813047</v>
+        <v>0.0001070860410079198</v>
       </c>
       <c r="L2">
-        <v>0.0001371279981284181</v>
+        <v>0.0001329628357848901</v>
       </c>
       <c r="M2">
-        <v>0.0001307798682150601</v>
+        <v>0.0001266094700472907</v>
       </c>
       <c r="N2">
-        <v>0.0001809710075300298</v>
+        <v>0.0001768420061180792</v>
       </c>
       <c r="O2">
-        <v>0.0002240728369417575</v>
+        <v>0.0002199793851493583</v>
       </c>
       <c r="P2">
-        <v>0.0002173618970333513</v>
+        <v>0.0002132629101775027</v>
       </c>
       <c r="Q2">
-        <v>0.0002348247167950113</v>
+        <v>0.000230740132961199</v>
       </c>
       <c r="R2">
-        <v>8.93313287807676E-05</v>
+        <v>8.512674459750981E-05</v>
       </c>
       <c r="S2">
-        <v>6.06811541717975E-05</v>
+        <v>5.645293983591441E-05</v>
       </c>
       <c r="T2">
-        <v>3.795006948204113E-05</v>
+        <v>3.37031069532451E-05</v>
       </c>
       <c r="U2">
-        <v>1.650840177468623E-05</v>
+        <v>1.224375454108888E-05</v>
       </c>
       <c r="V2">
-        <v>2.34135496804418E-06</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1.513668979340795E-05</v>
+        <v>1.087091119625285E-05</v>
       </c>
       <c r="X2">
-        <v>8.851286879193829E-05</v>
+        <v>8.430760955749085E-05</v>
       </c>
       <c r="Y2">
-        <v>0.0001165445284093501</v>
+        <v>0.0001123623891874032</v>
       </c>
       <c r="Z2">
-        <v>0.0001674769277142029</v>
+        <v>0.0001633367966260831</v>
       </c>
       <c r="AA2">
-        <v>0.0001674769277142029</v>
+        <v>0.0001633367966260831</v>
       </c>
       <c r="AB2">
-        <v>0.0002991944459164655</v>
+        <v>0.0002951629530862631</v>
       </c>
       <c r="AC2">
-        <v>0.0003365717654063237</v>
+        <v>0.000332571100722069</v>
       </c>
       <c r="AD2">
-        <v>0.0003127392257316005</v>
+        <v>0.0003087189043940217</v>
       </c>
       <c r="AE2">
-        <v>0.0002650660763822642</v>
+        <v>0.0002610064350820454</v>
       </c>
       <c r="AF2">
-        <v>0.0002843149961195466</v>
+        <v>0.000280271230984743</v>
       </c>
       <c r="AG2">
-        <v>0.0002285921168800765</v>
+        <v>0.0002245023925091033</v>
       </c>
       <c r="AH2">
-        <v>0.0001746507876162909</v>
+        <v>0.0001705165733997684</v>
       </c>
       <c r="AI2">
-        <v>9.06505787627619E-05</v>
+        <v>8.644708267334127E-05</v>
       </c>
       <c r="AJ2">
-        <v>2.252116369262147E-05</v>
+        <v>1.826147567772906E-05</v>
       </c>
       <c r="AK2">
-        <v>2.526352265519258E-07</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>9.983052863747001E-06</v>
+        <v>5.713023638842323E-06</v>
       </c>
       <c r="AM2">
-        <v>2.082262071580392E-05</v>
+        <v>1.656153177298242E-05</v>
       </c>
       <c r="AN2">
-        <v>3.65714215008575E-05</v>
+        <v>3.232332188781483E-05</v>
       </c>
       <c r="AO2">
-        <v>7.66990549531783E-05</v>
+        <v>7.248405189594768E-05</v>
       </c>
       <c r="AP2">
-        <v>0.0001390237181025445</v>
+        <v>0.0001348601193150135</v>
       </c>
       <c r="AQ2">
-        <v>0.0002397952467271713</v>
+        <v>0.0002357147624977255</v>
       </c>
       <c r="AR2">
-        <v>0.0002468413966310024</v>
+        <v>0.0002427667239402267</v>
       </c>
       <c r="AS2">
-        <v>0.0003211776156164297</v>
+        <v>0.0003171642541122066</v>
       </c>
       <c r="AT2">
-        <v>0.0003495336952294138</v>
+        <v>0.0003455437213135127</v>
       </c>
       <c r="AU2">
-        <v>0.0003543762951633199</v>
+        <v>0.0003503903153374062</v>
       </c>
       <c r="AV2">
-        <v>0.000338165995384565</v>
+        <v>0.0003341666455927401</v>
       </c>
       <c r="AW2">
-        <v>0.0003229147355927208</v>
+        <v>0.0003189028068340474</v>
       </c>
       <c r="AX2">
-        <v>0.0001973876773059681</v>
+        <v>0.0001932722160702188</v>
       </c>
       <c r="AY2">
-        <v>0.0001326313481897903</v>
+        <v>0.0001284624770896561</v>
       </c>
       <c r="AZ2">
-        <v>4.80908123436359E-05</v>
+        <v>4.385221371854463E-05</v>
       </c>
       <c r="BA2">
-        <v>3.65714215008575E-05</v>
+        <v>3.232332188781483E-05</v>
       </c>
       <c r="BB2">
-        <v>5.234394328558735E-07</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>5.790471920969148E-06</v>
+        <v>1.516984730138469E-06</v>
       </c>
       <c r="BD2">
-        <v>6.759676907741022E-06</v>
+        <v>2.486989099883578E-06</v>
       </c>
       <c r="BE2">
-        <v>2.4396138667031E-05</v>
+        <v>2.013799709803006E-05</v>
       </c>
       <c r="BF2">
-        <v>5.802398620806368E-05</v>
+        <v>5.37935802874733E-05</v>
       </c>
       <c r="BG2">
-        <v>0.000140285878085318</v>
+        <v>0.0001361233203048118</v>
       </c>
       <c r="BH2">
-        <v>0.0003377567253901509</v>
+        <v>0.0003337570380397399</v>
       </c>
       <c r="BI2">
-        <v>0.000400304354536474</v>
+        <v>0.000396356255354137</v>
       </c>
       <c r="BJ2">
-        <v>0.0003606664150774696</v>
+        <v>0.0003566856232301855</v>
       </c>
       <c r="BK2">
-        <v>0.0003521385651938614</v>
+        <v>0.0003481507397282113</v>
       </c>
       <c r="BL2">
-        <v>0.0003461096752761462</v>
+        <v>0.0003421168772897049</v>
       </c>
       <c r="BM2">
-        <v>0.0002464917766357742</v>
+        <v>0.0002424168155846671</v>
       </c>
       <c r="BN2">
-        <v>0.0001925714273717023</v>
+        <v>0.0001884519937789751</v>
       </c>
       <c r="BO2">
-        <v>0.0001563923378654901</v>
+        <v>0.0001522430644055179</v>
       </c>
       <c r="BP2">
-        <v>0.0001279577082535781</v>
+        <v>0.0001237849824186468</v>
       </c>
       <c r="BQ2">
-        <v>5.392088426406458E-05</v>
+        <v>4.968709417822922E-05</v>
       </c>
       <c r="BR2">
-        <v>3.39488935366509E-05</v>
+        <v>2.969863090935423E-05</v>
       </c>
       <c r="BS2">
-        <v>9.71069486746426E-06</v>
+        <v>5.440441006545711E-06</v>
       </c>
       <c r="BT2">
-        <v>7.624608195936067E-06</v>
+        <v>3.352633767966509E-06</v>
       </c>
       <c r="BU2">
-        <v>2.008502872587088E-06</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>1.081529785238816E-05</v>
+        <v>6.545955048294935E-06</v>
       </c>
       <c r="BW2">
-        <v>2.293495168697391E-05</v>
+        <v>1.867560495703332E-05</v>
       </c>
       <c r="BX2">
-        <v>8.451850484645509E-05</v>
+        <v>8.030995113192294E-05</v>
       </c>
       <c r="BY2">
-        <v>0.0002468413966310024</v>
+        <v>0.0002427667239402267</v>
       </c>
       <c r="BZ2">
-        <v>0.0002670080263557596</v>
+        <v>0.000262949986741216</v>
       </c>
       <c r="CA2">
-        <v>0.0001982953672935795</v>
+        <v>0.0001941806547043302</v>
       </c>
       <c r="CB2">
-        <v>0.0001522597679218932</v>
+        <v>0.0001481070859919959</v>
       </c>
       <c r="CC2">
-        <v>0.0001669303477216628</v>
+        <v>0.0001627897658241214</v>
       </c>
       <c r="CD2">
-        <v>0.0001656820377387003</v>
+        <v>0.0001615404262573667</v>
       </c>
       <c r="CE2">
-        <v>0.0001884253074282904</v>
+        <v>0.00018430245418984</v>
       </c>
       <c r="CF2">
-        <v>0.0002539896165334404</v>
+        <v>0.0002499208395668479</v>
       </c>
       <c r="CG2">
-        <v>0.0001463461680026046</v>
+        <v>0.0001421886086410488</v>
       </c>
       <c r="CH2">
-        <v>0.0001062256325501869</v>
+        <v>0.0001020349824871227</v>
       </c>
       <c r="CI2">
-        <v>0.0001289413982401523</v>
+        <v>0.0001247694837351635</v>
       </c>
       <c r="CJ2">
-        <v>1.611744678002215E-05</v>
+        <v>1.185247709372357E-05</v>
       </c>
       <c r="CK2">
-        <v>2.212404069804158E-07</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>2.8235701614627E-06</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0001376234381216561</v>
+        <v>0.0001334586844081912</v>
       </c>
       <c r="CN2">
-        <v>0.07655515395514233</v>
+        <v>0.07661401701658226</v>
       </c>
       <c r="CO2">
-        <v>0.0001376234381216561</v>
+        <v>0.0001334586844081912</v>
       </c>
       <c r="CP2">
-        <v>0.1209844783487518</v>
+        <v>0.121079985923909</v>
       </c>
       <c r="CQ2">
-        <v>0.02271938668991604</v>
+        <v>0.02273384697145878</v>
       </c>
       <c r="CR2">
-        <v>0.00035986409508842</v>
+        <v>0.0003558826415019299</v>
       </c>
       <c r="CS2">
-        <v>0.01138190784465483</v>
+        <v>0.01138701717601467</v>
       </c>
       <c r="CT2">
-        <v>0.03866467247228791</v>
+        <v>0.0386922841409281</v>
       </c>
       <c r="CU2">
-        <v>0.03324764554622183</v>
+        <v>0.03327078934774478</v>
       </c>
       <c r="CV2">
-        <v>0.01266327582716616</v>
+        <v>0.01266944200796617</v>
       </c>
       <c r="CW2">
-        <v>0.02163026270478087</v>
+        <v>0.02164382469630103</v>
       </c>
       <c r="CX2">
-        <v>3.40787395348787E-05</v>
+        <v>2.982858400224368E-05</v>
       </c>
       <c r="CY2">
-        <v>1.470124479935109E-06</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.0005656198922801765</v>
+        <v>0.0005618081424025658</v>
       </c>
       <c r="DA2">
-        <v>0.00606910891716619</v>
+        <v>0.00606983634680161</v>
       </c>
       <c r="DB2">
-        <v>0.0001000010436351427</v>
+        <v>9.580525964224745E-05</v>
       </c>
       <c r="DC2">
-        <v>0.004766003634951533</v>
+        <v>0.00476565628661</v>
       </c>
       <c r="DD2">
-        <v>0.004906671933031631</v>
+        <v>0.004906440605391491</v>
       </c>
       <c r="DE2">
-        <v>0.004645794536592198</v>
+        <v>0.004645348041932014</v>
       </c>
       <c r="DF2">
-        <v>0.0001502755579489745</v>
+        <v>0.0001461212394781088</v>
       </c>
       <c r="DG2">
-        <v>0.007272224300745554</v>
+        <v>0.007273944038474306</v>
       </c>
       <c r="DH2">
-        <v>0.02567944864951584</v>
+        <v>0.02569635033732715</v>
       </c>
       <c r="DI2">
-        <v>0.002884200960635185</v>
+        <v>0.00288230153503717</v>
       </c>
       <c r="DJ2">
-        <v>0.00261411896432138</v>
+        <v>0.002611996779913642</v>
       </c>
       <c r="DK2">
-        <v>0.0009827730865866902</v>
+        <v>0.000979305397217755</v>
       </c>
       <c r="DL2">
-        <v>0.001250426182933646</v>
+        <v>0.001247179249061095</v>
       </c>
       <c r="DM2">
-        <v>0.0002443131966655084</v>
+        <v>0.0002402364387605284</v>
       </c>
       <c r="DN2">
-        <v>0.00240721826714525</v>
+        <v>0.002404925434735561</v>
       </c>
       <c r="DO2">
-        <v>0.003817690747894514</v>
+        <v>0.003816561248010677</v>
       </c>
       <c r="DP2">
-        <v>1.095475285048482E-05</v>
+        <v>6.685525066384816E-06</v>
       </c>
       <c r="DQ2">
-        <v>0.002169594370388443</v>
+        <v>0.002167105550030185</v>
       </c>
       <c r="DR2">
-        <v>3.227795955945653E-05</v>
+        <v>2.802631877564086E-05</v>
       </c>
       <c r="DS2">
-        <v>0.003725174749157213</v>
+        <v>0.003723968943728984</v>
       </c>
       <c r="DT2">
-        <v>0.02647827363861313</v>
+        <v>0.0264958341830168</v>
       </c>
       <c r="DU2">
-        <v>0.0007373718899360312</v>
+        <v>0.0007337017980403946</v>
       </c>
       <c r="DV2">
-        <v>0.0008226709187718334</v>
+        <v>0.0008190711799926329</v>
       </c>
       <c r="DW2">
-        <v>0.02551585165174868</v>
+        <v>0.02553261840767636</v>
       </c>
       <c r="DX2">
-        <v>0.009221186874145275</v>
+        <v>0.0092245140814165</v>
       </c>
       <c r="DY2">
-        <v>0.002992638359155184</v>
+        <v>0.002990828370787912</v>
       </c>
       <c r="DZ2">
-        <v>0.0008155694888687568</v>
+        <v>0.0008119638929569295</v>
       </c>
       <c r="EA2">
-        <v>0.007764565694025867</v>
+        <v>0.007766691506147734</v>
       </c>
       <c r="EB2">
-        <v>0.07660597495444871</v>
+        <v>0.07666487993214174</v>
       </c>
       <c r="EC2">
-        <v>0.02225489169625566</v>
+        <v>0.02226896887061866</v>
       </c>
       <c r="ED2">
-        <v>1.12845428459837E-06</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>1.497268579564634E-05</v>
+        <v>1.070677193092129E-05</v>
       </c>
       <c r="EF2">
-        <v>5.081339930647686E-05</v>
+        <v>4.657704622251563E-05</v>
       </c>
       <c r="EG2">
-        <v>0.0003035017258576779</v>
+        <v>0.0002994737855950881</v>
       </c>
       <c r="EH2">
-        <v>0.004040141944858405</v>
+        <v>0.004039195918751173</v>
       </c>
       <c r="EI2">
-        <v>0.0007800281893538397</v>
+        <v>0.0007763932796125679</v>
       </c>
       <c r="EJ2">
-        <v>0.01876158974393375</v>
+        <v>0.01877278570520027</v>
       </c>
       <c r="EK2">
-        <v>0.03507233952131762</v>
+        <v>0.03509698829786129</v>
       </c>
       <c r="EL2">
-        <v>0.04133595943582904</v>
+        <v>0.04136577433427553</v>
       </c>
       <c r="EM2">
-        <v>0.02115362471128623</v>
+        <v>0.02116679358029712</v>
       </c>
       <c r="EN2">
-        <v>0.001793693775518896</v>
+        <v>0.001790894919059638</v>
       </c>
       <c r="EO2">
-        <v>3.332620454514963E-06</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.0004637671936703058</v>
+        <v>0.0004598714375049046</v>
       </c>
       <c r="EQ2">
-        <v>0.007648430895610925</v>
+        <v>0.007650460921824011</v>
       </c>
       <c r="ER2">
-        <v>0.01272758982628838</v>
+        <v>0.01273380905212688</v>
       </c>
       <c r="ES2">
-        <v>0.0117742188393004</v>
+        <v>0.01177965174176606</v>
       </c>
       <c r="ET2">
-        <v>0.01721141476509121</v>
+        <v>0.01722133216970507</v>
       </c>
       <c r="EU2">
-        <v>0.02383680967466497</v>
+        <v>0.02385219158674006</v>
       </c>
       <c r="EV2">
-        <v>0.02112401971169029</v>
+        <v>0.02113716416302595</v>
       </c>
       <c r="EW2">
-        <v>0.009930515864464048</v>
+        <v>0.009934428113625299</v>
       </c>
       <c r="EX2">
-        <v>0.001043035885764198</v>
+        <v>0.001039617900076361</v>
       </c>
       <c r="EY2">
-        <v>0.0008109686889315505</v>
+        <v>0.0008073592983620571</v>
       </c>
       <c r="EZ2">
-        <v>0.002369373767661768</v>
+        <v>0.002367049721784412</v>
       </c>
       <c r="FA2">
-        <v>0.00666710960900442</v>
+        <v>0.006668330258936437</v>
       </c>
       <c r="FB2">
-        <v>0.003418628553341087</v>
+        <v>0.003417169914082255</v>
       </c>
       <c r="FC2">
-        <v>0.0003582194551108668</v>
+        <v>0.0003542366450546793</v>
       </c>
       <c r="FD2">
-        <v>0.007564878896751279</v>
+        <v>0.007566840010767069</v>
       </c>
       <c r="FE2">
-        <v>0.02105986971256584</v>
+        <v>0.02107296125412727</v>
       </c>
       <c r="FF2">
-        <v>0.01868653074495819</v>
+        <v>0.01869766479890212</v>
       </c>
       <c r="FG2">
-        <v>0.02021169072414215</v>
+        <v>0.02022408270281352</v>
       </c>
       <c r="FH2">
-        <v>0.008519336883724426</v>
+        <v>0.008522085217651245</v>
       </c>
       <c r="FI2">
-        <v>3.047082058412113E-05</v>
+        <v>2.621768930433519E-05</v>
       </c>
       <c r="FJ2">
-        <v>0.001851117074735158</v>
+        <v>0.001848365579988115</v>
       </c>
       <c r="FK2">
-        <v>0.001767402675877728</v>
+        <v>0.00176458213498877</v>
       </c>
       <c r="FL2">
-        <v>0.009016873876933826</v>
+        <v>0.009020032570491842</v>
       </c>
       <c r="FM2">
-        <v>0.01363882481385145</v>
+        <v>0.01364579561004258</v>
       </c>
       <c r="FN2">
-        <v>0.001400735880882154</v>
+        <v>0.001397612919765514</v>
       </c>
       <c r="FO2">
-        <v>0.002325118768265779</v>
+        <v>0.002322758221654853</v>
       </c>
       <c r="FP2">
-        <v>0.008089170889595515</v>
+        <v>0.008091564430288637</v>
       </c>
       <c r="FQ2">
-        <v>0.00350728025213113</v>
+        <v>0.003505894731211069</v>
       </c>
       <c r="FR2">
-        <v>0.002726981162780988</v>
+        <v>0.002724952065100003</v>
       </c>
       <c r="FS2">
-        <v>0.001186235883809742</v>
+        <v>0.001182936006924241</v>
       </c>
       <c r="FT2">
-        <v>0.001179920983895931</v>
+        <v>0.001176615898593699</v>
       </c>
       <c r="FU2">
-        <v>0.001291038682379349</v>
+        <v>0.001287825244971427</v>
       </c>
       <c r="FV2">
-        <v>0.000451556543836962</v>
+        <v>0.0004476507165455326</v>
       </c>
       <c r="FW2">
-        <v>0.002105449771263916</v>
+        <v>0.002102908045585251</v>
       </c>
       <c r="FX2">
-        <v>0.001473275079892108</v>
+        <v>0.001470211947812021</v>
       </c>
       <c r="FY2">
-        <v>3.301539254939172E-05</v>
+        <v>2.876435998714332E-05</v>
       </c>
       <c r="FZ2">
-        <v>4.272487341687254E-05</v>
+        <v>3.848184906113396E-05</v>
       </c>
       <c r="GA2">
-        <v>0.0004936328532626865</v>
+        <v>0.0004897617297602289</v>
       </c>
       <c r="GB2">
-        <v>0.0005008277331644877</v>
+        <v>0.000496962543870548</v>
       </c>
       <c r="GC2">
-        <v>0.003165052256802005</v>
+        <v>0.003163384472340005</v>
       </c>
       <c r="GD2">
-        <v>0.00326567885542861</v>
+        <v>0.00326409406598902</v>
       </c>
       <c r="GE2">
-        <v>0.0001850347174745666</v>
+        <v>0.0001809090677380429</v>
       </c>
       <c r="GF2">
-        <v>0.0003483282252458666</v>
+        <v>0.0003443372570798402</v>
       </c>
       <c r="GG2">
-        <v>0.00168430067701194</v>
+        <v>0.001681411595077649</v>
       </c>
       <c r="GH2">
-        <v>0.003693123749594658</v>
+        <v>0.003691891509074085</v>
       </c>
       <c r="GI2">
-        <v>0.0004912627532950347</v>
+        <v>0.000487389674976429</v>
       </c>
       <c r="GJ2">
-        <v>0.001767402675877728</v>
+        <v>0.00176458213498877</v>
       </c>
       <c r="GK2">
-        <v>0.002214445969776289</v>
+        <v>0.002211994142216626</v>
       </c>
       <c r="GL2">
-        <v>0.0004438350639423481</v>
+        <v>0.0004399228681121264</v>
       </c>
       <c r="GM2">
-        <v>0.0005425996425943667</v>
+        <v>0.0005387689060257157</v>
       </c>
       <c r="GN2">
-        <v>4.456076539181551E-06</v>
+        <v>1.814887628583037E-07</v>
       </c>
       <c r="GO2">
-        <v>0.0002310378468466961</v>
+        <v>0.0002269501396701443</v>
       </c>
       <c r="GP2">
-        <v>6.484851911491952E-06</v>
+        <v>2.211937432883099E-06</v>
       </c>
       <c r="GQ2">
-        <v>0.0002816011961565857</v>
+        <v>0.0002775551927280127</v>
       </c>
       <c r="GR2">
-        <v>0.00367806034980025</v>
+        <v>0.003676815685256402</v>
       </c>
       <c r="GS2">
-        <v>0.008003237890768365</v>
+        <v>0.008005560555457918</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>3.734098992191097E-05</v>
+        <v>3.174146327111925E-05</v>
       </c>
       <c r="C3">
-        <v>2.58075869460301E-05</v>
+        <v>2.019596360006354E-05</v>
       </c>
       <c r="D3">
-        <v>5.153177389223461E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.426072897017737E-05</v>
+        <v>8.636994816892863E-06</v>
       </c>
       <c r="F3">
-        <v>5.632783488220489E-06</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4.129950391363276E-06</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>6.657358586077855E-05</v>
+        <v>6.100471952793301E-05</v>
       </c>
       <c r="I3">
-        <v>0.0001276085797331396</v>
+        <v>0.0001221037293474882</v>
       </c>
       <c r="J3">
-        <v>0.0001475204596914991</v>
+        <v>0.0001420364936834002</v>
       </c>
       <c r="K3">
-        <v>8.760500981679676E-05</v>
+        <v>8.205820208410774E-05</v>
       </c>
       <c r="L3">
-        <v>0.0002044220595725041</v>
+        <v>0.0001989977742423596</v>
       </c>
       <c r="M3">
-        <v>0.0002796004694152879</v>
+        <v>0.0002742550342137221</v>
       </c>
       <c r="N3">
-        <v>0.00019073356960113</v>
+        <v>0.0001852949272342173</v>
       </c>
       <c r="O3">
-        <v>0.0001288911397304575</v>
+        <v>0.0001233876345451223</v>
       </c>
       <c r="P3">
-        <v>8.259075482728277E-05</v>
+        <v>7.703868794304378E-05</v>
       </c>
       <c r="Q3">
-        <v>7.170479985004793E-06</v>
+        <v>1.539309294484334E-06</v>
       </c>
       <c r="R3">
-        <v>3.596041992479807E-06</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>3.541217292594459E-05</v>
+        <v>2.981062325460143E-05</v>
       </c>
       <c r="T3">
-        <v>3.775185992105174E-06</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>7.924443983428073E-06</v>
+        <v>2.294064080559863E-06</v>
       </c>
       <c r="V3">
-        <v>8.742701381716899E-07</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>2.680418394394598E-06</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>3.845649591957817E-05</v>
+        <v>3.285813925617419E-05</v>
       </c>
       <c r="Y3">
-        <v>3.099269793518678E-05</v>
+        <v>2.538651294138868E-05</v>
       </c>
       <c r="Z3">
-        <v>3.03654069364986E-05</v>
+        <v>2.475856401476605E-05</v>
       </c>
       <c r="AA3">
-        <v>0.0002494483994783431</v>
+        <v>0.0002440713395776594</v>
       </c>
       <c r="AB3">
-        <v>0.0003418570992850942</v>
+        <v>0.0003365769613315066</v>
       </c>
       <c r="AC3">
-        <v>0.00013648827971457</v>
+        <v>0.0001309927427140612</v>
       </c>
       <c r="AD3">
-        <v>7.01541138532908E-05</v>
+        <v>6.458900292167255E-05</v>
       </c>
       <c r="AE3">
-        <v>6.845703985683979E-05</v>
+        <v>6.289014896601373E-05</v>
       </c>
       <c r="AF3">
-        <v>5.715929988046609E-05</v>
+        <v>5.158055946726189E-05</v>
       </c>
       <c r="AG3">
-        <v>7.576382584155954E-05</v>
+        <v>7.020459860065102E-05</v>
       </c>
       <c r="AH3">
-        <v>5.632783488220489E-06</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>4.905308689741814E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>5.525780588444257E-06</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>1.799298196237233E-06</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>3.110376593495451E-05</v>
+        <v>2.549769743372496E-05</v>
       </c>
       <c r="AM3">
-        <v>7.973400983325692E-05</v>
+        <v>7.417894668040083E-05</v>
       </c>
       <c r="AN3">
-        <v>0.0001115188057667872</v>
+        <v>0.0001059970797814962</v>
       </c>
       <c r="AO3">
-        <v>0.0001139236097617582</v>
+        <v>0.0001084044060312556</v>
       </c>
       <c r="AP3">
-        <v>0.0001346106297184966</v>
+        <v>0.0001291131233634361</v>
       </c>
       <c r="AQ3">
-        <v>6.346881986727136E-05</v>
+        <v>5.789669713144646E-05</v>
       </c>
       <c r="AR3">
-        <v>8.760500981679676E-05</v>
+        <v>8.205820208410774E-05</v>
       </c>
       <c r="AS3">
-        <v>0.0001270973397342088</v>
+        <v>0.0001215919531395615</v>
       </c>
       <c r="AT3">
-        <v>7.81241598366235E-05</v>
+        <v>7.25674082085856E-05</v>
       </c>
       <c r="AU3">
-        <v>0.0001190571897510226</v>
+        <v>0.000113543370324911</v>
       </c>
       <c r="AV3">
-        <v>8.115610383028297E-05</v>
+        <v>7.560253222659306E-05</v>
       </c>
       <c r="AW3">
-        <v>5.413477488679111E-06</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>7.353595284621855E-06</v>
+        <v>1.72261665276491E-06</v>
       </c>
       <c r="AY3">
-        <v>7.691960483914253E-07</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>3.393971592902385E-07</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>3.96511799170798E-09</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>2.130538595544529E-05</v>
+        <v>1.56890405206804E-05</v>
       </c>
       <c r="BC3">
-        <v>9.653956979811244E-05</v>
+        <v>9.10021329899321E-05</v>
       </c>
       <c r="BD3">
-        <v>5.836432687794609E-05</v>
+        <v>5.278685034534126E-05</v>
       </c>
       <c r="BE3">
-        <v>4.734614790098777E-05</v>
+        <v>4.175711506078275E-05</v>
       </c>
       <c r="BF3">
-        <v>6.349046986722608E-05</v>
+        <v>5.791836983878863E-05</v>
       </c>
       <c r="BG3">
-        <v>7.924443983428073E-06</v>
+        <v>2.294064080559863E-06</v>
       </c>
       <c r="BH3">
-        <v>1.789892996256901E-05</v>
+        <v>1.227901170026498E-05</v>
       </c>
       <c r="BI3">
-        <v>2.720688094310384E-05</v>
+        <v>2.159672523274994E-05</v>
       </c>
       <c r="BJ3">
-        <v>3.011628693701957E-05</v>
+        <v>2.450918272824953E-05</v>
       </c>
       <c r="BK3">
-        <v>3.973107191691273E-05</v>
+        <v>3.413405207988594E-05</v>
       </c>
       <c r="BL3">
-        <v>0.0001636533696577613</v>
+        <v>0.0001581863244920671</v>
       </c>
       <c r="BM3">
-        <v>1.318028997243683E-05</v>
+        <v>7.555422611439213E-06</v>
       </c>
       <c r="BN3">
-        <v>1.098886897701962E-06</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>1.70468569643509E-05</v>
+        <v>1.142604501374449E-05</v>
       </c>
       <c r="BP3">
-        <v>9.171411980820362E-07</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>1.611356996630263E-05</v>
+        <v>1.049177914689664E-05</v>
       </c>
       <c r="BR3">
-        <v>9.363297380419084E-07</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>1.217813697453257E-06</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>2.802580294139127E-05</v>
+        <v>2.241650614924269E-05</v>
       </c>
       <c r="BU3">
-        <v>2.213721195370574E-05</v>
+        <v>1.65217389713784E-05</v>
       </c>
       <c r="BV3">
-        <v>1.358464097159123E-05</v>
+        <v>7.960197710123535E-06</v>
       </c>
       <c r="BW3">
-        <v>8.362321382512365E-05</v>
+        <v>7.807222982525134E-05</v>
       </c>
       <c r="BX3">
-        <v>0.000115622234758206</v>
+        <v>0.0001101048126136621</v>
       </c>
       <c r="BY3">
-        <v>6.401133586613682E-05</v>
+        <v>5.84397821428297E-05</v>
       </c>
       <c r="BZ3">
-        <v>0.0002028060095758836</v>
+        <v>0.0001973800292677489</v>
       </c>
       <c r="CA3">
-        <v>0.0001751132796337958</v>
+        <v>0.0001696582540808735</v>
       </c>
       <c r="CB3">
-        <v>8.013903383240991E-05</v>
+        <v>7.458439548495308E-05</v>
       </c>
       <c r="CC3">
-        <v>7.574016484160901E-05</v>
+        <v>7.018091278409566E-05</v>
       </c>
       <c r="CD3">
-        <v>6.843454985688682E-05</v>
+        <v>6.286763537764766E-05</v>
       </c>
       <c r="CE3">
-        <v>7.916793983444071E-06</v>
+        <v>2.286406056949348E-06</v>
       </c>
       <c r="CF3">
-        <v>1.096039597707916E-06</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>9.363297380419084E-07</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>1.802945796229605E-06</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>6.098884987245758E-05</v>
+        <v>5.541412604473182E-05</v>
       </c>
       <c r="CJ3">
-        <v>3.67893879230645E-05</v>
+        <v>3.118928272999416E-05</v>
       </c>
       <c r="CK3">
-        <v>9.653956979811244E-05</v>
+        <v>9.10021329899321E-05</v>
       </c>
       <c r="CL3">
-        <v>0.0001898337496030118</v>
+        <v>0.00018439416346883</v>
       </c>
       <c r="CM3">
-        <v>9.765554579577866E-05</v>
+        <v>9.21192794679409E-05</v>
       </c>
       <c r="CN3">
-        <v>0.05136448489258445</v>
+        <v>0.05141271933109419</v>
       </c>
       <c r="CO3">
-        <v>0.004051789991526729</v>
+        <v>0.00405040097984441</v>
       </c>
       <c r="CP3">
-        <v>0.1373999697126635</v>
+        <v>0.1375384416150219</v>
       </c>
       <c r="CQ3">
-        <v>0.04935737289678181</v>
+        <v>0.04940350219580707</v>
       </c>
       <c r="CR3">
-        <v>1.954421095912833E-06</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.01473323396918925</v>
+        <v>0.01474304808394716</v>
       </c>
       <c r="CT3">
-        <v>0.01547894196762979</v>
+        <v>0.01548953821081636</v>
       </c>
       <c r="CU3">
-        <v>0.04226455991161459</v>
+        <v>0.04230324998417796</v>
       </c>
       <c r="CV3">
-        <v>0.01469444196927037</v>
+        <v>0.01470421539742441</v>
       </c>
       <c r="CW3">
-        <v>0.013288279972211</v>
+        <v>0.01329657856131879</v>
       </c>
       <c r="CX3">
-        <v>0.0002934482793863287</v>
+        <v>0.0002881173683227306</v>
       </c>
       <c r="CY3">
-        <v>7.774822983740967E-05</v>
+        <v>7.21910839189254E-05</v>
       </c>
       <c r="CZ3">
-        <v>0.0002318403995151657</v>
+        <v>0.0002264448716385829</v>
       </c>
       <c r="DA3">
-        <v>0.002687660494379452</v>
+        <v>0.002684840729021005</v>
       </c>
       <c r="DB3">
-        <v>0.0004525857990535337</v>
+        <v>0.0004474217977970689</v>
       </c>
       <c r="DC3">
-        <v>0.005089910989355766</v>
+        <v>0.005089610800572603</v>
       </c>
       <c r="DD3">
-        <v>0.001978572495862327</v>
+        <v>0.001975009010598476</v>
       </c>
       <c r="DE3">
-        <v>0.003425132292837221</v>
+        <v>0.00342308601745087</v>
       </c>
       <c r="DF3">
-        <v>0.0004241911491129138</v>
+        <v>0.0004189973664098415</v>
       </c>
       <c r="DG3">
-        <v>0.002200058695399146</v>
+        <v>0.002196727513736135</v>
       </c>
       <c r="DH3">
-        <v>0.01712727496418273</v>
+        <v>0.0171396000450634</v>
       </c>
       <c r="DI3">
-        <v>0.002256727495280638</v>
+        <v>0.002253455750125614</v>
       </c>
       <c r="DJ3">
-        <v>0.005792975987885488</v>
+        <v>0.005793413201844005</v>
       </c>
       <c r="DK3">
-        <v>0.006121618987198215</v>
+        <v>0.00612240089510286</v>
       </c>
       <c r="DL3">
-        <v>0.0007496539584322925</v>
+        <v>0.000744801534164655</v>
       </c>
       <c r="DM3">
-        <v>0.0007336161984658313</v>
+        <v>0.0007287469531529215</v>
       </c>
       <c r="DN3">
-        <v>0.005441606488620286</v>
+        <v>0.005441675172168894</v>
       </c>
       <c r="DO3">
-        <v>0.002351312695082837</v>
+        <v>0.002348140154675315</v>
       </c>
       <c r="DP3">
-        <v>0.0007201811484939272</v>
+        <v>0.0007152978119622757</v>
       </c>
       <c r="DQ3">
-        <v>0.003190521593327849</v>
+        <v>0.003188229248839199</v>
       </c>
       <c r="DR3">
-        <v>0.0001301801197277619</v>
+        <v>0.0001246779664762963</v>
       </c>
       <c r="DS3">
-        <v>0.001326132997226735</v>
+        <v>0.001321885207274015</v>
       </c>
       <c r="DT3">
-        <v>0.02154164395495121</v>
+        <v>0.02155859900290945</v>
       </c>
       <c r="DU3">
-        <v>0.0004869454989816793</v>
+        <v>0.0004818175355552634</v>
       </c>
       <c r="DV3">
-        <v>0.004782990989997611</v>
+        <v>0.004782368891221096</v>
       </c>
       <c r="DW3">
-        <v>0.01403480097064984</v>
+        <v>0.01404388254089326</v>
       </c>
       <c r="DX3">
-        <v>0.009482997980168759</v>
+        <v>0.009487305437048855</v>
       </c>
       <c r="DY3">
-        <v>0.005690203488100409</v>
+        <v>0.005690532910143145</v>
       </c>
       <c r="DZ3">
-        <v>0.0001659446596529696</v>
+        <v>0.0001604800176840325</v>
       </c>
       <c r="EA3">
-        <v>0.008976277981228435</v>
+        <v>0.008980053969869799</v>
       </c>
       <c r="EB3">
-        <v>0.09726514979659506</v>
+        <v>0.0973615266916571</v>
       </c>
       <c r="EC3">
-        <v>0.03889389691866346</v>
+        <v>0.03892905170482019</v>
       </c>
       <c r="ED3">
-        <v>0.0008233200582782388</v>
+        <v>0.0008185448979678583</v>
       </c>
       <c r="EE3">
-        <v>7.955611983362894E-05</v>
+        <v>7.400087010261333E-05</v>
       </c>
       <c r="EF3">
-        <v>2.985334093756945E-05</v>
+        <v>2.424596094049917E-05</v>
       </c>
       <c r="EG3">
-        <v>4.875924789803263E-05</v>
+        <v>4.317169717372624E-05</v>
       </c>
       <c r="EH3">
-        <v>0.001725284696392013</v>
+        <v>0.001721455552735049</v>
       </c>
       <c r="EI3">
-        <v>0.00115857029757715</v>
+        <v>0.00115414676115094</v>
       </c>
       <c r="EJ3">
-        <v>0.01432068297005199</v>
+        <v>0.01433006438479144</v>
       </c>
       <c r="EK3">
-        <v>0.03740252992178228</v>
+        <v>0.03743612050247486</v>
       </c>
       <c r="EL3">
-        <v>0.05366380488777602</v>
+        <v>0.05371445094522853</v>
       </c>
       <c r="EM3">
-        <v>0.03728871792202028</v>
+        <v>0.03732218913212716</v>
       </c>
       <c r="EN3">
-        <v>0.008020068983228098</v>
+        <v>0.00802284206155787</v>
       </c>
       <c r="EO3">
-        <v>0.0006588623986221596</v>
+        <v>0.0006539147485286519</v>
       </c>
       <c r="EP3">
-        <v>8.760500981679676E-05</v>
+        <v>8.205820208410774E-05</v>
       </c>
       <c r="EQ3">
-        <v>0.004010257991613582</v>
+        <v>0.004008825419505601</v>
       </c>
       <c r="ER3">
-        <v>0.009257426980640483</v>
+        <v>0.009261497849617835</v>
       </c>
       <c r="ES3">
-        <v>0.007074271285205989</v>
+        <v>0.00707605237301276</v>
       </c>
       <c r="ET3">
-        <v>0.01050183547803813</v>
+        <v>0.01050721153250995</v>
       </c>
       <c r="EU3">
-        <v>0.0176740439630393</v>
+        <v>0.01768694251715455</v>
       </c>
       <c r="EV3">
-        <v>0.02066028295679436</v>
+        <v>0.02067631359802233</v>
       </c>
       <c r="EW3">
-        <v>0.01221706097445117</v>
+        <v>0.01222423602615127</v>
       </c>
       <c r="EX3">
-        <v>0.002172521995456732</v>
+        <v>0.002169161932199448</v>
       </c>
       <c r="EY3">
-        <v>0.0001610213496632655</v>
+        <v>0.0001555515439295383</v>
       </c>
       <c r="EZ3">
-        <v>0.00067877856858051</v>
+        <v>0.0006738518073640789</v>
       </c>
       <c r="FA3">
-        <v>0.004486767590617085</v>
+        <v>0.004485834800869878</v>
       </c>
       <c r="FB3">
-        <v>0.002000678595816098</v>
+        <v>0.001997138296315651</v>
       </c>
       <c r="FC3">
-        <v>7.047279385262436E-08</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.003806196592040323</v>
+        <v>0.003804549992159902</v>
       </c>
       <c r="FE3">
-        <v>0.01447015396973941</v>
+        <v>0.01447969215565251</v>
       </c>
       <c r="FF3">
-        <v>0.01112090197674351</v>
+        <v>0.01112692733296464</v>
       </c>
       <c r="FG3">
-        <v>0.01178010547536495</v>
+        <v>0.01178682223062917</v>
       </c>
       <c r="FH3">
-        <v>0.005657580988168631</v>
+        <v>0.005657876194426282</v>
       </c>
       <c r="FI3">
-        <v>1.742630696355738E-06</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.003573857492526201</v>
+        <v>0.003571967206088577</v>
       </c>
       <c r="FK3">
-        <v>0.002259956695273885</v>
+        <v>0.002256688337033204</v>
       </c>
       <c r="FL3">
-        <v>0.008775686981647919</v>
+        <v>0.00877925258241141</v>
       </c>
       <c r="FM3">
-        <v>0.01471399596922948</v>
+        <v>0.01472378990640219</v>
       </c>
       <c r="FN3">
-        <v>0.001971525995877063</v>
+        <v>0.00196795511996168</v>
       </c>
       <c r="FO3">
-        <v>0.0007232236684875645</v>
+        <v>0.0007183435230727935</v>
       </c>
       <c r="FP3">
-        <v>0.006219692986993119</v>
+        <v>0.006220577758838491</v>
       </c>
       <c r="FQ3">
-        <v>0.001609684396633761</v>
+        <v>0.001605734006750404</v>
       </c>
       <c r="FR3">
-        <v>0.0006741363285902181</v>
+        <v>0.0006692046984064744</v>
       </c>
       <c r="FS3">
-        <v>0.0001989920095838596</v>
+        <v>0.0001935620289997095</v>
       </c>
       <c r="FT3">
-        <v>0.003709005192243574</v>
+        <v>0.003707256654128668</v>
       </c>
       <c r="FU3">
-        <v>0.003863706491920056</v>
+        <v>0.003862120210727002</v>
       </c>
       <c r="FV3">
-        <v>0.001508525696845308</v>
+        <v>0.001504469207664269</v>
       </c>
       <c r="FW3">
-        <v>0.002906701793921384</v>
+        <v>0.002904111767854697</v>
       </c>
       <c r="FX3">
-        <v>0.003068878793582233</v>
+        <v>0.003066458865251086</v>
       </c>
       <c r="FY3">
-        <v>0.0005466518988568187</v>
+        <v>0.000541586557894977</v>
       </c>
       <c r="FZ3">
-        <v>0.0002469077294836563</v>
+        <v>0.0002415280048264796</v>
       </c>
       <c r="GA3">
-        <v>0.001312147597255982</v>
+        <v>0.001307885138855389</v>
       </c>
       <c r="GB3">
-        <v>0.0006758310985866739</v>
+        <v>0.0006709012459456105</v>
       </c>
       <c r="GC3">
-        <v>0.003638985792390001</v>
+        <v>0.003637163815122911</v>
       </c>
       <c r="GD3">
-        <v>0.003718667992223367</v>
+        <v>0.00371692958884026</v>
       </c>
       <c r="GE3">
-        <v>0.0002011963495792498</v>
+        <v>0.0001957686809952129</v>
       </c>
       <c r="GF3">
-        <v>0.0003930613491780138</v>
+        <v>0.000387834916293425</v>
       </c>
       <c r="GG3">
-        <v>0.001833236896166259</v>
+        <v>0.001829520977101972</v>
       </c>
       <c r="GH3">
-        <v>0.005652675988178889</v>
+        <v>0.005652966049876011</v>
       </c>
       <c r="GI3">
-        <v>0.001451987396963543</v>
+        <v>0.001447871608148147</v>
       </c>
       <c r="GJ3">
-        <v>0.002705303494342557</v>
+        <v>0.002702502233669411</v>
       </c>
       <c r="GK3">
-        <v>0.004005955991622578</v>
+        <v>0.004004518907404629</v>
       </c>
       <c r="GL3">
-        <v>0.001956468995908551</v>
+        <v>0.00195288232760828</v>
       </c>
       <c r="GM3">
-        <v>0.002101323295605625</v>
+        <v>0.002097888556299067</v>
       </c>
       <c r="GN3">
-        <v>0.000973219457964763</v>
+        <v>0.0009686015181511163</v>
       </c>
       <c r="GO3">
-        <v>0.0002343025595100167</v>
+        <v>0.0002289096140454931</v>
       </c>
       <c r="GP3">
-        <v>0.001239438097408035</v>
+        <v>0.001235099378370593</v>
       </c>
       <c r="GQ3">
-        <v>0.0001645238196559409</v>
+        <v>0.0001590576874530831</v>
       </c>
       <c r="GR3">
-        <v>0.001000886797906904</v>
+        <v>0.0009962978767079956</v>
       </c>
       <c r="GS3">
-        <v>0.004697034590177366</v>
+        <v>0.004696322336884519</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001446492145546277</v>
+        <v>0.0001384009306972302</v>
       </c>
       <c r="C4">
-        <v>5.886337292284223E-05</v>
+        <v>5.251116576255768E-05</v>
       </c>
       <c r="D4">
-        <v>1.397390840605695E-05</v>
+        <v>7.567320926961266E-06</v>
       </c>
       <c r="E4">
-        <v>0.0001195848120326434</v>
+        <v>0.0001133061644759987</v>
       </c>
       <c r="F4">
-        <v>0.0002303278531756263</v>
+        <v>0.0002241833627524716</v>
       </c>
       <c r="G4">
-        <v>7.306402735171442E-05</v>
+        <v>6.672902325062162E-05</v>
       </c>
       <c r="H4">
-        <v>5.963219900020164E-06</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>7.600878764801667E-05</v>
+        <v>6.967735090967723E-05</v>
       </c>
       <c r="J4">
-        <v>0.0001331278133953424</v>
+        <v>0.0001268655721990696</v>
       </c>
       <c r="K4">
-        <v>6.415743645553178E-06</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1.268411927627816E-05</v>
+        <v>6.27596931153397E-06</v>
       </c>
       <c r="M4">
-        <v>8.290177834159052E-06</v>
+        <v>1.876704929187526E-06</v>
       </c>
       <c r="N4">
-        <v>4.465241449293327E-07</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.746505775733697E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>4.182220820815745E-05</v>
+        <v>3.544935691722724E-05</v>
       </c>
       <c r="Q4">
-        <v>6.648210968944078E-06</v>
+        <v>2.327489406321667E-07</v>
       </c>
       <c r="R4">
-        <v>3.094281011347063E-05</v>
+        <v>2.455677922364721E-05</v>
       </c>
       <c r="S4">
-        <v>3.607278362964941E-05</v>
+        <v>2.969296732933615E-05</v>
       </c>
       <c r="T4">
-        <v>4.043099406817325E-05</v>
+        <v>3.405645742257729E-05</v>
       </c>
       <c r="U4">
-        <v>0.0002195713520933055</v>
+        <v>0.0002134138309520424</v>
       </c>
       <c r="V4">
-        <v>0.0002318696633307635</v>
+        <v>0.0002257270406983852</v>
       </c>
       <c r="W4">
-        <v>0.0001189539919691702</v>
+        <v>0.0001126745802199352</v>
       </c>
       <c r="X4">
-        <v>0.0002212594022631573</v>
+        <v>0.0002151039260718039</v>
       </c>
       <c r="Y4">
-        <v>0.0002284198529836431</v>
+        <v>0.0002222730511571368</v>
       </c>
       <c r="Z4">
-        <v>2.050225006293976E-05</v>
+        <v>1.410357119457113E-05</v>
       </c>
       <c r="AA4">
-        <v>1.342932435126082E-07</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>3.094281011347063E-05</v>
+        <v>2.455677922364721E-05</v>
       </c>
       <c r="AC4">
-        <v>9.455824551446618E-05</v>
+        <v>8.824928009413887E-05</v>
       </c>
       <c r="AD4">
-        <v>2.218281623203861E-05</v>
+        <v>1.578617324725742E-05</v>
       </c>
       <c r="AE4">
-        <v>2.108217212129162E-08</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>8.000729805034745E-06</v>
+        <v>1.586906254844514E-06</v>
       </c>
       <c r="AG4">
-        <v>4.954797098552497E-06</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>2.2026718216332E-05</v>
+        <v>1.562988613016697E-05</v>
       </c>
       <c r="AI4">
-        <v>0.0001136910474396118</v>
+        <v>0.0001074052600161628</v>
       </c>
       <c r="AJ4">
-        <v>0.0001781146179219221</v>
+        <v>0.000171906874964797</v>
       </c>
       <c r="AK4">
-        <v>9.20410892611895E-05</v>
+        <v>8.572907448928217E-05</v>
       </c>
       <c r="AL4">
-        <v>5.315461834842642E-06</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>9.847662990873465E-05</v>
+        <v>9.217241132588645E-05</v>
       </c>
       <c r="AN4">
-        <v>0.0001238496724617743</v>
+        <v>0.0001175761914731054</v>
       </c>
       <c r="AO4">
-        <v>4.360556738759934E-05</v>
+        <v>3.723487650650643E-05</v>
       </c>
       <c r="AP4">
-        <v>0.0001854728986623135</v>
+        <v>0.0001792740697267049</v>
       </c>
       <c r="AQ4">
-        <v>0.000174491347557348</v>
+        <v>0.0001682792152719098</v>
       </c>
       <c r="AR4">
-        <v>5.391247942468252E-05</v>
+        <v>4.755427461729462E-05</v>
       </c>
       <c r="AS4">
-        <v>9.478391953717353E-06</v>
+        <v>3.066358483662973E-06</v>
       </c>
       <c r="AT4">
-        <v>5.168683520073783E-07</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>9.969774603160356E-08</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>6.903907694672325E-05</v>
+        <v>6.269919691118617E-05</v>
       </c>
       <c r="AW4">
-        <v>8.656879871056671E-06</v>
+        <v>2.243851198911039E-06</v>
       </c>
       <c r="AX4">
-        <v>4.50970175376693E-06</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>5.287187931997717E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0001602150761208672</v>
+        <v>0.0001539856491717366</v>
       </c>
       <c r="BA4">
-        <v>8.032291308210468E-05</v>
+        <v>7.399670259270856E-05</v>
       </c>
       <c r="BB4">
-        <v>1.228240523585763E-05</v>
+        <v>5.873768623793758E-06</v>
       </c>
       <c r="BC4">
-        <v>0.0001199481520692027</v>
+        <v>0.0001136699446725653</v>
       </c>
       <c r="BD4">
-        <v>8.424189847643364E-05</v>
+        <v>7.792043555258445E-05</v>
       </c>
       <c r="BE4">
-        <v>0.0001728311473902984</v>
+        <v>0.0001666170038932018</v>
       </c>
       <c r="BF4">
-        <v>0.0003347879336864168</v>
+        <v>0.0003287699890472753</v>
       </c>
       <c r="BG4">
-        <v>0.0003675929369872616</v>
+        <v>0.0003616147332217818</v>
       </c>
       <c r="BH4">
-        <v>0.0001579206258899993</v>
+        <v>0.0001516884193814243</v>
       </c>
       <c r="BI4">
-        <v>8.320153837175243E-05</v>
+        <v>7.687881512736299E-05</v>
       </c>
       <c r="BJ4">
-        <v>9.948566001026343E-05</v>
+        <v>9.318266379393712E-05</v>
       </c>
       <c r="BK4">
-        <v>4.854321888442664E-05</v>
+        <v>4.217850960871633E-05</v>
       </c>
       <c r="BL4">
-        <v>5.713772374920713E-06</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>6.213460625199427E-06</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>3.346390036714314E-05</v>
+        <v>2.708092359465488E-05</v>
       </c>
       <c r="BO4">
-        <v>2.889570990749107E-05</v>
+        <v>2.250719910477411E-05</v>
       </c>
       <c r="BP4">
-        <v>1.696954670747857E-07</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0001016612762291743</v>
+        <v>9.536091561353664E-05</v>
       </c>
       <c r="BR4">
-        <v>0.0001368264737675022</v>
+        <v>0.0001305687132290492</v>
       </c>
       <c r="BS4">
-        <v>8.836962889176655E-05</v>
+        <v>8.205316641286292E-05</v>
       </c>
       <c r="BT4">
-        <v>0.000158075015905534</v>
+        <v>0.000151842996429225</v>
       </c>
       <c r="BU4">
-        <v>0.0001555122856476717</v>
+        <v>0.0001492771616101933</v>
       </c>
       <c r="BV4">
-        <v>7.132508717674197E-05</v>
+        <v>6.498797647620258E-05</v>
       </c>
       <c r="BW4">
-        <v>5.593475162816388E-05</v>
+        <v>4.95789966563517E-05</v>
       </c>
       <c r="BX4">
-        <v>0.000103272610391307</v>
+        <v>9.697420178971968E-05</v>
       </c>
       <c r="BY4">
-        <v>4.954797098552497E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>9.585810964525871E-08</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>6.648210968944078E-06</v>
+        <v>2.327489406321667E-07</v>
       </c>
       <c r="CB4">
-        <v>1.746505775733697E-06</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>2.404094541900387E-05</v>
+        <v>1.764655342248167E-05</v>
       </c>
       <c r="CD4">
-        <v>7.589975763704606E-08</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>5.743163577878061E-06</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>1.898683491045844E-05</v>
+        <v>1.258632022693785E-05</v>
       </c>
       <c r="CG4">
-        <v>7.393351743920264E-05</v>
+        <v>6.759956666206168E-05</v>
       </c>
       <c r="CH4">
-        <v>1.918552893045106E-05</v>
+        <v>1.278525495027299E-05</v>
       </c>
       <c r="CI4">
-        <v>0.0001099542510636148</v>
+        <v>0.0001036639367833533</v>
       </c>
       <c r="CJ4">
-        <v>7.530856757756042E-05</v>
+        <v>6.897628257357382E-05</v>
       </c>
       <c r="CK4">
-        <v>5.635390867033953E-05</v>
+        <v>4.999866147677399E-05</v>
       </c>
       <c r="CL4">
-        <v>0.0001587791159763807</v>
+        <v>0.0001525479494660569</v>
       </c>
       <c r="CM4">
-        <v>0.0004051286407641102</v>
+        <v>0.0003991959087715766</v>
       </c>
       <c r="CN4">
-        <v>0.09208164926527065</v>
+        <v>0.09218677596498935</v>
       </c>
       <c r="CO4">
-        <v>0.0001079462048615648</v>
+        <v>0.0001016534579794928</v>
       </c>
       <c r="CP4">
-        <v>0.1137821314487767</v>
+        <v>0.1139135467031083</v>
       </c>
       <c r="CQ4">
-        <v>0.02857371887509228</v>
+        <v>0.02860191033981031</v>
       </c>
       <c r="CR4">
-        <v>0.001096093810289139</v>
+        <v>0.001090998132304949</v>
       </c>
       <c r="CS4">
-        <v>0.01193379820078073</v>
+        <v>0.01194183161280195</v>
       </c>
       <c r="CT4">
-        <v>0.02718212273506965</v>
+        <v>0.02720862838235668</v>
       </c>
       <c r="CU4">
-        <v>0.02639310465567852</v>
+        <v>0.02641865446499406</v>
       </c>
       <c r="CV4">
-        <v>0.01665493467582226</v>
+        <v>0.01666868740103706</v>
       </c>
       <c r="CW4">
-        <v>0.01095000110179091</v>
+        <v>0.01095684271523613</v>
       </c>
       <c r="CX4">
-        <v>0.002383477739825921</v>
+        <v>0.002379941633765213</v>
       </c>
       <c r="CY4">
-        <v>0.0001292211930022576</v>
+        <v>0.0001229542192197369</v>
       </c>
       <c r="CZ4">
-        <v>0.0002836472285406306</v>
+        <v>0.0002775673306596764</v>
       </c>
       <c r="DA4">
-        <v>0.007029310707290397</v>
+        <v>0.007031402689705092</v>
       </c>
       <c r="DB4">
-        <v>9.138775419545081E-05</v>
+        <v>8.507494795566682E-05</v>
       </c>
       <c r="DC4">
-        <v>0.00423463472608964</v>
+        <v>0.004233341161974265</v>
       </c>
       <c r="DD4">
-        <v>0.005192858522506276</v>
+        <v>0.005192725776772285</v>
       </c>
       <c r="DE4">
-        <v>0.009256695431410214</v>
+        <v>0.009261485728289486</v>
       </c>
       <c r="DF4">
-        <v>0.0005305347533824938</v>
+        <v>0.0005247539417672349</v>
       </c>
       <c r="DG4">
-        <v>0.005661831569694421</v>
+        <v>0.005662266950671106</v>
       </c>
       <c r="DH4">
-        <v>0.02265837827988974</v>
+        <v>0.02267940374004732</v>
       </c>
       <c r="DI4">
-        <v>0.0007695402174312629</v>
+        <v>0.0007640489435387745</v>
       </c>
       <c r="DJ4">
-        <v>0.007129685317390106</v>
+        <v>0.007131898896338788</v>
       </c>
       <c r="DK4">
-        <v>0.002220349223411903</v>
+        <v>0.002216615499027491</v>
       </c>
       <c r="DL4">
-        <v>0.001067671307429262</v>
+        <v>0.001062541197651697</v>
       </c>
       <c r="DM4">
-        <v>6.912289695515722E-06</v>
+        <v>4.971475793590751E-07</v>
       </c>
       <c r="DN4">
-        <v>0.003819173584285872</v>
+        <v>0.003817376719238127</v>
       </c>
       <c r="DO4">
-        <v>0.002686760470342279</v>
+        <v>0.002683591769234001</v>
       </c>
       <c r="DP4">
-        <v>0.0002162146317555517</v>
+        <v>0.0002100530441919312</v>
       </c>
       <c r="DQ4">
-        <v>0.00392102839453452</v>
+        <v>0.0039193549191755</v>
       </c>
       <c r="DR4">
-        <v>0.0007660493770800139</v>
+        <v>0.0007605538742885341</v>
       </c>
       <c r="DS4">
-        <v>0.00432089843476951</v>
+        <v>0.004319709372858168</v>
       </c>
       <c r="DT4">
-        <v>0.02585282260131525</v>
+        <v>0.02587771789824842</v>
       </c>
       <c r="DU4">
-        <v>0.0004306939433364952</v>
+        <v>0.0004247921818471599</v>
       </c>
       <c r="DV4">
-        <v>0.0004789512181921501</v>
+        <v>0.0004731079168787126</v>
       </c>
       <c r="DW4">
-        <v>0.02844110586174873</v>
+        <v>0.02846913667545384</v>
       </c>
       <c r="DX4">
-        <v>0.007175843022034501</v>
+        <v>0.007178112517682596</v>
       </c>
       <c r="DY4">
-        <v>0.00341125214324075</v>
+        <v>0.003408961111059297</v>
       </c>
       <c r="DZ4">
-        <v>0.0005899695093628288</v>
+        <v>0.0005842606986282546</v>
       </c>
       <c r="EA4">
-        <v>0.01063706457030318</v>
+        <v>0.01064352708391879</v>
       </c>
       <c r="EB4">
-        <v>0.08751994880627161</v>
+        <v>0.087619549337925</v>
       </c>
       <c r="EC4">
-        <v>0.03406161742728553</v>
+        <v>0.03409645708164191</v>
       </c>
       <c r="ED4">
-        <v>0.0007071452111530671</v>
+        <v>0.0007015783502521312</v>
       </c>
       <c r="EE4">
-        <v>0.0001269051727692193</v>
+        <v>0.0001206353932967666</v>
       </c>
       <c r="EF4">
-        <v>0.0001715003772563961</v>
+        <v>0.0001652846216281474</v>
       </c>
       <c r="EG4">
-        <v>0.0003161399318100518</v>
+        <v>0.000310099396474003</v>
       </c>
       <c r="EH4">
-        <v>0.002942459696070777</v>
+        <v>0.002939600755962425</v>
       </c>
       <c r="EI4">
-        <v>0.0001928095194005255</v>
+        <v>0.0001866195782469173</v>
       </c>
       <c r="EJ4">
-        <v>0.01070392007703019</v>
+        <v>0.01071046358122587</v>
       </c>
       <c r="EK4">
-        <v>0.02786116780339527</v>
+        <v>0.02788849606435569</v>
       </c>
       <c r="EL4">
-        <v>0.04591795862027252</v>
+        <v>0.04596716136897518</v>
       </c>
       <c r="EM4">
-        <v>0.02808175482559078</v>
+        <v>0.02810935031167232</v>
       </c>
       <c r="EN4">
-        <v>0.004614211164282685</v>
+        <v>0.004613377429393262</v>
       </c>
       <c r="EO4">
-        <v>0.000279069998080069</v>
+        <v>0.0002729845552175829</v>
       </c>
       <c r="EP4">
-        <v>0.0002613318262952513</v>
+        <v>0.0002552248949287884</v>
       </c>
       <c r="EQ4">
-        <v>0.009110685916718712</v>
+        <v>0.009115299333698795</v>
       </c>
       <c r="ER4">
-        <v>0.01323698233190733</v>
+        <v>0.01324659445664619</v>
       </c>
       <c r="ES4">
-        <v>0.007844817789346852</v>
+        <v>0.007847897699231665</v>
       </c>
       <c r="ET4">
-        <v>0.01105863311272148</v>
+        <v>0.01106560632594075</v>
       </c>
       <c r="EU4">
-        <v>0.01922248493416958</v>
+        <v>0.01923934805963343</v>
       </c>
       <c r="EV4">
-        <v>0.01753054176392599</v>
+        <v>0.01754535522339363</v>
       </c>
       <c r="EW4">
-        <v>0.007433431047953051</v>
+        <v>0.007436012592745019</v>
       </c>
       <c r="EX4">
-        <v>0.001259897926771136</v>
+        <v>0.001255000685550956</v>
       </c>
       <c r="EY4">
-        <v>0.00043211090347907</v>
+        <v>0.0004262108585338086</v>
       </c>
       <c r="EZ4">
-        <v>0.002683767370041113</v>
+        <v>0.002680595043009684</v>
       </c>
       <c r="FA4">
-        <v>0.008507737856049977</v>
+        <v>0.008511620845342434</v>
       </c>
       <c r="FB4">
-        <v>0.003569042359117628</v>
+        <v>0.003566942478297347</v>
       </c>
       <c r="FC4">
-        <v>0.001132116213913719</v>
+        <v>0.001127064174449492</v>
       </c>
       <c r="FD4">
-        <v>0.009166034922287937</v>
+        <v>0.009170715390559478</v>
       </c>
       <c r="FE4">
-        <v>0.02134791014803022</v>
+        <v>0.02136734807143348</v>
       </c>
       <c r="FF4">
-        <v>0.01351433935981504</v>
+        <v>0.01352428748240472</v>
       </c>
       <c r="FG4">
-        <v>0.01541408055096731</v>
+        <v>0.01542633007173016</v>
       </c>
       <c r="FH4">
-        <v>0.006261176130000569</v>
+        <v>0.006262337573286484</v>
       </c>
       <c r="FI4">
-        <v>4.619572864822179E-05</v>
+        <v>3.982817555896136E-05</v>
       </c>
       <c r="FJ4">
-        <v>0.00270683597236228</v>
+        <v>0.002703691591263426</v>
       </c>
       <c r="FK4">
-        <v>0.002868912888670485</v>
+        <v>0.002865964851958353</v>
       </c>
       <c r="FL4">
-        <v>0.01212584922010494</v>
+        <v>0.01213411528795691</v>
       </c>
       <c r="FM4">
-        <v>0.01682717369315298</v>
+        <v>0.0168411350734002</v>
       </c>
       <c r="FN4">
-        <v>0.003651762467440938</v>
+        <v>0.003649762796010792</v>
       </c>
       <c r="FO4">
-        <v>0.003144410316391082</v>
+        <v>0.003141796024759501</v>
       </c>
       <c r="FP4">
-        <v>0.007806595785500949</v>
+        <v>0.007809629392210236</v>
       </c>
       <c r="FQ4">
-        <v>0.004197042822307137</v>
+        <v>0.004195703718336601</v>
       </c>
       <c r="FR4">
-        <v>0.001997509500989733</v>
+        <v>0.001993505822501846</v>
       </c>
       <c r="FS4">
-        <v>0.000430005213267195</v>
+        <v>0.0004241026174315126</v>
       </c>
       <c r="FT4">
-        <v>0.001528281653775951</v>
+        <v>0.001523709539905703</v>
       </c>
       <c r="FU4">
-        <v>0.001659903867019799</v>
+        <v>0.001655491203880272</v>
       </c>
       <c r="FV4">
-        <v>0.0003728435075155748</v>
+        <v>0.0003668716644341072</v>
       </c>
       <c r="FW4">
-        <v>0.002151245516458677</v>
+        <v>0.002147428077963268</v>
       </c>
       <c r="FX4">
-        <v>0.002505411252094891</v>
+        <v>0.002502022859608901</v>
       </c>
       <c r="FY4">
-        <v>0.000344848434698706</v>
+        <v>0.000338842677624249</v>
       </c>
       <c r="FZ4">
-        <v>0.0001272794428068784</v>
+        <v>0.0001210101167353337</v>
       </c>
       <c r="GA4">
-        <v>0.001580278159007848</v>
+        <v>0.001575769035118925</v>
       </c>
       <c r="GB4">
-        <v>0.00165805146683341</v>
+        <v>0.001653636559645891</v>
       </c>
       <c r="GC4">
-        <v>0.003886927991103332</v>
+        <v>0.003885213205587683</v>
       </c>
       <c r="GD4">
-        <v>0.003781323980477439</v>
+        <v>0.003779481263389708</v>
       </c>
       <c r="GE4">
-        <v>0.0006499709054001791</v>
+        <v>0.0006443347819894737</v>
       </c>
       <c r="GF4">
-        <v>3.573758659592183E-05</v>
+        <v>2.93573642288008E-05</v>
       </c>
       <c r="GG4">
-        <v>0.0008778205883264515</v>
+        <v>0.0008724604882217027</v>
       </c>
       <c r="GH4">
-        <v>0.002486710650213234</v>
+        <v>0.002483299603309258</v>
       </c>
       <c r="GI4">
-        <v>0.0003739596676278831</v>
+        <v>0.0003679891766931476</v>
       </c>
       <c r="GJ4">
-        <v>0.001228615123623455</v>
+        <v>0.0012236799855643</v>
       </c>
       <c r="GK4">
-        <v>0.001409377141811759</v>
+        <v>0.001404660983780186</v>
       </c>
       <c r="GL4">
-        <v>0.0003267399328766257</v>
+        <v>0.0003207122386703075</v>
       </c>
       <c r="GM4">
-        <v>0.001040355604680751</v>
+        <v>0.001035192403917584</v>
       </c>
       <c r="GN4">
-        <v>0.0004437890746541294</v>
+        <v>0.0004379031769632064</v>
       </c>
       <c r="GO4">
-        <v>4.182220820815745E-05</v>
+        <v>3.544935691722724E-05</v>
       </c>
       <c r="GP4">
-        <v>0.0007186815023138507</v>
+        <v>0.0007131286167899432</v>
       </c>
       <c r="GQ4">
-        <v>1.419082042788268E-06</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.001253014226078497</v>
+        <v>0.001248108645755984</v>
       </c>
       <c r="GS4">
-        <v>0.0040213391046278</v>
+        <v>0.004019787148392561</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001715996413368869</v>
+        <v>0.0001611972813066355</v>
       </c>
       <c r="C5">
-        <v>0.0001200365339400219</v>
+        <v>0.0001095348154319114</v>
       </c>
       <c r="D5">
-        <v>7.766249607925178E-05</v>
+        <v>6.707912578335846E-05</v>
       </c>
       <c r="E5">
-        <v>5.37352832872039E-05</v>
+        <v>4.310580693676018E-05</v>
       </c>
       <c r="F5">
-        <v>2.608287368322053E-05</v>
+        <v>1.540011308622741E-05</v>
       </c>
       <c r="G5">
-        <v>3.692103813606177E-05</v>
+        <v>2.625916191895159E-05</v>
       </c>
       <c r="H5">
-        <v>4.397989177969945E-06</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.071237845919149E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>3.330567131858158E-06</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1.298608484440468E-05</v>
+        <v>2.278087657346275E-06</v>
       </c>
       <c r="L5">
-        <v>9.727985508888024E-05</v>
+        <v>8.673428606271666E-05</v>
       </c>
       <c r="M5">
-        <v>0.0001474611525555052</v>
+        <v>0.0001370122793567459</v>
       </c>
       <c r="N5">
-        <v>7.549348618875304E-05</v>
+        <v>6.490593636350121E-05</v>
       </c>
       <c r="O5">
-        <v>0.000176754691076637</v>
+        <v>0.0001663622644643134</v>
       </c>
       <c r="P5">
-        <v>1.799546309150898E-05</v>
+        <v>7.29711862366748E-06</v>
       </c>
       <c r="Q5">
-        <v>1.905296803812143E-06</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>5.425976026072597E-05</v>
+        <v>4.363129454048651E-05</v>
       </c>
       <c r="S5">
-        <v>0.0002248121586504823</v>
+        <v>0.0002145123353948794</v>
       </c>
       <c r="T5">
-        <v>4.404208277655977E-06</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>3.283707834223823E-06</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>2.315709683092676E-05</v>
+        <v>1.24686984679169E-05</v>
       </c>
       <c r="W5">
-        <v>4.20968078747659E-05</v>
+        <v>3.14449050015628E-05</v>
       </c>
       <c r="X5">
-        <v>1.407780028929003E-06</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>4.59135376820804E-06</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>1.424793678070078E-05</v>
+        <v>3.542371093487974E-06</v>
       </c>
       <c r="AA5">
-        <v>1.657371916328494E-05</v>
+        <v>5.872635094985955E-06</v>
       </c>
       <c r="AB5">
-        <v>2.849903956124173E-06</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>2.148061191556317E-09</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>1.200844739376016E-05</v>
+        <v>1.298566368161031E-06</v>
       </c>
       <c r="AE5">
-        <v>0.0001381618230249767</v>
+        <v>0.0001276950306728942</v>
       </c>
       <c r="AF5">
-        <v>7.586443617002583E-05</v>
+        <v>6.527760113927267E-05</v>
       </c>
       <c r="AG5">
-        <v>5.661450714184788E-05</v>
+        <v>4.59905788530718E-05</v>
       </c>
       <c r="AH5">
-        <v>0.0001479794325293401</v>
+        <v>0.000137531558019603</v>
       </c>
       <c r="AI5">
-        <v>0.0001129007043002703</v>
+        <v>0.0001023852355508135</v>
       </c>
       <c r="AJ5">
-        <v>1.355675231559485E-05</v>
+        <v>2.849854764577863E-06</v>
       </c>
       <c r="AK5">
-        <v>6.518825670900686E-06</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0001129007043002703</v>
+        <v>0.0001023852355508135</v>
       </c>
       <c r="AM5">
-        <v>1.146167742136355E-05</v>
+        <v>7.507428085207604E-07</v>
       </c>
       <c r="AN5">
-        <v>3.112895842847173E-07</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0001286811235036045</v>
+        <v>0.0001181960625109952</v>
       </c>
       <c r="AP5">
-        <v>7.968504597714446E-05</v>
+        <v>6.910557299251484E-05</v>
       </c>
       <c r="AQ5">
-        <v>1.591579419649992E-08</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>2.621463767656849E-05</v>
+        <v>1.553213097951424E-05</v>
       </c>
       <c r="AS5">
-        <v>3.763525810000478E-05</v>
+        <v>2.69747581344833E-05</v>
       </c>
       <c r="AT5">
-        <v>2.449260376350442E-05</v>
+        <v>1.380677882833261E-05</v>
       </c>
       <c r="AU5">
-        <v>1.838447607186988E-05</v>
+        <v>7.686881204654626E-06</v>
       </c>
       <c r="AV5">
-        <v>6.852931654033531E-05</v>
+        <v>5.792834725045553E-05</v>
       </c>
       <c r="AW5">
-        <v>8.572490567222548E-05</v>
+        <v>7.515707107201608E-05</v>
       </c>
       <c r="AX5">
-        <v>5.629411715802259E-05</v>
+        <v>4.566957150030345E-05</v>
       </c>
       <c r="AY5">
-        <v>3.435274826572048E-05</v>
+        <v>2.368592313484033E-05</v>
       </c>
       <c r="AZ5">
-        <v>0.0001665973415894252</v>
+        <v>0.0001561853424797274</v>
       </c>
       <c r="BA5">
-        <v>0.0003488089823905712</v>
+        <v>0.0003387480922848142</v>
       </c>
       <c r="BB5">
-        <v>0.000110761794408252</v>
+        <v>0.0001002422041300147</v>
       </c>
       <c r="BC5">
-        <v>9.57118701680391E-05</v>
+        <v>8.516327974532078E-05</v>
       </c>
       <c r="BD5">
-        <v>0.0001011408548939598</v>
+        <v>9.060272574260234E-05</v>
       </c>
       <c r="BE5">
-        <v>9.43103552387938E-08</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>8.185010586784261E-09</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>1.225705338120943E-05</v>
+        <v>1.547651401846E-06</v>
       </c>
       <c r="BH5">
-        <v>2.899585153616045E-08</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>3.848668505702096E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>2.899585153616045E-08</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>3.96005580007877E-05</v>
+        <v>2.894384502981594E-05</v>
       </c>
       <c r="BL5">
-        <v>6.73770525985067E-05</v>
+        <v>5.677386297713157E-05</v>
       </c>
       <c r="BM5">
-        <v>0.0001532968222608946</v>
+        <v>0.0001428591939868206</v>
       </c>
       <c r="BN5">
-        <v>7.867052602836195E-05</v>
+        <v>6.808909813521425E-05</v>
       </c>
       <c r="BO5">
-        <v>1.866615505764947E-05</v>
+        <v>7.96910296600933E-06</v>
       </c>
       <c r="BP5">
-        <v>0.0001782341910019453</v>
+        <v>0.0001678446152818195</v>
       </c>
       <c r="BQ5">
-        <v>0.0001963284800884651</v>
+        <v>0.0001859737707895528</v>
       </c>
       <c r="BR5">
-        <v>0.0001136287542635151</v>
+        <v>0.0001031146884150821</v>
       </c>
       <c r="BS5">
-        <v>7.766249607925178E-05</v>
+        <v>6.707912578335846E-05</v>
       </c>
       <c r="BT5">
-        <v>0.0001376262730520136</v>
+        <v>0.0001271584487328366</v>
       </c>
       <c r="BU5">
-        <v>2.571608870173746E-08</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>1.336558532524581E-07</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>1.750264611638857E-05</v>
+        <v>6.803352024930825E-06</v>
       </c>
       <c r="BX5">
-        <v>9.406482525118925E-07</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>2.300208883875225E-07</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>9.837823503342913E-05</v>
+        <v>8.783478250809165E-05</v>
       </c>
       <c r="CA5">
-        <v>8.859775552719125E-06</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>2.315709683092676E-05</v>
+        <v>1.24686984679169E-05</v>
       </c>
       <c r="CC5">
-        <v>6.254616084239161E-08</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>3.529467821816766E-05</v>
+        <v>2.462966811999307E-05</v>
       </c>
       <c r="CE5">
-        <v>0.0002031377297447039</v>
+        <v>0.0001927961413905011</v>
       </c>
       <c r="CF5">
-        <v>7.255080633731261E-05</v>
+        <v>6.195758617515468E-05</v>
       </c>
       <c r="CG5">
-        <v>0.0001680722215149667</v>
+        <v>0.0001576630643950523</v>
       </c>
       <c r="CH5">
-        <v>0.0001931875502470332</v>
+        <v>0.0001828267885974411</v>
       </c>
       <c r="CI5">
-        <v>0.0001183263140263614</v>
+        <v>0.0001078213000448784</v>
       </c>
       <c r="CJ5">
-        <v>6.480593272830827E-05</v>
+        <v>5.419778873995269E-05</v>
       </c>
       <c r="CK5">
-        <v>0.0001639589717226219</v>
+        <v>0.0001535418886599346</v>
       </c>
       <c r="CL5">
-        <v>0.0001797993109229311</v>
+        <v>0.000169412751078707</v>
       </c>
       <c r="CM5">
-        <v>0.0004358458479965631</v>
+        <v>0.0004259526718033459</v>
       </c>
       <c r="CN5">
-        <v>0.1171595240852661</v>
+        <v>0.1173745492195717</v>
       </c>
       <c r="CO5">
-        <v>0.0074079289260148</v>
+        <v>0.007411470463071257</v>
       </c>
       <c r="CP5">
-        <v>0.1193777779732788</v>
+        <v>0.1195970775266593</v>
       </c>
       <c r="CQ5">
-        <v>0.0268694016435131</v>
+        <v>0.0269104440683889</v>
       </c>
       <c r="CR5">
-        <v>0.00119341643975103</v>
+        <v>0.001184983048754391</v>
       </c>
       <c r="CS5">
-        <v>0.00847414557218744</v>
+        <v>0.008479741633658345</v>
       </c>
       <c r="CT5">
-        <v>0.02793431158975171</v>
+        <v>0.02797740602112318</v>
       </c>
       <c r="CU5">
-        <v>0.02794574658917442</v>
+        <v>0.02798886305498475</v>
       </c>
       <c r="CV5">
-        <v>0.01683507015009078</v>
+        <v>0.0168567771246058</v>
       </c>
       <c r="CW5">
-        <v>0.001463279526127141</v>
+        <v>0.001455366142299316</v>
       </c>
       <c r="CX5">
-        <v>0.0005575173118540465</v>
+        <v>0.0005478585880058891</v>
       </c>
       <c r="CY5">
-        <v>8.46725157253548E-05</v>
+        <v>7.410265324380709E-05</v>
       </c>
       <c r="CZ5">
-        <v>0.001775718310353842</v>
+        <v>0.001768406974067217</v>
       </c>
       <c r="DA5">
-        <v>0.003529853921797274</v>
+        <v>0.003525922681340987</v>
       </c>
       <c r="DB5">
-        <v>0.0001022907398359085</v>
+        <v>9.17548264318811E-05</v>
       </c>
       <c r="DC5">
-        <v>0.000609350569237273</v>
+        <v>0.0005997917244269797</v>
       </c>
       <c r="DD5">
-        <v>0.002649893666221581</v>
+        <v>0.002644266804302888</v>
       </c>
       <c r="DE5">
-        <v>0.004859225754684672</v>
+        <v>0.004857856120161244</v>
       </c>
       <c r="DF5">
-        <v>0.001157455041566521</v>
+        <v>0.0011489523554873</v>
       </c>
       <c r="DG5">
-        <v>0.004377446379007038</v>
+        <v>0.004375148389544432</v>
       </c>
       <c r="DH5">
-        <v>0.01628304917795926</v>
+        <v>0.01630369244692381</v>
       </c>
       <c r="DI5">
-        <v>0.0009107768540199335</v>
+        <v>0.0009017988364397024</v>
       </c>
       <c r="DJ5">
-        <v>0.006369854978421389</v>
+        <v>0.006371396220062284</v>
       </c>
       <c r="DK5">
-        <v>0.001927911602670447</v>
+        <v>0.001920893532143556</v>
       </c>
       <c r="DL5">
-        <v>0.0008956999547810824</v>
+        <v>0.000886692885077447</v>
       </c>
       <c r="DM5">
-        <v>0.001156004641639744</v>
+        <v>0.001147499160741973</v>
       </c>
       <c r="DN5">
-        <v>0.00430552278263806</v>
+        <v>0.004303086201468746</v>
       </c>
       <c r="DO5">
-        <v>0.001071450545908411</v>
+        <v>0.001062782135220859</v>
       </c>
       <c r="DP5">
-        <v>0.0007632301614687468</v>
+        <v>0.0007539678317994053</v>
       </c>
       <c r="DQ5">
-        <v>0.004030268796534106</v>
+        <v>0.004027301820311727</v>
       </c>
       <c r="DR5">
-        <v>0.001517860623371645</v>
+        <v>0.001510052413475646</v>
       </c>
       <c r="DS5">
-        <v>0.006295455682177396</v>
+        <v>0.006296853561612215</v>
       </c>
       <c r="DT5">
-        <v>0.02195241789174431</v>
+        <v>0.02198398563509106</v>
       </c>
       <c r="DU5">
-        <v>0.0001493696524591556</v>
+        <v>0.0001389244568053503</v>
       </c>
       <c r="DV5">
-        <v>0.0006081523292977655</v>
+        <v>0.000598591175563466</v>
       </c>
       <c r="DW5">
-        <v>0.02279141384938806</v>
+        <v>0.02282459827887903</v>
       </c>
       <c r="DX5">
-        <v>0.001834944007363865</v>
+        <v>0.00182774679482583</v>
       </c>
       <c r="DY5">
-        <v>0.001131228442890557</v>
+        <v>0.001122675220002065</v>
       </c>
       <c r="DZ5">
-        <v>4.847414755280943E-07</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.02236268387103225</v>
+        <v>0.02239504216803796</v>
       </c>
       <c r="EB5">
-        <v>0.09110924140040028</v>
+        <v>0.09127406947393822</v>
       </c>
       <c r="EC5">
-        <v>0.02849686356135158</v>
+        <v>0.0285410419907681</v>
       </c>
       <c r="ED5">
-        <v>0.0005462678124219712</v>
+        <v>0.0005365874115803843</v>
       </c>
       <c r="EE5">
-        <v>4.134124291291018E-05</v>
+        <v>3.068788411921812E-05</v>
       </c>
       <c r="EF5">
-        <v>0.0007644087614092458</v>
+        <v>0.000755148702819015</v>
       </c>
       <c r="EG5">
-        <v>0.0008679378261826382</v>
+        <v>0.0008588772608116754</v>
       </c>
       <c r="EH5">
-        <v>0.003358570830444406</v>
+        <v>0.003354309539529585</v>
       </c>
       <c r="EI5">
-        <v>0.00106781854609177</v>
+        <v>0.001059143136796269</v>
       </c>
       <c r="EJ5">
-        <v>0.01518803923324023</v>
+        <v>0.01520657249513111</v>
       </c>
       <c r="EK5">
-        <v>0.04103984092812629</v>
+        <v>0.04110818879189036</v>
       </c>
       <c r="EL5">
-        <v>0.04533667271120312</v>
+        <v>0.04541330026731189</v>
       </c>
       <c r="EM5">
-        <v>0.02512734273145998</v>
+        <v>0.02516502833145496</v>
       </c>
       <c r="EN5">
-        <v>0.003371971029767905</v>
+        <v>0.003367735560093793</v>
       </c>
       <c r="EO5">
-        <v>0.0001619214518254849</v>
+        <v>0.0001515004426053993</v>
       </c>
       <c r="EP5">
-        <v>0.0004657971764844868</v>
+        <v>0.0004559617143926622</v>
       </c>
       <c r="EQ5">
-        <v>0.005536189020508554</v>
+        <v>0.005536123846539474</v>
       </c>
       <c r="ER5">
-        <v>0.008189004586582626</v>
+        <v>0.008194051201448484</v>
       </c>
       <c r="ES5">
-        <v>0.008112831590428178</v>
+        <v>0.008117731425293101</v>
       </c>
       <c r="ET5">
-        <v>0.0116997674093437</v>
+        <v>0.01171157901700778</v>
       </c>
       <c r="EU5">
-        <v>0.01661939316097912</v>
+        <v>0.01664068454112</v>
       </c>
       <c r="EV5">
-        <v>0.01799915409132264</v>
+        <v>0.01802310417363974</v>
       </c>
       <c r="EW5">
-        <v>0.005059951744551131</v>
+        <v>0.005058968894878864</v>
       </c>
       <c r="EX5">
-        <v>0.0002740436861650558</v>
+        <v>0.0002638387285970244</v>
       </c>
       <c r="EY5">
-        <v>0.0009902937500055669</v>
+        <v>0.0009814689558858307</v>
       </c>
       <c r="EZ5">
-        <v>0.004030268796534106</v>
+        <v>0.004027301820311727</v>
       </c>
       <c r="FA5">
-        <v>0.007815995605413779</v>
+        <v>0.007820323458233133</v>
       </c>
       <c r="FB5">
-        <v>0.002410385878313</v>
+        <v>0.002404297501748597</v>
       </c>
       <c r="FC5">
-        <v>0.000645328917420926</v>
+        <v>0.0006358394003546707</v>
       </c>
       <c r="FD5">
-        <v>0.006935130949883744</v>
+        <v>0.00693776143852565</v>
       </c>
       <c r="FE5">
-        <v>0.01764945210897716</v>
+        <v>0.01767272834019364</v>
       </c>
       <c r="FF5">
-        <v>0.01247466137022361</v>
+        <v>0.01248796614399699</v>
       </c>
       <c r="FG5">
-        <v>0.01323992533158968</v>
+        <v>0.01325470471514126</v>
       </c>
       <c r="FH5">
-        <v>0.004280124083920299</v>
+        <v>0.004277638561246649</v>
       </c>
       <c r="FI5">
-        <v>0.0003265490035143539</v>
+        <v>0.0003164452199964274</v>
       </c>
       <c r="FJ5">
-        <v>0.004008395797638352</v>
+        <v>0.004005386673686982</v>
       </c>
       <c r="FK5">
-        <v>0.004681265163668913</v>
+        <v>0.004679552611615203</v>
       </c>
       <c r="FL5">
-        <v>0.01294215934662223</v>
+        <v>0.01295636495608381</v>
       </c>
       <c r="FM5">
-        <v>0.0156777292085185</v>
+        <v>0.01569720606851708</v>
       </c>
       <c r="FN5">
-        <v>0.003084253644293158</v>
+        <v>0.00307946376347283</v>
       </c>
       <c r="FO5">
-        <v>0.003273222234753183</v>
+        <v>0.003268796483103092</v>
       </c>
       <c r="FP5">
-        <v>0.007001506646532803</v>
+        <v>0.007004265036469236</v>
       </c>
       <c r="FQ5">
-        <v>0.003548846420838448</v>
+        <v>0.003544951777590723</v>
       </c>
       <c r="FR5">
-        <v>0.001132762942813088</v>
+        <v>0.001124212676797917</v>
       </c>
       <c r="FS5">
-        <v>0.0002093168494327545</v>
+        <v>0.0001989871678071743</v>
       </c>
       <c r="FT5">
-        <v>0.001912922303427174</v>
+        <v>0.001905875349575902</v>
       </c>
       <c r="FU5">
-        <v>0.001332031232753139</v>
+        <v>0.001323864942703994</v>
       </c>
       <c r="FV5">
-        <v>0.0005733118710566669</v>
+        <v>0.0005636835822121401</v>
       </c>
       <c r="FW5">
-        <v>0.002653568866036041</v>
+        <v>0.002647949085968653</v>
       </c>
       <c r="FX5">
-        <v>0.002124940892723533</v>
+        <v>0.002118302483767513</v>
       </c>
       <c r="FY5">
-        <v>0.0004086718293684284</v>
+        <v>0.0003987262907543931</v>
       </c>
       <c r="FZ5">
-        <v>0.0005619032016326273</v>
+        <v>0.0005522529290853022</v>
       </c>
       <c r="GA5">
-        <v>0.002738817461732313</v>
+        <v>0.002733361949707245</v>
       </c>
       <c r="GB5">
-        <v>0.002349204881401689</v>
+        <v>0.002342998613363441</v>
       </c>
       <c r="GC5">
-        <v>0.004729959761210593</v>
+        <v>0.004728341040218197</v>
       </c>
       <c r="GD5">
-        <v>0.004248852785499014</v>
+        <v>0.004246307005234837</v>
       </c>
       <c r="GE5">
-        <v>0.0005798824707249538</v>
+        <v>0.000570266842963411</v>
       </c>
       <c r="GF5">
-        <v>0.000343662232650402</v>
+        <v>0.0003335914251202321</v>
       </c>
       <c r="GG5">
-        <v>0.001293916534677338</v>
+        <v>0.001285676800288315</v>
       </c>
       <c r="GH5">
-        <v>0.002607804168346447</v>
+        <v>0.002602096202928492</v>
       </c>
       <c r="GI5">
-        <v>0.0006354442079199501</v>
+        <v>0.0006259356437143799</v>
       </c>
       <c r="GJ5">
-        <v>0.002851984556019134</v>
+        <v>0.00284674710901768</v>
       </c>
       <c r="GK5">
-        <v>0.002978794349617212</v>
+        <v>0.002973801256160484</v>
       </c>
       <c r="GL5">
-        <v>0.001596017119425957</v>
+        <v>0.001588359511595559</v>
       </c>
       <c r="GM5">
-        <v>0.00111822794354688</v>
+        <v>0.001109649669611402</v>
       </c>
       <c r="GN5">
-        <v>0.0004506656772483922</v>
+        <v>0.0004408010578228124</v>
       </c>
       <c r="GO5">
-        <v>0.0003195814338661078</v>
+        <v>0.000309464224331993</v>
       </c>
       <c r="GP5">
-        <v>0.001035188547739078</v>
+        <v>0.001026450262733935</v>
       </c>
       <c r="GQ5">
-        <v>7.922060600059146E-07</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.001635549617430181</v>
+        <v>0.001627968185940309</v>
       </c>
       <c r="GS5">
-        <v>0.005045573745276996</v>
+        <v>0.005044563190212354</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001479870825048841</v>
+        <v>0.0001268889200124546</v>
       </c>
       <c r="C6">
-        <v>0.0001453701122837505</v>
+        <v>0.0001242619989293371</v>
       </c>
       <c r="D6">
-        <v>7.410162326157496E-06</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2.001137169095761E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>9.752427824078545E-06</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>8.959471757073888E-06</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>3.806469921646081E-05</v>
+        <v>1.654856388803139E-05</v>
       </c>
       <c r="I6">
-        <v>6.584360956377416E-05</v>
+        <v>4.443310176625798E-05</v>
       </c>
       <c r="J6">
-        <v>5.600778873264892E-06</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.362671215145493E-06</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.516602628152672E-07</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>2.157882182340689E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.372954016014388E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.907108245650168E-05</v>
+        <v>7.520749475232137E-06</v>
       </c>
       <c r="P6">
-        <v>3.279496677116929E-05</v>
+        <v>1.125879362196829E-05</v>
       </c>
       <c r="Q6">
-        <v>2.148757781569678E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>9.477083300811977E-05</v>
+        <v>7.347031912866586E-05</v>
       </c>
       <c r="S6">
-        <v>0.0002046384672919168</v>
+        <v>0.0001837557180688723</v>
       </c>
       <c r="T6">
-        <v>0.0001172077099040322</v>
+        <v>9.599251081476581E-05</v>
       </c>
       <c r="U6">
-        <v>0.0001794967851674488</v>
+        <v>0.0001585184363052317</v>
       </c>
       <c r="V6">
-        <v>5.350776452139729E-05</v>
+        <v>3.205035046163888E-05</v>
       </c>
       <c r="W6">
-        <v>2.449052406944525E-05</v>
+        <v>2.922773807707202E-06</v>
       </c>
       <c r="X6">
-        <v>9.617932812713739E-06</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>1.256170606146209E-05</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>3.573011901918917E-06</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>5.125745933124687E-08</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>2.917719646546829E-05</v>
+        <v>7.627266975934834E-06</v>
       </c>
       <c r="AC6">
-        <v>7.752629655095927E-05</v>
+        <v>5.61602114239316E-05</v>
       </c>
       <c r="AD6">
-        <v>4.486442379103642E-05</v>
+        <v>2.33741439806501E-05</v>
       </c>
       <c r="AE6">
-        <v>4.286102362174944E-05</v>
+        <v>2.136312601028067E-05</v>
       </c>
       <c r="AF6">
-        <v>0.000162246813709829</v>
+        <v>0.0001412028729337964</v>
       </c>
       <c r="AG6">
-        <v>0.0002811512237572321</v>
+        <v>0.0002605594093998016</v>
       </c>
       <c r="AH6">
-        <v>0.0002058488473941937</v>
+        <v>0.0001849707005641183</v>
       </c>
       <c r="AI6">
-        <v>0.0003105029262374462</v>
+        <v>0.0002900227198524783</v>
       </c>
       <c r="AJ6">
-        <v>5.719025483256711E-05</v>
+        <v>3.574684320682492E-05</v>
       </c>
       <c r="AK6">
-        <v>2.512658512319231E-05</v>
+        <v>3.561253442952863E-06</v>
       </c>
       <c r="AL6">
-        <v>0.0001026941686776403</v>
+        <v>8.142378277559462E-05</v>
       </c>
       <c r="AM6">
-        <v>5.365170053355986E-05</v>
+        <v>3.219483378128702E-05</v>
       </c>
       <c r="AN6">
-        <v>6.123833517462923E-06</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>3.927399631864622E-05</v>
+        <v>1.776245926514722E-05</v>
       </c>
       <c r="AP6">
-        <v>1.310352310724554E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>6.231246126539271E-06</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>3.87341962730332E-05</v>
+        <v>1.722060666436584E-05</v>
       </c>
       <c r="AS6">
-        <v>0.0001541188830230202</v>
+        <v>0.0001330440363101042</v>
       </c>
       <c r="AT6">
-        <v>1.803293152377974E-05</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>9.889676835676063E-07</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>1.521613828576118E-05</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>9.561412807937807E-05</v>
+        <v>7.431682077552754E-05</v>
       </c>
       <c r="AX6">
-        <v>0.0001341553013361009</v>
+        <v>0.0001130045443799317</v>
       </c>
       <c r="AY6">
-        <v>0.0002984716852208082</v>
+        <v>0.0002779457308109351</v>
       </c>
       <c r="AZ6">
-        <v>0.0002704187028503358</v>
+        <v>0.0002497860787682007</v>
       </c>
       <c r="BA6">
-        <v>0.0001287056508756063</v>
+        <v>0.0001075341719719134</v>
       </c>
       <c r="BB6">
-        <v>7.965062073046433E-05</v>
+        <v>5.829261321033826E-05</v>
       </c>
       <c r="BC6">
-        <v>3.493235295177807E-05</v>
+        <v>1.340430707690292E-05</v>
       </c>
       <c r="BD6">
-        <v>1.42626562051921E-07</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>2.745267231974629E-05</v>
+        <v>5.896185437383686E-06</v>
       </c>
       <c r="BF6">
-        <v>9.030313763060025E-07</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>5.208062440080418E-05</v>
+        <v>3.061778373196281E-05</v>
       </c>
       <c r="BH6">
-        <v>7.082825198497562E-05</v>
+        <v>4.943669797163794E-05</v>
       </c>
       <c r="BI6">
-        <v>2.859651841640109E-05</v>
+        <v>7.044380935704137E-06</v>
       </c>
       <c r="BJ6">
-        <v>2.319224195974062E-06</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.0001289288108944633</v>
+        <v>0.0001077581805424773</v>
       </c>
       <c r="BL6">
-        <v>0.0003150888666249573</v>
+        <v>0.0002946260979851707</v>
       </c>
       <c r="BM6">
-        <v>0.0001791813451407941</v>
+        <v>0.0001582017968380392</v>
       </c>
       <c r="BN6">
-        <v>7.944055671271394E-05</v>
+        <v>5.808175043758808E-05</v>
       </c>
       <c r="BO6">
-        <v>6.391347540067814E-05</v>
+        <v>4.249562839138475E-05</v>
       </c>
       <c r="BP6">
-        <v>9.038631763762895E-05</v>
+        <v>6.906913191874557E-05</v>
       </c>
       <c r="BQ6">
-        <v>3.229081272856835E-05</v>
+        <v>1.075272256584688E-05</v>
       </c>
       <c r="BR6">
-        <v>4.855684810304566E-06</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>5.672858479355607E-08</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>1.65867294015759E-05</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>6.653097562185648E-05</v>
+        <v>4.512308148983838E-05</v>
       </c>
       <c r="BV6">
-        <v>6.15086701974725E-08</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>6.15086701974725E-08</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>1.076790590988628E-06</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>5.769630087532792E-05</v>
+        <v>3.625481345731587E-05</v>
       </c>
       <c r="BZ6">
-        <v>3.24247827398888E-05</v>
+        <v>1.088720198957174E-05</v>
       </c>
       <c r="CA6">
-        <v>5.600778873264892E-06</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>1.023050886447631E-05</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>6.231246126539271E-06</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>4.856929110409709E-05</v>
+        <v>2.70930988148463E-05</v>
       </c>
       <c r="CE6">
-        <v>0.0001291964009170746</v>
+        <v>0.0001080267880590447</v>
       </c>
       <c r="CF6">
-        <v>0.0001464376423739566</v>
+        <v>0.0001253335882344725</v>
       </c>
       <c r="CG6">
-        <v>0.0002146495381378506</v>
+        <v>0.0001938048553717706</v>
       </c>
       <c r="CH6">
-        <v>0.0001578973433422995</v>
+        <v>0.0001368368639832209</v>
       </c>
       <c r="CI6">
-        <v>4.036480341081923E-05</v>
+        <v>1.88574140815617E-05</v>
       </c>
       <c r="CJ6">
-        <v>0.0001200317701426648</v>
+        <v>9.882730936193636E-05</v>
       </c>
       <c r="CK6">
-        <v>0.0001165069498448181</v>
+        <v>9.528908616022048E-05</v>
       </c>
       <c r="CL6">
-        <v>4.329926065878039E-05</v>
+        <v>2.180302941563197E-05</v>
       </c>
       <c r="CM6">
-        <v>0.004224651856982386</v>
+        <v>0.0042190549517065</v>
       </c>
       <c r="CN6">
-        <v>0.09787854827072121</v>
+        <v>0.09822906432001784</v>
       </c>
       <c r="CO6">
-        <v>0.05905793499038578</v>
+        <v>0.05926083813917367</v>
       </c>
       <c r="CP6">
-        <v>0.09565428808277157</v>
+        <v>0.09599634652488259</v>
       </c>
       <c r="CQ6">
-        <v>0.00514819003502121</v>
+        <v>0.005146104824632946</v>
       </c>
       <c r="CR6">
-        <v>0.004031807040687031</v>
+        <v>0.004025476855324201</v>
       </c>
       <c r="CS6">
-        <v>0.0002207067486496839</v>
+        <v>0.0001998850980393863</v>
       </c>
       <c r="CT6">
-        <v>0.05547953168801129</v>
+        <v>0.05566882818698045</v>
       </c>
       <c r="CU6">
-        <v>0.02462699108097669</v>
+        <v>0.02469897276644251</v>
       </c>
       <c r="CV6">
-        <v>0.02327278596654658</v>
+        <v>0.02333961837362823</v>
       </c>
       <c r="CW6">
-        <v>0.001403875718627267</v>
+        <v>0.001387552992394828</v>
       </c>
       <c r="CX6">
-        <v>0.001358974414833114</v>
+        <v>0.001342480954263178</v>
       </c>
       <c r="CY6">
-        <v>0.002864744242070416</v>
+        <v>0.002853976375016789</v>
       </c>
       <c r="CZ6">
-        <v>0.0004664734094169263</v>
+        <v>0.0004465862708243092</v>
       </c>
       <c r="DA6">
-        <v>0.001930810663153183</v>
+        <v>0.001916491573364589</v>
       </c>
       <c r="DB6">
-        <v>0.002590595918904929</v>
+        <v>0.002578785620376563</v>
       </c>
       <c r="DC6">
-        <v>0.0001918347562100053</v>
+        <v>0.0001709033216940102</v>
       </c>
       <c r="DD6">
-        <v>0.006920990584822565</v>
+        <v>0.006925646335204032</v>
       </c>
       <c r="DE6">
-        <v>0.002939346748374316</v>
+        <v>0.002928862552582171</v>
       </c>
       <c r="DF6">
-        <v>0.0001482737525291077</v>
+        <v>0.0001271766800811208</v>
       </c>
       <c r="DG6">
-        <v>0.01264017606809279</v>
+        <v>0.01266657865569285</v>
       </c>
       <c r="DH6">
-        <v>0.01420671920046543</v>
+        <v>0.01423907846818982</v>
       </c>
       <c r="DI6">
-        <v>0.001085135091693736</v>
+        <v>0.001067600374601909</v>
       </c>
       <c r="DJ6">
-        <v>0.006230684526491817</v>
+        <v>0.006232715432212198</v>
       </c>
       <c r="DK6">
-        <v>0.0003757062317471147</v>
+        <v>0.0003554739567634243</v>
       </c>
       <c r="DL6">
-        <v>0.002610529720589331</v>
+        <v>0.002598795219067663</v>
       </c>
       <c r="DM6">
-        <v>0.001511100127687712</v>
+        <v>0.001495185115416731</v>
       </c>
       <c r="DN6">
-        <v>0.0002373822600587619</v>
+        <v>0.0002166240170146659</v>
       </c>
       <c r="DO6">
-        <v>0.002723228630112371</v>
+        <v>0.002711922658990229</v>
       </c>
       <c r="DP6">
-        <v>0.001354127514423552</v>
+        <v>0.001337615623824631</v>
       </c>
       <c r="DQ6">
-        <v>0.0009256209782148202</v>
+        <v>0.0009074797189029441</v>
       </c>
       <c r="DR6">
-        <v>0.0002647315523697725</v>
+        <v>0.0002440773032614688</v>
       </c>
       <c r="DS6">
-        <v>0.008080229682778077</v>
+        <v>0.008089293365728683</v>
       </c>
       <c r="DT6">
-        <v>0.01198070901236794</v>
+        <v>0.01200460401864302</v>
       </c>
       <c r="DU6">
-        <v>0.002096586777161237</v>
+        <v>0.002082898040449424</v>
       </c>
       <c r="DV6">
-        <v>0.002047320272998226</v>
+        <v>0.002033444203553545</v>
       </c>
       <c r="DW6">
-        <v>0.03002851753740478</v>
+        <v>0.03012103818194501</v>
       </c>
       <c r="DX6">
-        <v>3.391811986607554E-05</v>
+        <v>1.238621743472377E-05</v>
       </c>
       <c r="DY6">
-        <v>0.0002484958609978593</v>
+        <v>0.0002277798767109311</v>
       </c>
       <c r="DZ6">
-        <v>8.100627684501705E-05</v>
+        <v>5.965342412061036E-05</v>
       </c>
       <c r="EA6">
-        <v>0.0383900772439552</v>
+        <v>0.03851439218479229</v>
       </c>
       <c r="EB6">
-        <v>0.07519111635363696</v>
+        <v>0.07545536489329402</v>
       </c>
       <c r="EC6">
-        <v>0.009184031776049172</v>
+        <v>0.009197292595902247</v>
       </c>
       <c r="ED6">
-        <v>9.214148778594054E-06</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>2.917719646546829E-05</v>
+        <v>7.627266975934834E-06</v>
       </c>
       <c r="EF6">
-        <v>6.341175135828254E-05</v>
+        <v>4.199199657538912E-05</v>
       </c>
       <c r="EG6">
-        <v>6.123833517462923E-06</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.0003509962696591269</v>
+        <v>0.0003306700366241061</v>
       </c>
       <c r="EI6">
-        <v>0.005081600029394366</v>
+        <v>0.005079261614766269</v>
       </c>
       <c r="EJ6">
-        <v>0.0210600907795742</v>
+        <v>0.0211185095546472</v>
       </c>
       <c r="EK6">
-        <v>0.04718795798737467</v>
+        <v>0.04734572630736082</v>
       </c>
       <c r="EL6">
-        <v>0.04216587856300979</v>
+        <v>0.04230455074700595</v>
       </c>
       <c r="EM6">
-        <v>0.01772315349760355</v>
+        <v>0.01776888378196543</v>
       </c>
       <c r="EN6">
-        <v>0.001121740894786921</v>
+        <v>0.001104345368921441</v>
       </c>
       <c r="EO6">
-        <v>1.263642306777567E-06</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.002744695431926312</v>
+        <v>0.002733471086945868</v>
       </c>
       <c r="EQ6">
-        <v>0.01248276005479117</v>
+        <v>0.01250856407806298</v>
       </c>
       <c r="ER6">
-        <v>0.009552107807151537</v>
+        <v>0.009566768212584738</v>
       </c>
       <c r="ES6">
-        <v>0.009134400771855362</v>
+        <v>0.0091474728729875</v>
       </c>
       <c r="ET6">
-        <v>0.01740838747100587</v>
+        <v>0.01745292087767208</v>
       </c>
       <c r="EU6">
-        <v>0.02073861875240987</v>
+        <v>0.0207958151506487</v>
       </c>
       <c r="EV6">
-        <v>0.01747116547631061</v>
+        <v>0.01751593759232909</v>
       </c>
       <c r="EW6">
-        <v>0.005813363991228299</v>
+        <v>0.005813808062289288</v>
       </c>
       <c r="EX6">
-        <v>0.0004169904052356205</v>
+        <v>0.0003969151106826547</v>
       </c>
       <c r="EY6">
-        <v>0.0003681676811101084</v>
+        <v>0.0003479067412694997</v>
       </c>
       <c r="EZ6">
-        <v>0.002886760943930824</v>
+        <v>0.002876076793978671</v>
       </c>
       <c r="FA6">
-        <v>0.004440829975249401</v>
+        <v>0.004436055073449696</v>
       </c>
       <c r="FB6">
-        <v>0.0008030886078608551</v>
+        <v>0.0007844814270432174</v>
       </c>
       <c r="FC6">
-        <v>0.002015182670282604</v>
+        <v>0.002001184399657895</v>
       </c>
       <c r="FD6">
-        <v>0.01202095101576838</v>
+        <v>0.01204499903968905</v>
       </c>
       <c r="FE6">
-        <v>0.01903533360848255</v>
+        <v>0.01908605337383892</v>
       </c>
       <c r="FF6">
-        <v>0.01427869420654731</v>
+        <v>0.01431132715463154</v>
       </c>
       <c r="FG6">
-        <v>0.01419103919914047</v>
+        <v>0.01422333884466212</v>
       </c>
       <c r="FH6">
-        <v>0.003417665888792205</v>
+        <v>0.003409000470956401</v>
       </c>
       <c r="FI6">
-        <v>0.001204328601765568</v>
+        <v>0.001187247110376706</v>
       </c>
       <c r="FJ6">
-        <v>0.001717707145145971</v>
+        <v>0.001702577742852149</v>
       </c>
       <c r="FK6">
-        <v>0.003110464962833777</v>
+        <v>0.003100631433113902</v>
       </c>
       <c r="FL6">
-        <v>0.01403468218592833</v>
+        <v>0.01406638729390189</v>
       </c>
       <c r="FM6">
-        <v>0.00695518858771229</v>
+        <v>0.006959974373813742</v>
       </c>
       <c r="FN6">
-        <v>0.0006408301941500458</v>
+        <v>0.0006216060360861487</v>
       </c>
       <c r="FO6">
-        <v>0.003833975923970334</v>
+        <v>0.003826893498431942</v>
       </c>
       <c r="FP6">
-        <v>0.00530912124861987</v>
+        <v>0.005307647968884276</v>
       </c>
       <c r="FQ6">
-        <v>0.001815789253433893</v>
+        <v>0.001801032802087235</v>
       </c>
       <c r="FR6">
-        <v>0.0006847722078631388</v>
+        <v>0.0006657151364975261</v>
       </c>
       <c r="FS6">
-        <v>3.932886332328247E-07</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.00239323840222825</v>
+        <v>0.002380677664358202</v>
       </c>
       <c r="FU6">
-        <v>0.001309965010691828</v>
+        <v>0.001293285194995421</v>
       </c>
       <c r="FV6">
-        <v>0.0005461057461458456</v>
+        <v>0.0005265214044233851</v>
       </c>
       <c r="FW6">
-        <v>0.002226071888102708</v>
+        <v>0.002212875510248308</v>
       </c>
       <c r="FX6">
-        <v>0.0005946036502439104</v>
+        <v>0.0005752037187017017</v>
       </c>
       <c r="FY6">
-        <v>1.001805784652424E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.0003652711308653504</v>
+        <v>0.0003449991770775891</v>
       </c>
       <c r="GA6">
-        <v>0.000649012094841415</v>
+        <v>0.0006298190479318938</v>
       </c>
       <c r="GB6">
-        <v>0.001633603838039255</v>
+        <v>0.001618154638296209</v>
       </c>
       <c r="GC6">
-        <v>0.003631882306893456</v>
+        <v>0.003624031433294349</v>
       </c>
       <c r="GD6">
-        <v>0.0008421301711598607</v>
+        <v>0.0008236714433910542</v>
       </c>
       <c r="GE6">
-        <v>6.136372518522467E-05</v>
+        <v>3.993618291372205E-05</v>
       </c>
       <c r="GF6">
-        <v>0.0009171531774992924</v>
+        <v>0.0008989797199164739</v>
       </c>
       <c r="GG6">
-        <v>0.00344689619126216</v>
+        <v>0.003438341919783041</v>
       </c>
       <c r="GH6">
-        <v>0.003154000966512562</v>
+        <v>0.003144332979663769</v>
       </c>
       <c r="GI6">
-        <v>0.0006175247521807397</v>
+        <v>0.000598211976663484</v>
       </c>
       <c r="GJ6">
-        <v>0.001950801364842394</v>
+        <v>0.001936558288419128</v>
       </c>
       <c r="GK6">
-        <v>0.001205828801892335</v>
+        <v>0.001188753014918559</v>
       </c>
       <c r="GL6">
-        <v>0.0005557879469639899</v>
+        <v>0.0005362404211912352</v>
       </c>
       <c r="GM6">
-        <v>0.0004064676543464498</v>
+        <v>0.0003863523477058629</v>
       </c>
       <c r="GN6">
-        <v>7.773381656849469E-05</v>
+        <v>5.636852052306861E-05</v>
       </c>
       <c r="GO6">
-        <v>8.335686704364153E-05</v>
+        <v>6.201295228821077E-05</v>
       </c>
       <c r="GP6">
-        <v>0.0002602121619878848</v>
+        <v>0.0002395407281865423</v>
       </c>
       <c r="GQ6">
-        <v>0.0006852869979066385</v>
+        <v>0.0006662318839972599</v>
       </c>
       <c r="GR6">
-        <v>0.004402035771971297</v>
+        <v>0.004397113357693429</v>
       </c>
       <c r="GS6">
-        <v>0.006421449242611403</v>
+        <v>0.006424205518970775</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>1.92784007368801E-05</v>
+        <v>1.501603814898358E-05</v>
       </c>
       <c r="C2">
-        <v>2.355313807853664E-05</v>
+        <v>1.501603814898358E-05</v>
       </c>
       <c r="D2">
-        <v>4.456908479170196E-05</v>
+        <v>3.177105537115925E-05</v>
       </c>
       <c r="E2">
-        <v>4.641239406654368E-05</v>
+        <v>3.177105537115925E-05</v>
       </c>
       <c r="F2">
-        <v>4.664423041337948E-05</v>
+        <v>3.177105537115925E-05</v>
       </c>
       <c r="G2">
-        <v>6.957918210035338E-05</v>
+        <v>5.044666032819257E-05</v>
       </c>
       <c r="H2">
-        <v>0.0001061506036012109</v>
+        <v>8.27699822160074E-05</v>
       </c>
       <c r="I2">
-        <v>0.0001585867958855392</v>
+        <v>0.0001309711598670565</v>
       </c>
       <c r="J2">
-        <v>0.0002192679500573367</v>
+        <v>0.0001874240997029709</v>
       </c>
       <c r="K2">
-        <v>0.0003305404785386413</v>
+        <v>0.0002945101407108907</v>
       </c>
       <c r="L2">
-        <v>0.0004676684766670594</v>
+        <v>0.0004274729764957809</v>
       </c>
       <c r="M2">
-        <v>0.0005984483448821195</v>
+        <v>0.0005540824465430716</v>
       </c>
       <c r="N2">
-        <v>0.0007794193524121493</v>
+        <v>0.0007309244526611508</v>
       </c>
       <c r="O2">
-        <v>0.001003492189353907</v>
+        <v>0.0009509038378105091</v>
       </c>
       <c r="P2">
-        <v>0.001220854086387258</v>
+        <v>0.001164166747988012</v>
       </c>
       <c r="Q2">
-        <v>0.00145567880318227</v>
+        <v>0.001394906880949211</v>
       </c>
       <c r="R2">
-        <v>0.001545010131963037</v>
+        <v>0.001480033625546721</v>
       </c>
       <c r="S2">
-        <v>0.001605691286134835</v>
+        <v>0.001536486565382635</v>
       </c>
       <c r="T2">
-        <v>0.001643641355616876</v>
+        <v>0.00157018967233588</v>
       </c>
       <c r="U2">
-        <v>0.001660149757391562</v>
+        <v>0.001582433426876969</v>
       </c>
       <c r="V2">
-        <v>0.001662491112359606</v>
+        <v>0.001582433426876969</v>
       </c>
       <c r="W2">
-        <v>0.001677627802153014</v>
+        <v>0.001593304338073222</v>
       </c>
       <c r="X2">
-        <v>0.001766140670944952</v>
+        <v>0.001677611947630713</v>
       </c>
       <c r="Y2">
-        <v>0.001882685199354303</v>
+        <v>0.001789974336818116</v>
       </c>
       <c r="Z2">
-        <v>0.002050162127068505</v>
+        <v>0.001953311133444199</v>
       </c>
       <c r="AA2">
-        <v>0.002217639054782708</v>
+        <v>0.002116647930070282</v>
       </c>
       <c r="AB2">
-        <v>0.002516833500699174</v>
+        <v>0.002411810883156545</v>
       </c>
       <c r="AC2">
-        <v>0.002853405266105498</v>
+        <v>0.002744381983878614</v>
       </c>
       <c r="AD2">
-        <v>0.003166144491837098</v>
+        <v>0.003053100888272636</v>
       </c>
       <c r="AE2">
-        <v>0.003431210568219362</v>
+        <v>0.003314107323354681</v>
       </c>
       <c r="AF2">
-        <v>0.003715525564338909</v>
+        <v>0.003594378554339424</v>
       </c>
       <c r="AG2">
-        <v>0.003944117681218985</v>
+        <v>0.003818880946848528</v>
       </c>
       <c r="AH2">
-        <v>0.004118768468835276</v>
+        <v>0.003989397520248296</v>
       </c>
       <c r="AI2">
-        <v>0.004209419047598038</v>
+        <v>0.004075844602921637</v>
       </c>
       <c r="AJ2">
-        <v>0.004231940211290659</v>
+        <v>0.004094106078599367</v>
       </c>
       <c r="AK2">
-        <v>0.004232192846517211</v>
+        <v>0.004094106078599367</v>
       </c>
       <c r="AL2">
-        <v>0.004242175899380959</v>
+        <v>0.004099819102238209</v>
       </c>
       <c r="AM2">
-        <v>0.004262998520096762</v>
+        <v>0.004116380634011192</v>
       </c>
       <c r="AN2">
-        <v>0.00429956994159762</v>
+        <v>0.004148703955899007</v>
       </c>
       <c r="AO2">
-        <v>0.004376268996550798</v>
+        <v>0.004221188007794955</v>
       </c>
       <c r="AP2">
-        <v>0.004515292714653343</v>
+        <v>0.004356048127109968</v>
       </c>
       <c r="AQ2">
-        <v>0.004755087961380514</v>
+        <v>0.004591762889607693</v>
       </c>
       <c r="AR2">
-        <v>0.005001929358011517</v>
+        <v>0.00483452961354792</v>
       </c>
       <c r="AS2">
-        <v>0.005323106973627947</v>
+        <v>0.005151693867660127</v>
       </c>
       <c r="AT2">
-        <v>0.005672640668857361</v>
+        <v>0.005497237588973639</v>
       </c>
       <c r="AU2">
-        <v>0.006027016964020681</v>
+        <v>0.005847627904311046</v>
       </c>
       <c r="AV2">
-        <v>0.006365182959405246</v>
+        <v>0.006181794549903786</v>
       </c>
       <c r="AW2">
-        <v>0.006688097694997967</v>
+        <v>0.006500697356737833</v>
       </c>
       <c r="AX2">
-        <v>0.006885485372303934</v>
+        <v>0.006693969572808052</v>
       </c>
       <c r="AY2">
-        <v>0.007018116720493725</v>
+        <v>0.006822432049897708</v>
       </c>
       <c r="AZ2">
-        <v>0.007066207532837361</v>
+        <v>0.006866284263616252</v>
       </c>
       <c r="BA2">
-        <v>0.007102778954338218</v>
+        <v>0.006898607585504067</v>
       </c>
       <c r="BB2">
-        <v>0.007103302393771074</v>
+        <v>0.006898607585504067</v>
       </c>
       <c r="BC2">
-        <v>0.007109092865692043</v>
+        <v>0.006900124570234206</v>
       </c>
       <c r="BD2">
-        <v>0.007115852542599784</v>
+        <v>0.00690261155933409</v>
       </c>
       <c r="BE2">
-        <v>0.007140248681266816</v>
+        <v>0.00692274955643212</v>
       </c>
       <c r="BF2">
-        <v>0.00719827266747488</v>
+        <v>0.006976543136719593</v>
       </c>
       <c r="BG2">
-        <v>0.007338558545560198</v>
+        <v>0.007112666457024405</v>
       </c>
       <c r="BH2">
-        <v>0.007676315270950348</v>
+        <v>0.007446423495064145</v>
       </c>
       <c r="BI2">
-        <v>0.008076619625486822</v>
+        <v>0.007842779750418282</v>
       </c>
       <c r="BJ2">
-        <v>0.008437286040564292</v>
+        <v>0.008199465373648468</v>
       </c>
       <c r="BK2">
-        <v>0.008789424605758153</v>
+        <v>0.008547616113376679</v>
       </c>
       <c r="BL2">
-        <v>0.009135534281034299</v>
+        <v>0.008889732990666383</v>
       </c>
       <c r="BM2">
-        <v>0.009382026057670073</v>
+        <v>0.009132149806251049</v>
       </c>
       <c r="BN2">
-        <v>0.009574597485041777</v>
+        <v>0.009320601800030024</v>
       </c>
       <c r="BO2">
-        <v>0.009730989822907267</v>
+        <v>0.009472844864435542</v>
       </c>
       <c r="BP2">
-        <v>0.009858947531160846</v>
+        <v>0.009596629846854188</v>
       </c>
       <c r="BQ2">
-        <v>0.00991286841542491</v>
+        <v>0.009646316941032417</v>
       </c>
       <c r="BR2">
-        <v>0.009946817308961561</v>
+        <v>0.009676015571941771</v>
       </c>
       <c r="BS2">
-        <v>0.009956528003829025</v>
+        <v>0.009681456012948318</v>
       </c>
       <c r="BT2">
-        <v>0.009964152612024961</v>
+        <v>0.009684808646716284</v>
       </c>
       <c r="BU2">
-        <v>0.009966161114897547</v>
+        <v>0.009684808646716284</v>
       </c>
       <c r="BV2">
-        <v>0.009976976412749935</v>
+        <v>0.009691354601764578</v>
       </c>
       <c r="BW2">
-        <v>0.00999991136443691</v>
+        <v>0.009710030206721612</v>
       </c>
       <c r="BX2">
-        <v>0.01008442986928336</v>
+        <v>0.009790340157853534</v>
       </c>
       <c r="BY2">
-        <v>0.01033127126591437</v>
+        <v>0.01003310688179376</v>
       </c>
       <c r="BZ2">
-        <v>0.01059827929227013</v>
+        <v>0.01029605686853498</v>
       </c>
       <c r="CA2">
-        <v>0.01079657465956371</v>
+        <v>0.01049023752323931</v>
       </c>
       <c r="CB2">
-        <v>0.0109488344274856</v>
+        <v>0.0106383446092313</v>
       </c>
       <c r="CC2">
-        <v>0.01111576477520726</v>
+        <v>0.01080113437505542</v>
       </c>
       <c r="CD2">
-        <v>0.01128144681294596</v>
+        <v>0.01096267480131279</v>
       </c>
       <c r="CE2">
-        <v>0.01146987212037425</v>
+        <v>0.01114697725550263</v>
       </c>
       <c r="CF2">
-        <v>0.01172386173690769</v>
+        <v>0.01139689809506948</v>
       </c>
       <c r="CG2">
-        <v>0.0118702079049103</v>
+        <v>0.01153908670371053</v>
       </c>
       <c r="CH2">
-        <v>0.01197643353746049</v>
+        <v>0.01164112168619765</v>
       </c>
       <c r="CI2">
-        <v>0.01210537493570064</v>
+        <v>0.01176589116993281</v>
       </c>
       <c r="CJ2">
-        <v>0.01212149238248066</v>
+        <v>0.01177774364702654</v>
       </c>
       <c r="CK2">
-        <v>0.01212171362288764</v>
+        <v>0.01177774364702654</v>
       </c>
       <c r="CL2">
-        <v>0.0121245371930491</v>
+        <v>0.01177774364702654</v>
       </c>
       <c r="CM2">
-        <v>0.01226216063117076</v>
+        <v>0.01191120233143473</v>
       </c>
       <c r="CN2">
-        <v>0.08881731458631309</v>
+        <v>0.08852521934801698</v>
       </c>
       <c r="CO2">
-        <v>0.08895493802443474</v>
+        <v>0.08865867803242516</v>
       </c>
       <c r="CP2">
-        <v>0.2099394163731865</v>
+        <v>0.2097386639563342</v>
       </c>
       <c r="CQ2">
-        <v>0.2326588030631026</v>
+        <v>0.2324725109277929</v>
       </c>
       <c r="CR2">
-        <v>0.233018667158191</v>
+        <v>0.2328283935692949</v>
       </c>
       <c r="CS2">
-        <v>0.2444005750028458</v>
+        <v>0.2442154107453096</v>
       </c>
       <c r="CT2">
-        <v>0.2830652474751337</v>
+        <v>0.2829076948862377</v>
       </c>
       <c r="CU2">
-        <v>0.3163128930213556</v>
+        <v>0.3161784842339825</v>
       </c>
       <c r="CV2">
-        <v>0.3289761688485217</v>
+        <v>0.3288479262419486</v>
       </c>
       <c r="CW2">
-        <v>0.3506064315533026</v>
+        <v>0.3504917509382497</v>
       </c>
       <c r="CX2">
-        <v>0.3506405102928374</v>
+        <v>0.3505215795222519</v>
       </c>
       <c r="CY2">
-        <v>0.3506419804173174</v>
+        <v>0.3505215795222519</v>
       </c>
       <c r="CZ2">
-        <v>0.3512076003095975</v>
+        <v>0.3510833876646545</v>
       </c>
       <c r="DA2">
-        <v>0.3572767092267637</v>
+        <v>0.3571532240114561</v>
       </c>
       <c r="DB2">
-        <v>0.3573767102703989</v>
+        <v>0.3572490292710984</v>
       </c>
       <c r="DC2">
-        <v>0.3621427139053504</v>
+        <v>0.3620146855577084</v>
       </c>
       <c r="DD2">
-        <v>0.367049385838382</v>
+        <v>0.3669211261630999</v>
       </c>
       <c r="DE2">
-        <v>0.3716951803749742</v>
+        <v>0.3715664742050319</v>
       </c>
       <c r="DF2">
-        <v>0.3718454559329232</v>
+        <v>0.37171259544451</v>
       </c>
       <c r="DG2">
-        <v>0.3791176802336688</v>
+        <v>0.3789865394829843</v>
       </c>
       <c r="DH2">
-        <v>0.4047971288831846</v>
+        <v>0.4046828898203114</v>
       </c>
       <c r="DI2">
-        <v>0.4076813298438198</v>
+        <v>0.4075651913553486</v>
       </c>
       <c r="DJ2">
-        <v>0.4102954488081412</v>
+        <v>0.4101771881352622</v>
       </c>
       <c r="DK2">
-        <v>0.4112782218947278</v>
+        <v>0.41115649353248</v>
       </c>
       <c r="DL2">
-        <v>0.4125286480776615</v>
+        <v>0.4124036727815411</v>
       </c>
       <c r="DM2">
-        <v>0.412772961274327</v>
+        <v>0.4126439092203016</v>
       </c>
       <c r="DN2">
-        <v>0.4151801795414722</v>
+        <v>0.4150488346550372</v>
       </c>
       <c r="DO2">
-        <v>0.4189978702893667</v>
+        <v>0.4188653959030478</v>
       </c>
       <c r="DP2">
-        <v>0.4190088250422173</v>
+        <v>0.4188720814281142</v>
       </c>
       <c r="DQ2">
-        <v>0.4211784194126057</v>
+        <v>0.4210391869781444</v>
       </c>
       <c r="DR2">
-        <v>0.4212106973721652</v>
+        <v>0.42106721329692</v>
       </c>
       <c r="DS2">
-        <v>0.4249358721213224</v>
+        <v>0.424791182240649</v>
       </c>
       <c r="DT2">
-        <v>0.4514141457599355</v>
+        <v>0.4512870164236659</v>
       </c>
       <c r="DU2">
-        <v>0.4521515176498716</v>
+        <v>0.4520207182217063</v>
       </c>
       <c r="DV2">
-        <v>0.4529741885686434</v>
+        <v>0.4528397894016989</v>
       </c>
       <c r="DW2">
-        <v>0.4784900402203921</v>
+        <v>0.4783724078093752</v>
       </c>
       <c r="DX2">
-        <v>0.4877112270945373</v>
+        <v>0.4875969218907917</v>
       </c>
       <c r="DY2">
-        <v>0.4907038654536925</v>
+        <v>0.4905877502615796</v>
       </c>
       <c r="DZ2">
-        <v>0.4915194349425613</v>
+        <v>0.4913997141545365</v>
       </c>
       <c r="EA2">
-        <v>0.4992840006365872</v>
+        <v>0.4991664056606843</v>
       </c>
       <c r="EB2">
-        <v>0.5758899755910358</v>
+        <v>0.575831285592826</v>
       </c>
       <c r="EC2">
-        <v>0.5981448672872915</v>
+        <v>0.5981002544634447</v>
       </c>
       <c r="ED2">
-        <v>0.5981459957415761</v>
+        <v>0.5981002544634447</v>
       </c>
       <c r="EE2">
-        <v>0.5981609684273718</v>
+        <v>0.5981109612353757</v>
       </c>
       <c r="EF2">
-        <v>0.5982117818266782</v>
+        <v>0.5981575382815981</v>
       </c>
       <c r="EG2">
-        <v>0.5985152835525359</v>
+        <v>0.5984570120671933</v>
       </c>
       <c r="EH2">
-        <v>0.6025554254973943</v>
+        <v>0.6024962079859444</v>
       </c>
       <c r="EI2">
-        <v>0.6033354536867481</v>
+        <v>0.6032726012655569</v>
       </c>
       <c r="EJ2">
-        <v>0.6220970434306818</v>
+        <v>0.6220453869707572</v>
       </c>
       <c r="EK2">
-        <v>0.6571693829519994</v>
+        <v>0.6571423752686185</v>
       </c>
       <c r="EL2">
-        <v>0.6985053423878285</v>
+        <v>0.6985081496028941</v>
       </c>
       <c r="EM2">
-        <v>0.7196589670991147</v>
+        <v>0.7196749431831913</v>
       </c>
       <c r="EN2">
-        <v>0.7214526608746336</v>
+        <v>0.7214658381022508</v>
       </c>
       <c r="EO2">
-        <v>0.721455993495088</v>
+        <v>0.7214658381022508</v>
       </c>
       <c r="EP2">
-        <v>0.7219197606887584</v>
+        <v>0.7219257095397558</v>
       </c>
       <c r="EQ2">
-        <v>0.7295681915843694</v>
+        <v>0.7295761704615797</v>
       </c>
       <c r="ER2">
-        <v>0.7422957814106578</v>
+        <v>0.7423099795137066</v>
       </c>
       <c r="ES2">
-        <v>0.7540700002499582</v>
+        <v>0.7540896312554727</v>
       </c>
       <c r="ET2">
-        <v>0.7712814150150494</v>
+        <v>0.7713109634251778</v>
       </c>
       <c r="EU2">
-        <v>0.7951182246897144</v>
+        <v>0.7951631550119178</v>
       </c>
       <c r="EV2">
-        <v>0.8162422444014047</v>
+        <v>0.8163003191749437</v>
       </c>
       <c r="EW2">
-        <v>0.8261727602658687</v>
+        <v>0.826234747288569</v>
       </c>
       <c r="EX2">
-        <v>0.8272157961516329</v>
+        <v>0.8272743651886454</v>
       </c>
       <c r="EY2">
-        <v>0.8280267648405645</v>
+        <v>0.8280817244870075</v>
       </c>
       <c r="EZ2">
-        <v>0.8303961386082263</v>
+        <v>0.8304487742087918</v>
       </c>
       <c r="FA2">
-        <v>0.8370632482172307</v>
+        <v>0.8371171044677282</v>
       </c>
       <c r="FB2">
-        <v>0.8404818767705717</v>
+        <v>0.8405342743818105</v>
       </c>
       <c r="FC2">
-        <v>0.8408400962256826</v>
+        <v>0.8408885110268651</v>
       </c>
       <c r="FD2">
-        <v>0.8484049751224338</v>
+        <v>0.8484553510376321</v>
       </c>
       <c r="FE2">
-        <v>0.8694648448349996</v>
+        <v>0.8695283122917594</v>
       </c>
       <c r="FF2">
-        <v>0.8881513755799578</v>
+        <v>0.8882259770906615</v>
       </c>
       <c r="FG2">
-        <v>0.9083630663041</v>
+        <v>0.908450059793475</v>
       </c>
       <c r="FH2">
-        <v>0.9168824031878244</v>
+        <v>0.9169721450111263</v>
       </c>
       <c r="FI2">
-        <v>0.9169128740084086</v>
+        <v>0.9169983627004307</v>
       </c>
       <c r="FJ2">
-        <v>0.9187639910831438</v>
+        <v>0.9188467282804188</v>
       </c>
       <c r="FK2">
-        <v>0.9205313937590215</v>
+        <v>0.9206113104154076</v>
       </c>
       <c r="FL2">
-        <v>0.9295482676359553</v>
+        <v>0.9296313429858994</v>
       </c>
       <c r="FM2">
-        <v>0.9431870924498068</v>
+        <v>0.943277138595942</v>
       </c>
       <c r="FN2">
-        <v>0.944587828330689</v>
+        <v>0.9446747515157075</v>
       </c>
       <c r="FO2">
-        <v>0.9469129470989548</v>
+        <v>0.9469975097373623</v>
       </c>
       <c r="FP2">
-        <v>0.9550021179885503</v>
+        <v>0.955089074167651</v>
       </c>
       <c r="FQ2">
-        <v>0.9585093982406814</v>
+        <v>0.9585949688988621</v>
       </c>
       <c r="FR2">
-        <v>0.9612363794034624</v>
+        <v>0.9613199209639621</v>
       </c>
       <c r="FS2">
-        <v>0.9624226152872721</v>
+        <v>0.9625028569708863</v>
       </c>
       <c r="FT2">
-        <v>0.9636025362711681</v>
+        <v>0.9636794728694801</v>
       </c>
       <c r="FU2">
-        <v>0.9648935749535474</v>
+        <v>0.9649672981144515</v>
       </c>
       <c r="FV2">
-        <v>0.9653451314973844</v>
+        <v>0.965414948830997</v>
       </c>
       <c r="FW2">
-        <v>0.9674505812686484</v>
+        <v>0.9675178568765822</v>
       </c>
       <c r="FX2">
-        <v>0.9689238563485405</v>
+        <v>0.9689880688243943</v>
       </c>
       <c r="FY2">
-        <v>0.9689568717410899</v>
+        <v>0.9690168331843814</v>
       </c>
       <c r="FZ2">
-        <v>0.9689995966145067</v>
+        <v>0.9690553150334426</v>
       </c>
       <c r="GA2">
-        <v>0.9694932294677694</v>
+        <v>0.9695450767632028</v>
       </c>
       <c r="GB2">
-        <v>0.9699940572009339</v>
+        <v>0.9700420393070733</v>
       </c>
       <c r="GC2">
-        <v>0.9731591094577359</v>
+        <v>0.9732054237794133</v>
       </c>
       <c r="GD2">
-        <v>0.9764247883131645</v>
+        <v>0.9764695178454024</v>
       </c>
       <c r="GE2">
-        <v>0.976609823030639</v>
+        <v>0.9766504269131404</v>
       </c>
       <c r="GF2">
-        <v>0.9769581512558849</v>
+        <v>0.9769947641702202</v>
       </c>
       <c r="GG2">
-        <v>0.9786424519328969</v>
+        <v>0.9786761757652979</v>
       </c>
       <c r="GH2">
-        <v>0.9823355756824915</v>
+        <v>0.982368067274372</v>
       </c>
       <c r="GI2">
-        <v>0.9828268384357866</v>
+        <v>0.9828554569493484</v>
       </c>
       <c r="GJ2">
-        <v>0.9845942411116643</v>
+        <v>0.9846200390843372</v>
       </c>
       <c r="GK2">
-        <v>0.9868086870814405</v>
+        <v>0.9868320332265538</v>
       </c>
       <c r="GL2">
-        <v>0.9872525221453828</v>
+        <v>0.9872719560946659</v>
       </c>
       <c r="GM2">
-        <v>0.9877951217879772</v>
+        <v>0.9878107250006916</v>
       </c>
       <c r="GN2">
-        <v>0.9877995778645164</v>
+        <v>0.9878109064894545</v>
       </c>
       <c r="GO2">
-        <v>0.9880306157113632</v>
+        <v>0.9880378566291246</v>
       </c>
       <c r="GP2">
-        <v>0.9880371005632747</v>
+        <v>0.9880400685665575</v>
       </c>
       <c r="GQ2">
-        <v>0.9883187017594313</v>
+        <v>0.9883176237592854</v>
       </c>
       <c r="GR2">
-        <v>0.9919967621092315</v>
+        <v>0.9919944394445418</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>3.734098992191097E-05</v>
+        <v>3.174146327111925E-05</v>
       </c>
       <c r="C3">
-        <v>6.314857686794107E-05</v>
+        <v>5.193742687118278E-05</v>
       </c>
       <c r="D3">
-        <v>6.830175425716453E-05</v>
+        <v>5.193742687118278E-05</v>
       </c>
       <c r="E3">
-        <v>8.25624832273419E-05</v>
+        <v>6.057442168807565E-05</v>
       </c>
       <c r="F3">
-        <v>8.819526671556239E-05</v>
+        <v>6.057442168807565E-05</v>
       </c>
       <c r="G3">
-        <v>9.232521710692567E-05</v>
+        <v>6.057442168807565E-05</v>
       </c>
       <c r="H3">
-        <v>0.0001588988029677042</v>
+        <v>0.0001215791412160087</v>
       </c>
       <c r="I3">
-        <v>0.0002865073827008439</v>
+        <v>0.0002436828705634969</v>
       </c>
       <c r="J3">
-        <v>0.000434027842392343</v>
+        <v>0.0003857193642468971</v>
       </c>
       <c r="K3">
-        <v>0.0005216328522091397</v>
+        <v>0.0004677775663310048</v>
       </c>
       <c r="L3">
-        <v>0.0007260549117816437</v>
+        <v>0.0006667753405733644</v>
       </c>
       <c r="M3">
-        <v>0.001005655381196931</v>
+        <v>0.0009410303747870865</v>
       </c>
       <c r="N3">
-        <v>0.001196388950798061</v>
+        <v>0.001126325302021304</v>
       </c>
       <c r="O3">
-        <v>0.001325280090528519</v>
+        <v>0.001249712936566426</v>
       </c>
       <c r="P3">
-        <v>0.001407870845355802</v>
+        <v>0.00132675162450947</v>
       </c>
       <c r="Q3">
-        <v>0.001415041325340807</v>
+        <v>0.001328290933803955</v>
       </c>
       <c r="R3">
-        <v>0.001418637367333286</v>
+        <v>0.001328290933803955</v>
       </c>
       <c r="S3">
-        <v>0.001454049540259231</v>
+        <v>0.001358101557058556</v>
       </c>
       <c r="T3">
-        <v>0.001457824726251336</v>
+        <v>0.001358101557058556</v>
       </c>
       <c r="U3">
-        <v>0.001465749170234764</v>
+        <v>0.001360395621139116</v>
       </c>
       <c r="V3">
-        <v>0.001466623440372936</v>
+        <v>0.001360395621139116</v>
       </c>
       <c r="W3">
-        <v>0.00146930385876733</v>
+        <v>0.001360395621139116</v>
       </c>
       <c r="X3">
-        <v>0.001507760354686909</v>
+        <v>0.00139325376039529</v>
       </c>
       <c r="Y3">
-        <v>0.001538753052622095</v>
+        <v>0.001418640273336679</v>
       </c>
       <c r="Z3">
-        <v>0.001569118459558594</v>
+        <v>0.001443398837351445</v>
       </c>
       <c r="AA3">
-        <v>0.001818566859036937</v>
+        <v>0.001687470176929104</v>
       </c>
       <c r="AB3">
-        <v>0.002160423958322031</v>
+        <v>0.002024047138260611</v>
       </c>
       <c r="AC3">
-        <v>0.002296912238036602</v>
+        <v>0.002155039880974672</v>
       </c>
       <c r="AD3">
-        <v>0.002367066351889892</v>
+        <v>0.002219628883896345</v>
       </c>
       <c r="AE3">
-        <v>0.002435523391746732</v>
+        <v>0.002282519032862358</v>
       </c>
       <c r="AF3">
-        <v>0.002492682691627198</v>
+        <v>0.00233409959232962</v>
       </c>
       <c r="AG3">
-        <v>0.002568446517468758</v>
+        <v>0.002404304190930271</v>
       </c>
       <c r="AH3">
-        <v>0.002574079300956978</v>
+        <v>0.002404304190930271</v>
       </c>
       <c r="AI3">
-        <v>0.00257898460964672</v>
+        <v>0.002404304190930271</v>
       </c>
       <c r="AJ3">
-        <v>0.002584510390235164</v>
+        <v>0.002404304190930271</v>
       </c>
       <c r="AK3">
-        <v>0.002586309688431401</v>
+        <v>0.002404304190930271</v>
       </c>
       <c r="AL3">
-        <v>0.002617413454366356</v>
+        <v>0.002429801888363997</v>
       </c>
       <c r="AM3">
-        <v>0.002697147464199613</v>
+        <v>0.002503980835044398</v>
       </c>
       <c r="AN3">
-        <v>0.0028086662699664</v>
+        <v>0.002609977914825894</v>
       </c>
       <c r="AO3">
-        <v>0.002922589879728158</v>
+        <v>0.002718382320857149</v>
       </c>
       <c r="AP3">
-        <v>0.003057200509446655</v>
+        <v>0.002847495444220585</v>
       </c>
       <c r="AQ3">
-        <v>0.003120669329313926</v>
+        <v>0.002905392141352031</v>
       </c>
       <c r="AR3">
-        <v>0.003208274339130723</v>
+        <v>0.002987450343436139</v>
       </c>
       <c r="AS3">
-        <v>0.003335371678864932</v>
+        <v>0.0031090422965757</v>
       </c>
       <c r="AT3">
-        <v>0.003413495838701556</v>
+        <v>0.003181609704784286</v>
       </c>
       <c r="AU3">
-        <v>0.003532553028452578</v>
+        <v>0.003295153075109197</v>
       </c>
       <c r="AV3">
-        <v>0.003613709132282861</v>
+        <v>0.003370755607335791</v>
       </c>
       <c r="AW3">
-        <v>0.00361912260977154</v>
+        <v>0.003370755607335791</v>
       </c>
       <c r="AX3">
-        <v>0.003626476205056162</v>
+        <v>0.003372478223988556</v>
       </c>
       <c r="AY3">
-        <v>0.003627245401104554</v>
+        <v>0.003372478223988556</v>
       </c>
       <c r="AZ3">
-        <v>0.003627584798263844</v>
+        <v>0.003372478223988556</v>
       </c>
       <c r="BA3">
-        <v>0.003627588763381835</v>
+        <v>0.003372478223988556</v>
       </c>
       <c r="BB3">
-        <v>0.003648894149337281</v>
+        <v>0.003388167264509236</v>
       </c>
       <c r="BC3">
-        <v>0.003745433719135393</v>
+        <v>0.003479169397499168</v>
       </c>
       <c r="BD3">
-        <v>0.003803798046013339</v>
+        <v>0.003531956247844509</v>
       </c>
       <c r="BE3">
-        <v>0.003851144193914327</v>
+        <v>0.003573713362905292</v>
       </c>
       <c r="BF3">
-        <v>0.003914634663781552</v>
+        <v>0.003631631732744081</v>
       </c>
       <c r="BG3">
-        <v>0.003922559107764981</v>
+        <v>0.003633925796824641</v>
       </c>
       <c r="BH3">
-        <v>0.00394045803772755</v>
+        <v>0.003646204808524906</v>
       </c>
       <c r="BI3">
-        <v>0.003967664918670654</v>
+        <v>0.003667801533757655</v>
       </c>
       <c r="BJ3">
-        <v>0.003997781205607674</v>
+        <v>0.003692310716485905</v>
       </c>
       <c r="BK3">
-        <v>0.004037512277524587</v>
+        <v>0.003726444768565791</v>
       </c>
       <c r="BL3">
-        <v>0.004201165647182348</v>
+        <v>0.003884631093057858</v>
       </c>
       <c r="BM3">
-        <v>0.004214345937154785</v>
+        <v>0.003892186515669297</v>
       </c>
       <c r="BN3">
-        <v>0.004215444824052486</v>
+        <v>0.003892186515669297</v>
       </c>
       <c r="BO3">
-        <v>0.004232491681016837</v>
+        <v>0.003903612560683042</v>
       </c>
       <c r="BP3">
-        <v>0.00423340882221492</v>
+        <v>0.003903612560683042</v>
       </c>
       <c r="BQ3">
-        <v>0.004249522392181222</v>
+        <v>0.003914104339829938</v>
       </c>
       <c r="BR3">
-        <v>0.004250458721919263</v>
+        <v>0.003914104339829938</v>
       </c>
       <c r="BS3">
-        <v>0.004251676535616717</v>
+        <v>0.003914104339829938</v>
       </c>
       <c r="BT3">
-        <v>0.004279702338558108</v>
+        <v>0.003936520845979181</v>
       </c>
       <c r="BU3">
-        <v>0.004301839550511814</v>
+        <v>0.00395304258495056</v>
       </c>
       <c r="BV3">
-        <v>0.004315424191483406</v>
+        <v>0.003961002782660684</v>
       </c>
       <c r="BW3">
-        <v>0.004399047405308529</v>
+        <v>0.004039075012485935</v>
       </c>
       <c r="BX3">
-        <v>0.004514669640066736</v>
+        <v>0.004149179825099597</v>
       </c>
       <c r="BY3">
-        <v>0.004578680975932873</v>
+        <v>0.004207619607242427</v>
       </c>
       <c r="BZ3">
-        <v>0.004781486985508756</v>
+        <v>0.004404999636510176</v>
       </c>
       <c r="CA3">
-        <v>0.004956600265142551</v>
+        <v>0.004574657890591049</v>
       </c>
       <c r="CB3">
-        <v>0.005036739298974961</v>
+        <v>0.004649242286076002</v>
       </c>
       <c r="CC3">
-        <v>0.00511247946381657</v>
+        <v>0.004719423198860097</v>
       </c>
       <c r="CD3">
-        <v>0.005180914013673456</v>
+        <v>0.004782290834237745</v>
       </c>
       <c r="CE3">
-        <v>0.005188830807656901</v>
+        <v>0.004784577240294694</v>
       </c>
       <c r="CF3">
-        <v>0.005189926847254609</v>
+        <v>0.004784577240294694</v>
       </c>
       <c r="CG3">
-        <v>0.00519086317699265</v>
+        <v>0.004784577240294694</v>
       </c>
       <c r="CH3">
-        <v>0.00519266612278888</v>
+        <v>0.004784577240294694</v>
       </c>
       <c r="CI3">
-        <v>0.005253654972661338</v>
+        <v>0.004839991366339426</v>
       </c>
       <c r="CJ3">
-        <v>0.005290444360584402</v>
+        <v>0.00487118064906942</v>
       </c>
       <c r="CK3">
-        <v>0.005386983930382515</v>
+        <v>0.004962182782059352</v>
       </c>
       <c r="CL3">
-        <v>0.005576817679985527</v>
+        <v>0.005146576945528182</v>
       </c>
       <c r="CM3">
-        <v>0.005674473225781305</v>
+        <v>0.005238696224996123</v>
       </c>
       <c r="CN3">
-        <v>0.05703895811836576</v>
+        <v>0.05665141555609031</v>
       </c>
       <c r="CO3">
-        <v>0.06109074810989248</v>
+        <v>0.06070181653593472</v>
       </c>
       <c r="CP3">
-        <v>0.198490717822556</v>
+        <v>0.1982402581509566</v>
       </c>
       <c r="CQ3">
-        <v>0.2478480907193378</v>
+        <v>0.2476437603467637</v>
       </c>
       <c r="CR3">
-        <v>0.2478500451404337</v>
+        <v>0.2476437603467637</v>
       </c>
       <c r="CS3">
-        <v>0.2625832791096229</v>
+        <v>0.2623868084307108</v>
       </c>
       <c r="CT3">
-        <v>0.2780622210772527</v>
+        <v>0.2778763466415272</v>
       </c>
       <c r="CU3">
-        <v>0.3203267809888673</v>
+        <v>0.3201795966257052</v>
       </c>
       <c r="CV3">
-        <v>0.3350212229581377</v>
+        <v>0.3348838120231296</v>
       </c>
       <c r="CW3">
-        <v>0.3483095029303487</v>
+        <v>0.3481803905844483</v>
       </c>
       <c r="CX3">
-        <v>0.348602951209735</v>
+        <v>0.3484685079527711</v>
       </c>
       <c r="CY3">
-        <v>0.3486806994395724</v>
+        <v>0.34854069903669</v>
       </c>
       <c r="CZ3">
-        <v>0.3489125398390876</v>
+        <v>0.3487671439083286</v>
       </c>
       <c r="DA3">
-        <v>0.3516002003334671</v>
+        <v>0.3514519846373496</v>
       </c>
       <c r="DB3">
-        <v>0.3520527861325206</v>
+        <v>0.3518994064351467</v>
       </c>
       <c r="DC3">
-        <v>0.3571426971218764</v>
+        <v>0.3569890172357193</v>
       </c>
       <c r="DD3">
-        <v>0.3591212696177387</v>
+        <v>0.3589640262463178</v>
       </c>
       <c r="DE3">
-        <v>0.3625464019105759</v>
+        <v>0.3623871122637687</v>
       </c>
       <c r="DF3">
-        <v>0.3629705930596888</v>
+        <v>0.3628061096301785</v>
       </c>
       <c r="DG3">
-        <v>0.3651706517550879</v>
+        <v>0.3650028371439146</v>
       </c>
       <c r="DH3">
-        <v>0.3822979267192707</v>
+        <v>0.382142437188978</v>
       </c>
       <c r="DI3">
-        <v>0.3845546542145513</v>
+        <v>0.3843958929391036</v>
       </c>
       <c r="DJ3">
-        <v>0.3903476302024368</v>
+        <v>0.3901893061409476</v>
       </c>
       <c r="DK3">
-        <v>0.396469249189635</v>
+        <v>0.3963117070360505</v>
       </c>
       <c r="DL3">
-        <v>0.3972189031480673</v>
+        <v>0.3970565085702151</v>
       </c>
       <c r="DM3">
-        <v>0.3979525193465331</v>
+        <v>0.3977852555233681</v>
       </c>
       <c r="DN3">
-        <v>0.4033941258351534</v>
+        <v>0.4032269306955369</v>
       </c>
       <c r="DO3">
-        <v>0.4057454385302363</v>
+        <v>0.4055750708502123</v>
       </c>
       <c r="DP3">
-        <v>0.4064656196787302</v>
+        <v>0.4062903686621746</v>
       </c>
       <c r="DQ3">
-        <v>0.409656141272058</v>
+        <v>0.4094785979110138</v>
       </c>
       <c r="DR3">
-        <v>0.4097863213917858</v>
+        <v>0.4096032758774901</v>
       </c>
       <c r="DS3">
-        <v>0.4111124543890125</v>
+        <v>0.4109251610847641</v>
       </c>
       <c r="DT3">
-        <v>0.4326540983439637</v>
+        <v>0.4324837600876735</v>
       </c>
       <c r="DU3">
-        <v>0.4331410438429454</v>
+        <v>0.4329655776232288</v>
       </c>
       <c r="DV3">
-        <v>0.4379240348329431</v>
+        <v>0.4377479465144499</v>
       </c>
       <c r="DW3">
-        <v>0.4519588358035929</v>
+        <v>0.4517918290553432</v>
       </c>
       <c r="DX3">
-        <v>0.4614418337837617</v>
+        <v>0.461279134492392</v>
       </c>
       <c r="DY3">
-        <v>0.4671320372718621</v>
+        <v>0.4669696674025351</v>
       </c>
       <c r="DZ3">
-        <v>0.4672979819315151</v>
+        <v>0.4671301474202192</v>
       </c>
       <c r="EA3">
-        <v>0.4762742599127435</v>
+        <v>0.476110201390089</v>
       </c>
       <c r="EB3">
-        <v>0.5735394097093385</v>
+        <v>0.5734717280817461</v>
       </c>
       <c r="EC3">
-        <v>0.6124333066280019</v>
+        <v>0.6124007797865663</v>
       </c>
       <c r="ED3">
-        <v>0.6132566266862801</v>
+        <v>0.6132193246845341</v>
       </c>
       <c r="EE3">
-        <v>0.6133361828061138</v>
+        <v>0.6132933255546367</v>
       </c>
       <c r="EF3">
-        <v>0.6133660361470513</v>
+        <v>0.6133175715155772</v>
       </c>
       <c r="EG3">
-        <v>0.6134147953949494</v>
+        <v>0.6133607432127509</v>
       </c>
       <c r="EH3">
-        <v>0.6151400800913414</v>
+        <v>0.615082198765486</v>
       </c>
       <c r="EI3">
-        <v>0.6162986503889185</v>
+        <v>0.6162363455266369</v>
       </c>
       <c r="EJ3">
-        <v>0.6306193333589705</v>
+        <v>0.6305664099114283</v>
       </c>
       <c r="EK3">
-        <v>0.6680218632807527</v>
+        <v>0.6680025304139032</v>
       </c>
       <c r="EL3">
-        <v>0.7216856681685287</v>
+        <v>0.7217169813591318</v>
       </c>
       <c r="EM3">
-        <v>0.758974386090549</v>
+        <v>0.7590391704912589</v>
       </c>
       <c r="EN3">
-        <v>0.7669944550737771</v>
+        <v>0.7670620125528168</v>
       </c>
       <c r="EO3">
-        <v>0.7676533174723992</v>
+        <v>0.7677159273013454</v>
       </c>
       <c r="EP3">
-        <v>0.7677409224822159</v>
+        <v>0.7677979855034295</v>
       </c>
       <c r="EQ3">
-        <v>0.7717511804738295</v>
+        <v>0.7718068109229351</v>
       </c>
       <c r="ER3">
-        <v>0.78100860745447</v>
+        <v>0.781068308772553</v>
       </c>
       <c r="ES3">
-        <v>0.788082878739676</v>
+        <v>0.7881443611455657</v>
       </c>
       <c r="ET3">
-        <v>0.7985847142177142</v>
+        <v>0.7986515726780757</v>
       </c>
       <c r="EU3">
-        <v>0.8162587581807534</v>
+        <v>0.8163385151952303</v>
       </c>
       <c r="EV3">
-        <v>0.8369190411375478</v>
+        <v>0.8370148287932526</v>
       </c>
       <c r="EW3">
-        <v>0.849136102111999</v>
+        <v>0.8492390648194039</v>
       </c>
       <c r="EX3">
-        <v>0.8513086241074557</v>
+        <v>0.8514082267516033</v>
       </c>
       <c r="EY3">
-        <v>0.8514696454571189</v>
+        <v>0.8515637782955329</v>
       </c>
       <c r="EZ3">
-        <v>0.8521484240256995</v>
+        <v>0.852237630102897</v>
       </c>
       <c r="FA3">
-        <v>0.8566351916163165</v>
+        <v>0.8567234649037668</v>
       </c>
       <c r="FB3">
-        <v>0.8586358702121326</v>
+        <v>0.8587206032000825</v>
       </c>
       <c r="FC3">
-        <v>0.8586359406849264</v>
+        <v>0.8587206032000825</v>
       </c>
       <c r="FD3">
-        <v>0.8624421372769667</v>
+        <v>0.8625251531922424</v>
       </c>
       <c r="FE3">
-        <v>0.8769122912467061</v>
+        <v>0.8770048453478949</v>
       </c>
       <c r="FF3">
-        <v>0.8880331932234496</v>
+        <v>0.8881317726808595</v>
       </c>
       <c r="FG3">
-        <v>0.8998132986988145</v>
+        <v>0.8999185949114887</v>
       </c>
       <c r="FH3">
-        <v>0.9054708796869831</v>
+        <v>0.905576471105915</v>
       </c>
       <c r="FI3">
-        <v>0.9054726223176796</v>
+        <v>0.905576471105915</v>
       </c>
       <c r="FJ3">
-        <v>0.9090464798102058</v>
+        <v>0.9091484383120035</v>
       </c>
       <c r="FK3">
-        <v>0.9113064365054797</v>
+        <v>0.9114051266490367</v>
       </c>
       <c r="FL3">
-        <v>0.9200821234871276</v>
+        <v>0.9201843792314481</v>
       </c>
       <c r="FM3">
-        <v>0.9347961194563571</v>
+        <v>0.9349081691378504</v>
       </c>
       <c r="FN3">
-        <v>0.9367676454522341</v>
+        <v>0.9368761242578121</v>
       </c>
       <c r="FO3">
-        <v>0.9374908691207217</v>
+        <v>0.9375944677808848</v>
       </c>
       <c r="FP3">
-        <v>0.9437105621077148</v>
+        <v>0.9438150455397233</v>
       </c>
       <c r="FQ3">
-        <v>0.9453202465043485</v>
+        <v>0.9454207795464737</v>
       </c>
       <c r="FR3">
-        <v>0.9459943828329388</v>
+        <v>0.9460899842448802</v>
       </c>
       <c r="FS3">
-        <v>0.9461933748425226</v>
+        <v>0.9462835462738799</v>
       </c>
       <c r="FT3">
-        <v>0.9499023800347662</v>
+        <v>0.9499908029280085</v>
       </c>
       <c r="FU3">
-        <v>0.9537660865266863</v>
+        <v>0.9538529231387355</v>
       </c>
       <c r="FV3">
-        <v>0.9552746122235316</v>
+        <v>0.9553573923463997</v>
       </c>
       <c r="FW3">
-        <v>0.958181314017453</v>
+        <v>0.9582615041142544</v>
       </c>
       <c r="FX3">
-        <v>0.9612501928110352</v>
+        <v>0.9613279629795054</v>
       </c>
       <c r="FY3">
-        <v>0.961796844709892</v>
+        <v>0.9618695495374003</v>
       </c>
       <c r="FZ3">
-        <v>0.9620437524393757</v>
+        <v>0.9621110775422268</v>
       </c>
       <c r="GA3">
-        <v>0.9633559000366316</v>
+        <v>0.9634189626810822</v>
       </c>
       <c r="GB3">
-        <v>0.9640317311352183</v>
+        <v>0.9640898639270278</v>
       </c>
       <c r="GC3">
-        <v>0.9676707169276083</v>
+        <v>0.9677270277421507</v>
       </c>
       <c r="GD3">
-        <v>0.9713893849198316</v>
+        <v>0.971443957330991</v>
       </c>
       <c r="GE3">
-        <v>0.9715905812694109</v>
+        <v>0.9716397260119862</v>
       </c>
       <c r="GF3">
-        <v>0.9719836426185889</v>
+        <v>0.9720275609282797</v>
       </c>
       <c r="GG3">
-        <v>0.9738168795147552</v>
+        <v>0.9738570819053817</v>
       </c>
       <c r="GH3">
-        <v>0.979469555502934</v>
+        <v>0.9795100479552576</v>
       </c>
       <c r="GI3">
-        <v>0.9809215428998975</v>
+        <v>0.9809579195634058</v>
       </c>
       <c r="GJ3">
-        <v>0.98362684639424</v>
+        <v>0.9836604217970752</v>
       </c>
       <c r="GK3">
-        <v>0.9876328023858626</v>
+        <v>0.9876649407044799</v>
       </c>
       <c r="GL3">
-        <v>0.9895892713817711</v>
+        <v>0.9896178230320881</v>
       </c>
       <c r="GM3">
-        <v>0.9916905946773767</v>
+        <v>0.9917157115883872</v>
       </c>
       <c r="GN3">
-        <v>0.9926638141353415</v>
+        <v>0.9926843131065384</v>
       </c>
       <c r="GO3">
-        <v>0.9928981166948516</v>
+        <v>0.9929132227205839</v>
       </c>
       <c r="GP3">
-        <v>0.9941375547922596</v>
+        <v>0.9941483220989545</v>
       </c>
       <c r="GQ3">
-        <v>0.9943020786119156</v>
+        <v>0.9943073797864076</v>
       </c>
       <c r="GR3">
-        <v>0.9953029654098224</v>
+        <v>0.9953036776631156</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001446492145546277</v>
+        <v>0.0001384009306972302</v>
       </c>
       <c r="C4">
-        <v>0.0002035125874774699</v>
+        <v>0.0001909120964597879</v>
       </c>
       <c r="D4">
-        <v>0.0002174864958835269</v>
+        <v>0.0001984794173867491</v>
       </c>
       <c r="E4">
-        <v>0.0003370713079161702</v>
+        <v>0.0003117855818627478</v>
       </c>
       <c r="F4">
-        <v>0.0005673991610917966</v>
+        <v>0.0005359689446152194</v>
       </c>
       <c r="G4">
-        <v>0.000640463188443511</v>
+        <v>0.0006026979678658411</v>
       </c>
       <c r="H4">
-        <v>0.0006464264083435312</v>
+        <v>0.0006026979678658411</v>
       </c>
       <c r="I4">
-        <v>0.0007224351959915479</v>
+        <v>0.0006723753187755184</v>
       </c>
       <c r="J4">
-        <v>0.0008555630093868903</v>
+        <v>0.0007992408909745881</v>
       </c>
       <c r="K4">
-        <v>0.0008619787530324435</v>
+        <v>0.0007992408909745881</v>
       </c>
       <c r="L4">
-        <v>0.0008746628723087217</v>
+        <v>0.000805516860286122</v>
       </c>
       <c r="M4">
-        <v>0.0008829530501428807</v>
+        <v>0.0008073935652153096</v>
       </c>
       <c r="N4">
-        <v>0.0008833995742878101</v>
+        <v>0.0008073935652153096</v>
       </c>
       <c r="O4">
-        <v>0.0008851460800635439</v>
+        <v>0.0008073935652153096</v>
       </c>
       <c r="P4">
-        <v>0.0009269682882717013</v>
+        <v>0.0008428429221325368</v>
       </c>
       <c r="Q4">
-        <v>0.0009336164992406454</v>
+        <v>0.0008430756710731689</v>
       </c>
       <c r="R4">
-        <v>0.000964559309354116</v>
+        <v>0.0008676324502968161</v>
       </c>
       <c r="S4">
-        <v>0.001000632092983765</v>
+        <v>0.0008973254176261522</v>
       </c>
       <c r="T4">
-        <v>0.001041063087051939</v>
+        <v>0.0009313818750487296</v>
       </c>
       <c r="U4">
-        <v>0.001260634439145244</v>
+        <v>0.001144795706000772</v>
       </c>
       <c r="V4">
-        <v>0.001492504102476008</v>
+        <v>0.001370522746699157</v>
       </c>
       <c r="W4">
-        <v>0.001611458094445178</v>
+        <v>0.001483197326919092</v>
       </c>
       <c r="X4">
-        <v>0.001832717496708335</v>
+        <v>0.001698301252990896</v>
       </c>
       <c r="Y4">
-        <v>0.002061137349691978</v>
+        <v>0.001920574304148033</v>
       </c>
       <c r="Z4">
-        <v>0.002081639599754918</v>
+        <v>0.001934677875342604</v>
       </c>
       <c r="AA4">
-        <v>0.002081773892998431</v>
+        <v>0.001934677875342604</v>
       </c>
       <c r="AB4">
-        <v>0.002112716703111901</v>
+        <v>0.001959234654566251</v>
       </c>
       <c r="AC4">
-        <v>0.002207274948626368</v>
+        <v>0.00204748393466039</v>
       </c>
       <c r="AD4">
-        <v>0.002229457764858406</v>
+        <v>0.002063270107907648</v>
       </c>
       <c r="AE4">
-        <v>0.002229478847030527</v>
+        <v>0.002063270107907648</v>
       </c>
       <c r="AF4">
-        <v>0.002237479576835562</v>
+        <v>0.002064857014162492</v>
       </c>
       <c r="AG4">
-        <v>0.002242434373934115</v>
+        <v>0.002064857014162492</v>
       </c>
       <c r="AH4">
-        <v>0.002264461092150447</v>
+        <v>0.002080486900292659</v>
       </c>
       <c r="AI4">
-        <v>0.002378152139590058</v>
+        <v>0.002187892160308822</v>
       </c>
       <c r="AJ4">
-        <v>0.00255626675751198</v>
+        <v>0.002359799035273619</v>
       </c>
       <c r="AK4">
-        <v>0.00264830784677317</v>
+        <v>0.002445528109762901</v>
       </c>
       <c r="AL4">
-        <v>0.002653623308608012</v>
+        <v>0.002445528109762901</v>
       </c>
       <c r="AM4">
-        <v>0.002752099938516747</v>
+        <v>0.002537700521088788</v>
       </c>
       <c r="AN4">
-        <v>0.002875949610978521</v>
+        <v>0.002655276712561893</v>
       </c>
       <c r="AO4">
-        <v>0.002919555178366121</v>
+        <v>0.002692511589068399</v>
       </c>
       <c r="AP4">
-        <v>0.003105028077028434</v>
+        <v>0.002871785658795104</v>
       </c>
       <c r="AQ4">
-        <v>0.003279519424585782</v>
+        <v>0.003040064874067014</v>
       </c>
       <c r="AR4">
-        <v>0.003333431904010465</v>
+        <v>0.003087619148684309</v>
       </c>
       <c r="AS4">
-        <v>0.003342910295964182</v>
+        <v>0.003090685507167971</v>
       </c>
       <c r="AT4">
-        <v>0.003343427164316189</v>
+        <v>0.003090685507167971</v>
       </c>
       <c r="AU4">
-        <v>0.003343526862062221</v>
+        <v>0.003090685507167971</v>
       </c>
       <c r="AV4">
-        <v>0.003412565939008944</v>
+        <v>0.003153384704079157</v>
       </c>
       <c r="AW4">
-        <v>0.003421222818880001</v>
+        <v>0.003155628555278068</v>
       </c>
       <c r="AX4">
-        <v>0.003425732520633767</v>
+        <v>0.003155628555278068</v>
       </c>
       <c r="AY4">
-        <v>0.003431019708565765</v>
+        <v>0.003155628555278068</v>
       </c>
       <c r="AZ4">
-        <v>0.003591234784686632</v>
+        <v>0.003309614204449805</v>
       </c>
       <c r="BA4">
-        <v>0.003671557697768737</v>
+        <v>0.003383610907042514</v>
       </c>
       <c r="BB4">
-        <v>0.003683840103004594</v>
+        <v>0.003389484675666308</v>
       </c>
       <c r="BC4">
-        <v>0.003803788255073797</v>
+        <v>0.003503154620338873</v>
       </c>
       <c r="BD4">
-        <v>0.00388803015355023</v>
+        <v>0.003581075055891457</v>
       </c>
       <c r="BE4">
-        <v>0.004060861300940529</v>
+        <v>0.003747692059784659</v>
       </c>
       <c r="BF4">
-        <v>0.004395649234626946</v>
+        <v>0.004076462048831934</v>
       </c>
       <c r="BG4">
-        <v>0.004763242171614208</v>
+        <v>0.004438076782053716</v>
       </c>
       <c r="BH4">
-        <v>0.004921162797504207</v>
+        <v>0.00458976520143514</v>
       </c>
       <c r="BI4">
-        <v>0.00500436433587596</v>
+        <v>0.004666644016562503</v>
       </c>
       <c r="BJ4">
-        <v>0.005103849995886223</v>
+        <v>0.00475982668035644</v>
       </c>
       <c r="BK4">
-        <v>0.00515239321477065</v>
+        <v>0.004802005189965157</v>
       </c>
       <c r="BL4">
-        <v>0.005158106987145571</v>
+        <v>0.004802005189965157</v>
       </c>
       <c r="BM4">
-        <v>0.00516432044777077</v>
+        <v>0.004802005189965157</v>
       </c>
       <c r="BN4">
-        <v>0.005197784348137913</v>
+        <v>0.004829086113559812</v>
       </c>
       <c r="BO4">
-        <v>0.005226680058045404</v>
+        <v>0.004851593312664586</v>
       </c>
       <c r="BP4">
-        <v>0.005226849753512479</v>
+        <v>0.004851593312664586</v>
       </c>
       <c r="BQ4">
-        <v>0.005328511029741654</v>
+        <v>0.004946954228278123</v>
       </c>
       <c r="BR4">
-        <v>0.005465337503509156</v>
+        <v>0.005077522941507172</v>
       </c>
       <c r="BS4">
-        <v>0.005553707132400922</v>
+        <v>0.005159576107920035</v>
       </c>
       <c r="BT4">
-        <v>0.005711782148306457</v>
+        <v>0.00531141910434926</v>
       </c>
       <c r="BU4">
-        <v>0.005867294433954128</v>
+        <v>0.005460696265959453</v>
       </c>
       <c r="BV4">
-        <v>0.00593861952113087</v>
+        <v>0.005525684242435656</v>
       </c>
       <c r="BW4">
-        <v>0.005994554272759034</v>
+        <v>0.005575263239092008</v>
       </c>
       <c r="BX4">
-        <v>0.006097826883150341</v>
+        <v>0.005672237440881728</v>
       </c>
       <c r="BY4">
-        <v>0.006102781680248894</v>
+        <v>0.005672237440881728</v>
       </c>
       <c r="BZ4">
-        <v>0.006102877538358539</v>
+        <v>0.005672237440881728</v>
       </c>
       <c r="CA4">
-        <v>0.006109525749327483</v>
+        <v>0.00567247018982236</v>
       </c>
       <c r="CB4">
-        <v>0.006111272255103216</v>
+        <v>0.00567247018982236</v>
       </c>
       <c r="CC4">
-        <v>0.00613531320052222</v>
+        <v>0.005690116743244842</v>
       </c>
       <c r="CD4">
-        <v>0.006135389100279857</v>
+        <v>0.005690116743244842</v>
       </c>
       <c r="CE4">
-        <v>0.006141132263857735</v>
+        <v>0.005690116743244842</v>
       </c>
       <c r="CF4">
-        <v>0.006160119098768194</v>
+        <v>0.00570270306347178</v>
       </c>
       <c r="CG4">
-        <v>0.006234052616207396</v>
+        <v>0.005770302630133842</v>
       </c>
       <c r="CH4">
-        <v>0.006253238145137847</v>
+        <v>0.005783087885084115</v>
       </c>
       <c r="CI4">
-        <v>0.006363192396201462</v>
+        <v>0.005886751821867468</v>
       </c>
       <c r="CJ4">
-        <v>0.006438500963779023</v>
+        <v>0.005955728104441042</v>
       </c>
       <c r="CK4">
-        <v>0.006494854872449362</v>
+        <v>0.006005726765917816</v>
       </c>
       <c r="CL4">
-        <v>0.006653633988425743</v>
+        <v>0.006158274715383874</v>
       </c>
       <c r="CM4">
-        <v>0.007058762629189854</v>
+        <v>0.006557470624155451</v>
       </c>
       <c r="CN4">
-        <v>0.0991404118944605</v>
+        <v>0.0987442465891448</v>
       </c>
       <c r="CO4">
-        <v>0.09924835809932207</v>
+        <v>0.09884590004712429</v>
       </c>
       <c r="CP4">
-        <v>0.2130304895480988</v>
+        <v>0.2127594467502326</v>
       </c>
       <c r="CQ4">
-        <v>0.2416042084231911</v>
+        <v>0.2413613570900429</v>
       </c>
       <c r="CR4">
-        <v>0.2427003022334802</v>
+        <v>0.2424523552223479</v>
       </c>
       <c r="CS4">
-        <v>0.2546341004342609</v>
+        <v>0.2543941868351498</v>
       </c>
       <c r="CT4">
-        <v>0.2818162231693306</v>
+        <v>0.2816028152175065</v>
       </c>
       <c r="CU4">
-        <v>0.3082093278250091</v>
+        <v>0.3080214696825005</v>
       </c>
       <c r="CV4">
-        <v>0.3248642625008313</v>
+        <v>0.3246901570835376</v>
       </c>
       <c r="CW4">
-        <v>0.3358142636026222</v>
+        <v>0.3356469997987737</v>
       </c>
       <c r="CX4">
-        <v>0.3381977413424482</v>
+        <v>0.3380269414325389</v>
       </c>
       <c r="CY4">
-        <v>0.3383269625354504</v>
+        <v>0.3381498956517587</v>
       </c>
       <c r="CZ4">
-        <v>0.338610609763991</v>
+        <v>0.3384274629824184</v>
       </c>
       <c r="DA4">
-        <v>0.3456399204712814</v>
+        <v>0.3454588656721235</v>
       </c>
       <c r="DB4">
-        <v>0.3457313082254769</v>
+        <v>0.3455439406200791</v>
       </c>
       <c r="DC4">
-        <v>0.3499659429515665</v>
+        <v>0.3497772817820534</v>
       </c>
       <c r="DD4">
-        <v>0.3551588014740728</v>
+        <v>0.3549700075588257</v>
       </c>
       <c r="DE4">
-        <v>0.364415496905483</v>
+        <v>0.3642314932871152</v>
       </c>
       <c r="DF4">
-        <v>0.3649460316588655</v>
+        <v>0.3647562472288824</v>
       </c>
       <c r="DG4">
-        <v>0.3706078632285599</v>
+        <v>0.3704185141795535</v>
       </c>
       <c r="DH4">
-        <v>0.3932662415084497</v>
+        <v>0.3930979179196009</v>
       </c>
       <c r="DI4">
-        <v>0.3940357817258809</v>
+        <v>0.3938619668631396</v>
       </c>
       <c r="DJ4">
-        <v>0.4011654670432711</v>
+        <v>0.4009938657594784</v>
       </c>
       <c r="DK4">
-        <v>0.403385816266683</v>
+        <v>0.4032104812585059</v>
       </c>
       <c r="DL4">
-        <v>0.4044534875741122</v>
+        <v>0.4042730224561576</v>
       </c>
       <c r="DM4">
-        <v>0.4044603998638077</v>
+        <v>0.404273519603737</v>
       </c>
       <c r="DN4">
-        <v>0.4082795734480936</v>
+        <v>0.4080908963229751</v>
       </c>
       <c r="DO4">
-        <v>0.4109663339184358</v>
+        <v>0.4107744880922091</v>
       </c>
       <c r="DP4">
-        <v>0.4111825485501914</v>
+        <v>0.410984541136401</v>
       </c>
       <c r="DQ4">
-        <v>0.4151035769447259</v>
+        <v>0.4149038960555765</v>
       </c>
       <c r="DR4">
-        <v>0.4158696263218059</v>
+        <v>0.4156644499298651</v>
       </c>
       <c r="DS4">
-        <v>0.4201905247565754</v>
+        <v>0.4199841593027233</v>
       </c>
       <c r="DT4">
-        <v>0.4460433473578907</v>
+        <v>0.4458618772009717</v>
       </c>
       <c r="DU4">
-        <v>0.4464740413012272</v>
+        <v>0.4462866693828189</v>
       </c>
       <c r="DV4">
-        <v>0.4469529925194193</v>
+        <v>0.4467597772996976</v>
       </c>
       <c r="DW4">
-        <v>0.4753940983811681</v>
+        <v>0.4752289139751514</v>
       </c>
       <c r="DX4">
-        <v>0.4825699414032026</v>
+        <v>0.482407026492834</v>
       </c>
       <c r="DY4">
-        <v>0.4859811935464433</v>
+        <v>0.4858159876038933</v>
       </c>
       <c r="DZ4">
-        <v>0.4865711630558062</v>
+        <v>0.4864002483025216</v>
       </c>
       <c r="EA4">
-        <v>0.4972082276261093</v>
+        <v>0.4970437753864404</v>
       </c>
       <c r="EB4">
-        <v>0.584728176432381</v>
+        <v>0.5846633247243654</v>
       </c>
       <c r="EC4">
-        <v>0.6187897938596665</v>
+        <v>0.6187597818060073</v>
       </c>
       <c r="ED4">
-        <v>0.6194969390708196</v>
+        <v>0.6194613601562594</v>
       </c>
       <c r="EE4">
-        <v>0.6196238442435889</v>
+        <v>0.6195819955495562</v>
       </c>
       <c r="EF4">
-        <v>0.6197953446208453</v>
+        <v>0.6197472801711843</v>
       </c>
       <c r="EG4">
-        <v>0.6201114845526553</v>
+        <v>0.6200573795676583</v>
       </c>
       <c r="EH4">
-        <v>0.6230539442487261</v>
+        <v>0.6229969803236207</v>
       </c>
       <c r="EI4">
-        <v>0.6232467537681265</v>
+        <v>0.6231835999018677</v>
       </c>
       <c r="EJ4">
-        <v>0.6339506738451568</v>
+        <v>0.6338940634830935</v>
       </c>
       <c r="EK4">
-        <v>0.6618118416485521</v>
+        <v>0.6617825595474492</v>
       </c>
       <c r="EL4">
-        <v>0.7077298002688246</v>
+        <v>0.7077497209164244</v>
       </c>
       <c r="EM4">
-        <v>0.7358115550944153</v>
+        <v>0.7358590712280967</v>
       </c>
       <c r="EN4">
-        <v>0.740425766258698</v>
+        <v>0.74047244865749</v>
       </c>
       <c r="EO4">
-        <v>0.7407048362567781</v>
+        <v>0.7407454332127076</v>
       </c>
       <c r="EP4">
-        <v>0.7409661680830734</v>
+        <v>0.7410006581076364</v>
       </c>
       <c r="EQ4">
-        <v>0.7500768539997921</v>
+        <v>0.7501159574413352</v>
       </c>
       <c r="ER4">
-        <v>0.7633138363316994</v>
+        <v>0.7633625518979814</v>
       </c>
       <c r="ES4">
-        <v>0.7711586541210462</v>
+        <v>0.7712104495972131</v>
       </c>
       <c r="ET4">
-        <v>0.7822172872337677</v>
+        <v>0.7822760559231539</v>
       </c>
       <c r="EU4">
-        <v>0.8014397721679373</v>
+        <v>0.8015154039827873</v>
       </c>
       <c r="EV4">
-        <v>0.8189703139318633</v>
+        <v>0.8190607592061809</v>
       </c>
       <c r="EW4">
-        <v>0.8264037449798163</v>
+        <v>0.826496771798926</v>
       </c>
       <c r="EX4">
-        <v>0.8276636429065874</v>
+        <v>0.827751772484477</v>
       </c>
       <c r="EY4">
-        <v>0.8280957538100665</v>
+        <v>0.8281779833430107</v>
       </c>
       <c r="EZ4">
-        <v>0.8307795211801077</v>
+        <v>0.8308585783860204</v>
       </c>
       <c r="FA4">
-        <v>0.8392872590361576</v>
+        <v>0.8393701992313628</v>
       </c>
       <c r="FB4">
-        <v>0.8428563013952752</v>
+        <v>0.8429371417096602</v>
       </c>
       <c r="FC4">
-        <v>0.843988417609189</v>
+        <v>0.8440642058841097</v>
       </c>
       <c r="FD4">
-        <v>0.8531544525314769</v>
+        <v>0.8532349212746692</v>
       </c>
       <c r="FE4">
-        <v>0.8745023626795071</v>
+        <v>0.8746022693461026</v>
       </c>
       <c r="FF4">
-        <v>0.8880167020393221</v>
+        <v>0.8881265568285074</v>
       </c>
       <c r="FG4">
-        <v>0.9034307825902894</v>
+        <v>0.9035528869002375</v>
       </c>
       <c r="FH4">
-        <v>0.90969195872029</v>
+        <v>0.909815224473524</v>
       </c>
       <c r="FI4">
-        <v>0.9097381544489381</v>
+        <v>0.909855052649083</v>
       </c>
       <c r="FJ4">
-        <v>0.9124449904213005</v>
+        <v>0.9125587442403463</v>
       </c>
       <c r="FK4">
-        <v>0.915313903309971</v>
+        <v>0.9154247090923047</v>
       </c>
       <c r="FL4">
-        <v>0.9274397525300759</v>
+        <v>0.9275588243802616</v>
       </c>
       <c r="FM4">
-        <v>0.9442669262232289</v>
+        <v>0.9443999594536618</v>
       </c>
       <c r="FN4">
-        <v>0.9479186886906699</v>
+        <v>0.9480497222496727</v>
       </c>
       <c r="FO4">
-        <v>0.951063099007061</v>
+        <v>0.9511915182744322</v>
       </c>
       <c r="FP4">
-        <v>0.9588696947925619</v>
+        <v>0.9590011476666424</v>
       </c>
       <c r="FQ4">
-        <v>0.9630667376148691</v>
+        <v>0.9631968513849789</v>
       </c>
       <c r="FR4">
-        <v>0.9650642471158588</v>
+        <v>0.9651903572074807</v>
       </c>
       <c r="FS4">
-        <v>0.965494252329126</v>
+        <v>0.9656144598249122</v>
       </c>
       <c r="FT4">
-        <v>0.9670225339829019</v>
+        <v>0.9671381693648179</v>
       </c>
       <c r="FU4">
-        <v>0.9686824378499217</v>
+        <v>0.9687936605686982</v>
       </c>
       <c r="FV4">
-        <v>0.9690552813574372</v>
+        <v>0.9691605322331323</v>
       </c>
       <c r="FW4">
-        <v>0.9712065268738959</v>
+        <v>0.9713079603110956</v>
       </c>
       <c r="FX4">
-        <v>0.9737119381259908</v>
+        <v>0.9738099831707044</v>
       </c>
       <c r="FY4">
-        <v>0.9740567865606895</v>
+        <v>0.9741488258483287</v>
       </c>
       <c r="FZ4">
-        <v>0.9741840660034964</v>
+        <v>0.9742698359650641</v>
       </c>
       <c r="GA4">
-        <v>0.9757643441625042</v>
+        <v>0.975845605000183</v>
       </c>
       <c r="GB4">
-        <v>0.9774223956293376</v>
+        <v>0.9774992415598289</v>
       </c>
       <c r="GC4">
-        <v>0.981309323620441</v>
+        <v>0.9813844547654166</v>
       </c>
       <c r="GD4">
-        <v>0.9850906476009185</v>
+        <v>0.9851639360288063</v>
       </c>
       <c r="GE4">
-        <v>0.9857406185063187</v>
+        <v>0.9858082708107957</v>
       </c>
       <c r="GF4">
-        <v>0.9857763560929146</v>
+        <v>0.9858376281750245</v>
       </c>
       <c r="GG4">
-        <v>0.986654176681241</v>
+        <v>0.9867100886632462</v>
       </c>
       <c r="GH4">
-        <v>0.9891408873314542</v>
+        <v>0.9891933882665555</v>
       </c>
       <c r="GI4">
-        <v>0.9895148469990821</v>
+        <v>0.9895613774432486</v>
       </c>
       <c r="GJ4">
-        <v>0.9907434621227056</v>
+        <v>0.9907850574288128</v>
       </c>
       <c r="GK4">
-        <v>0.9921528392645174</v>
+        <v>0.9921897184125931</v>
       </c>
       <c r="GL4">
-        <v>0.9924795791973939</v>
+        <v>0.9925104306512634</v>
       </c>
       <c r="GM4">
-        <v>0.9935199348020747</v>
+        <v>0.993545623055181</v>
       </c>
       <c r="GN4">
-        <v>0.9939637238767288</v>
+        <v>0.9939835262321443</v>
       </c>
       <c r="GO4">
-        <v>0.994005546084937</v>
+        <v>0.9940189755890615</v>
       </c>
       <c r="GP4">
-        <v>0.9947242275872508</v>
+        <v>0.9947321042058515</v>
       </c>
       <c r="GQ4">
-        <v>0.9947256466692935</v>
+        <v>0.9947321042058515</v>
       </c>
       <c r="GR4">
-        <v>0.995978660895372</v>
+        <v>0.9959802128516074</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001715996413368869</v>
+        <v>0.0001611972813066355</v>
       </c>
       <c r="C5">
-        <v>0.0002916361752769088</v>
+        <v>0.0002707320967385468</v>
       </c>
       <c r="D5">
-        <v>0.0003692986713561606</v>
+        <v>0.0003378112225219052</v>
       </c>
       <c r="E5">
-        <v>0.0004230339546433644</v>
+        <v>0.0003809170294586654</v>
       </c>
       <c r="F5">
-        <v>0.0004491168283265849</v>
+        <v>0.0003963171425448928</v>
       </c>
       <c r="G5">
-        <v>0.0004860378664626467</v>
+        <v>0.0004225763044638444</v>
       </c>
       <c r="H5">
-        <v>0.0004904358556406166</v>
+        <v>0.0004225763044638444</v>
       </c>
       <c r="I5">
-        <v>0.0005011482340998081</v>
+        <v>0.0004225763044638444</v>
       </c>
       <c r="J5">
-        <v>0.0005044788012316662</v>
+        <v>0.0004225763044638444</v>
       </c>
       <c r="K5">
-        <v>0.0005174648860760709</v>
+        <v>0.0004248543921211907</v>
       </c>
       <c r="L5">
-        <v>0.0006147447411649512</v>
+        <v>0.0005115886781839074</v>
       </c>
       <c r="M5">
-        <v>0.0007622058937204563</v>
+        <v>0.0006486009575406533</v>
       </c>
       <c r="N5">
-        <v>0.0008376993799092094</v>
+        <v>0.0007135068939041545</v>
       </c>
       <c r="O5">
-        <v>0.001014454070985846</v>
+        <v>0.0008798691583684679</v>
       </c>
       <c r="P5">
-        <v>0.001032449534077355</v>
+        <v>0.0008871662769921354</v>
       </c>
       <c r="Q5">
-        <v>0.001034354830881168</v>
+        <v>0.0008871662769921354</v>
       </c>
       <c r="R5">
-        <v>0.001088614591141894</v>
+        <v>0.0009307975715326219</v>
       </c>
       <c r="S5">
-        <v>0.001313426749792376</v>
+        <v>0.001145309906927501</v>
       </c>
       <c r="T5">
-        <v>0.001317830958070032</v>
+        <v>0.001145309906927501</v>
       </c>
       <c r="U5">
-        <v>0.001321114665904256</v>
+        <v>0.001145309906927501</v>
       </c>
       <c r="V5">
-        <v>0.001344271762735182</v>
+        <v>0.001157778605395418</v>
       </c>
       <c r="W5">
-        <v>0.001386368570609948</v>
+        <v>0.001189223510396981</v>
       </c>
       <c r="X5">
-        <v>0.001387776350638877</v>
+        <v>0.001189223510396981</v>
       </c>
       <c r="Y5">
-        <v>0.001392367704407085</v>
+        <v>0.001189223510396981</v>
       </c>
       <c r="Z5">
-        <v>0.001406615641187786</v>
+        <v>0.001192765881490469</v>
       </c>
       <c r="AA5">
-        <v>0.001423189360351071</v>
+        <v>0.001198638516585455</v>
       </c>
       <c r="AB5">
-        <v>0.001426039264307195</v>
+        <v>0.001198638516585455</v>
       </c>
       <c r="AC5">
-        <v>0.001426041412368387</v>
+        <v>0.001198638516585455</v>
       </c>
       <c r="AD5">
-        <v>0.001438049859762147</v>
+        <v>0.001199937082953616</v>
       </c>
       <c r="AE5">
-        <v>0.001576211682787124</v>
+        <v>0.00132763211362651</v>
       </c>
       <c r="AF5">
-        <v>0.001652076118957149</v>
+        <v>0.001392909714765783</v>
       </c>
       <c r="AG5">
-        <v>0.001708690626098997</v>
+        <v>0.001438900293618855</v>
       </c>
       <c r="AH5">
-        <v>0.001856670058628337</v>
+        <v>0.001576431851638458</v>
       </c>
       <c r="AI5">
-        <v>0.001969570762928608</v>
+        <v>0.001678817087189271</v>
       </c>
       <c r="AJ5">
-        <v>0.001983127515244203</v>
+        <v>0.001681666941953849</v>
       </c>
       <c r="AK5">
-        <v>0.001989646340915103</v>
+        <v>0.001681666941953849</v>
       </c>
       <c r="AL5">
-        <v>0.002102547045215374</v>
+        <v>0.001784052177504663</v>
       </c>
       <c r="AM5">
-        <v>0.002114008722636737</v>
+        <v>0.001784802920313184</v>
       </c>
       <c r="AN5">
-        <v>0.002114320012221022</v>
+        <v>0.001784802920313184</v>
       </c>
       <c r="AO5">
-        <v>0.002243001135724627</v>
+        <v>0.001902998982824179</v>
       </c>
       <c r="AP5">
-        <v>0.002322686181701771</v>
+        <v>0.001972104555816694</v>
       </c>
       <c r="AQ5">
-        <v>0.002322702097495967</v>
+        <v>0.001972104555816694</v>
       </c>
       <c r="AR5">
-        <v>0.002348916735172536</v>
+        <v>0.001987636686796208</v>
       </c>
       <c r="AS5">
-        <v>0.00238655199327254</v>
+        <v>0.002014611444930691</v>
       </c>
       <c r="AT5">
-        <v>0.002411044597036045</v>
+        <v>0.002028418223759024</v>
       </c>
       <c r="AU5">
-        <v>0.002429429073107915</v>
+        <v>0.002036105104963678</v>
       </c>
       <c r="AV5">
-        <v>0.002497958389648251</v>
+        <v>0.002094033452214134</v>
       </c>
       <c r="AW5">
-        <v>0.002583683295320476</v>
+        <v>0.00216919052328615</v>
       </c>
       <c r="AX5">
-        <v>0.002639977412478498</v>
+        <v>0.002214860094786453</v>
       </c>
       <c r="AY5">
-        <v>0.002674330160744219</v>
+        <v>0.002238546017921293</v>
       </c>
       <c r="AZ5">
-        <v>0.002840927502333644</v>
+        <v>0.002394731360401021</v>
       </c>
       <c r="BA5">
-        <v>0.003189736484724215</v>
+        <v>0.002733479452685835</v>
       </c>
       <c r="BB5">
-        <v>0.003300498279132467</v>
+        <v>0.00283372165681585</v>
       </c>
       <c r="BC5">
-        <v>0.003396210149300506</v>
+        <v>0.002918884936561171</v>
       </c>
       <c r="BD5">
-        <v>0.003497351004194466</v>
+        <v>0.003009487662303773</v>
       </c>
       <c r="BE5">
-        <v>0.003497445314549705</v>
+        <v>0.003009487662303773</v>
       </c>
       <c r="BF5">
-        <v>0.003497453499560292</v>
+        <v>0.003009487662303773</v>
       </c>
       <c r="BG5">
-        <v>0.003509710552941501</v>
+        <v>0.003011035313705619</v>
       </c>
       <c r="BH5">
-        <v>0.003509739548793037</v>
+        <v>0.003011035313705619</v>
       </c>
       <c r="BI5">
-        <v>0.00351358821729874</v>
+        <v>0.003011035313705619</v>
       </c>
       <c r="BJ5">
-        <v>0.003513617213150276</v>
+        <v>0.003011035313705619</v>
       </c>
       <c r="BK5">
-        <v>0.003553217771151064</v>
+        <v>0.003039979158735435</v>
       </c>
       <c r="BL5">
-        <v>0.00362059482374957</v>
+        <v>0.003096753021712566</v>
       </c>
       <c r="BM5">
-        <v>0.003773891646010465</v>
+        <v>0.003239612215699387</v>
       </c>
       <c r="BN5">
-        <v>0.003852562172038827</v>
+        <v>0.003307701313834601</v>
       </c>
       <c r="BO5">
-        <v>0.003871228327096476</v>
+        <v>0.003315670416800611</v>
       </c>
       <c r="BP5">
-        <v>0.004049462518098421</v>
+        <v>0.00348351503208243</v>
       </c>
       <c r="BQ5">
-        <v>0.004245790998186887</v>
+        <v>0.003669488802871983</v>
       </c>
       <c r="BR5">
-        <v>0.004359419752450402</v>
+        <v>0.003772603491287065</v>
       </c>
       <c r="BS5">
-        <v>0.004437082248529654</v>
+        <v>0.003839682617070423</v>
       </c>
       <c r="BT5">
-        <v>0.004574708521581667</v>
+        <v>0.00396684106580326</v>
       </c>
       <c r="BU5">
-        <v>0.004574734237670369</v>
+        <v>0.00396684106580326</v>
       </c>
       <c r="BV5">
-        <v>0.004574867893523621</v>
+        <v>0.00396684106580326</v>
       </c>
       <c r="BW5">
-        <v>0.00459237053964001</v>
+        <v>0.003973644417828191</v>
       </c>
       <c r="BX5">
-        <v>0.004593311187892522</v>
+        <v>0.003973644417828191</v>
       </c>
       <c r="BY5">
-        <v>0.00459354120878091</v>
+        <v>0.003973644417828191</v>
       </c>
       <c r="BZ5">
-        <v>0.004691919443814339</v>
+        <v>0.004061479200336282</v>
       </c>
       <c r="CA5">
-        <v>0.004700779219367058</v>
+        <v>0.004061479200336282</v>
       </c>
       <c r="CB5">
-        <v>0.004723936316197985</v>
+        <v>0.004073947898804199</v>
       </c>
       <c r="CC5">
-        <v>0.004723998862358828</v>
+        <v>0.004073947898804199</v>
       </c>
       <c r="CD5">
-        <v>0.004759293540576995</v>
+        <v>0.004098577566924192</v>
       </c>
       <c r="CE5">
-        <v>0.004962431270321699</v>
+        <v>0.004291373708314694</v>
       </c>
       <c r="CF5">
-        <v>0.005034982076659011</v>
+        <v>0.004353331294489849</v>
       </c>
       <c r="CG5">
-        <v>0.005203054298173978</v>
+        <v>0.004510994358884901</v>
       </c>
       <c r="CH5">
-        <v>0.005396241848421011</v>
+        <v>0.004693821147482342</v>
       </c>
       <c r="CI5">
-        <v>0.005514568162447372</v>
+        <v>0.004801642447527221</v>
       </c>
       <c r="CJ5">
-        <v>0.00557937409517568</v>
+        <v>0.004855840236267174</v>
       </c>
       <c r="CK5">
-        <v>0.005743333066898303</v>
+        <v>0.005009382124927108</v>
       </c>
       <c r="CL5">
-        <v>0.005923132377821234</v>
+        <v>0.005178794876005815</v>
       </c>
       <c r="CM5">
-        <v>0.006358978225817797</v>
+        <v>0.005604747547809161</v>
       </c>
       <c r="CN5">
-        <v>0.1235185023110839</v>
+        <v>0.1229792967673808</v>
       </c>
       <c r="CO5">
-        <v>0.1309264312370987</v>
+        <v>0.1303907672304521</v>
       </c>
       <c r="CP5">
-        <v>0.2503042092103775</v>
+        <v>0.2499878447571113</v>
       </c>
       <c r="CQ5">
-        <v>0.2771736108538906</v>
+        <v>0.2768982888255002</v>
       </c>
       <c r="CR5">
-        <v>0.2783670272936417</v>
+        <v>0.2780832718742546</v>
       </c>
       <c r="CS5">
-        <v>0.2868411728658291</v>
+        <v>0.286563013507913</v>
       </c>
       <c r="CT5">
-        <v>0.3147754844555808</v>
+        <v>0.3145404195290362</v>
       </c>
       <c r="CU5">
-        <v>0.3427212310447552</v>
+        <v>0.3425292825840209</v>
       </c>
       <c r="CV5">
-        <v>0.359556301194846</v>
+        <v>0.3593860597086267</v>
       </c>
       <c r="CW5">
-        <v>0.3610195807209731</v>
+        <v>0.360841425850926</v>
       </c>
       <c r="CX5">
-        <v>0.3615770980328272</v>
+        <v>0.3613892844389319</v>
       </c>
       <c r="CY5">
-        <v>0.3616617705485525</v>
+        <v>0.3614633870921757</v>
       </c>
       <c r="CZ5">
-        <v>0.3634374888589064</v>
+        <v>0.363231794066243</v>
       </c>
       <c r="DA5">
-        <v>0.3669673427807036</v>
+        <v>0.366757716747584</v>
       </c>
       <c r="DB5">
-        <v>0.3670696335205396</v>
+        <v>0.3668494715740158</v>
       </c>
       <c r="DC5">
-        <v>0.3676789840897768</v>
+        <v>0.3674492632984428</v>
       </c>
       <c r="DD5">
-        <v>0.3703288777559984</v>
+        <v>0.3700935301027457</v>
       </c>
       <c r="DE5">
-        <v>0.3751881035106831</v>
+        <v>0.374951386222907</v>
       </c>
       <c r="DF5">
-        <v>0.3763455585522496</v>
+        <v>0.3761003385783943</v>
       </c>
       <c r="DG5">
-        <v>0.3807230049312567</v>
+        <v>0.3804754869679387</v>
       </c>
       <c r="DH5">
-        <v>0.3970060541092159</v>
+        <v>0.3967791794148625</v>
       </c>
       <c r="DI5">
-        <v>0.3979168309632358</v>
+        <v>0.3976809782513022</v>
       </c>
       <c r="DJ5">
-        <v>0.4042866859416572</v>
+        <v>0.4040523744713645</v>
       </c>
       <c r="DK5">
-        <v>0.4062145975443277</v>
+        <v>0.405973268003508</v>
       </c>
       <c r="DL5">
-        <v>0.4071102974991088</v>
+        <v>0.4068599608885854</v>
       </c>
       <c r="DM5">
-        <v>0.4082663021407485</v>
+        <v>0.4080074600493274</v>
       </c>
       <c r="DN5">
-        <v>0.4125718249233866</v>
+        <v>0.4123105462507962</v>
       </c>
       <c r="DO5">
-        <v>0.413643275469295</v>
+        <v>0.413373328386017</v>
       </c>
       <c r="DP5">
-        <v>0.4144065056307637</v>
+        <v>0.4141272962178165</v>
       </c>
       <c r="DQ5">
-        <v>0.4184367744272978</v>
+        <v>0.4181545980381282</v>
       </c>
       <c r="DR5">
-        <v>0.4199546350506695</v>
+        <v>0.4196646504516038</v>
       </c>
       <c r="DS5">
-        <v>0.4262500907328469</v>
+        <v>0.425961504013216</v>
       </c>
       <c r="DT5">
-        <v>0.4482025086245912</v>
+        <v>0.4479454896483071</v>
       </c>
       <c r="DU5">
-        <v>0.4483518782770503</v>
+        <v>0.4480844141051125</v>
       </c>
       <c r="DV5">
-        <v>0.4489600306063481</v>
+        <v>0.448683005280676</v>
       </c>
       <c r="DW5">
-        <v>0.4717514444557361</v>
+        <v>0.471507603559555</v>
       </c>
       <c r="DX5">
-        <v>0.4735863884631</v>
+        <v>0.4733353503543808</v>
       </c>
       <c r="DY5">
-        <v>0.4747176169059906</v>
+        <v>0.4744580255743829</v>
       </c>
       <c r="DZ5">
-        <v>0.4747181016474661</v>
+        <v>0.4744580255743829</v>
       </c>
       <c r="EA5">
-        <v>0.4970807855184983</v>
+        <v>0.4968530677424208</v>
       </c>
       <c r="EB5">
-        <v>0.5881900269188987</v>
+        <v>0.588127137216359</v>
       </c>
       <c r="EC5">
-        <v>0.6166868904802503</v>
+        <v>0.6166681792071271</v>
       </c>
       <c r="ED5">
-        <v>0.6172331582926722</v>
+        <v>0.6172047666187075</v>
       </c>
       <c r="EE5">
-        <v>0.6172744995355851</v>
+        <v>0.6172354545028267</v>
       </c>
       <c r="EF5">
-        <v>0.6180389082969944</v>
+        <v>0.6179906032056457</v>
       </c>
       <c r="EG5">
-        <v>0.618906846123177</v>
+        <v>0.6188494804664574</v>
       </c>
       <c r="EH5">
-        <v>0.6222654169536215</v>
+        <v>0.6222037900059869</v>
       </c>
       <c r="EI5">
-        <v>0.6233332354997132</v>
+        <v>0.6232629331427831</v>
       </c>
       <c r="EJ5">
-        <v>0.6385212747329534</v>
+        <v>0.6384695056379143</v>
       </c>
       <c r="EK5">
-        <v>0.6795611156610797</v>
+        <v>0.6795776944298046</v>
       </c>
       <c r="EL5">
-        <v>0.7248977883722828</v>
+        <v>0.7249909946971166</v>
       </c>
       <c r="EM5">
-        <v>0.7500251311037428</v>
+        <v>0.7501560230285715</v>
       </c>
       <c r="EN5">
-        <v>0.7533971021335107</v>
+        <v>0.7535237585886654</v>
       </c>
       <c r="EO5">
-        <v>0.7535590235853362</v>
+        <v>0.7536752590312708</v>
       </c>
       <c r="EP5">
-        <v>0.7540248207618208</v>
+        <v>0.7541312207456634</v>
       </c>
       <c r="EQ5">
-        <v>0.7595610097823293</v>
+        <v>0.7596673445922029</v>
       </c>
       <c r="ER5">
-        <v>0.767750014368912</v>
+        <v>0.7678613957936513</v>
       </c>
       <c r="ES5">
-        <v>0.7758628459593402</v>
+        <v>0.7759791272189445</v>
       </c>
       <c r="ET5">
-        <v>0.7875626133686839</v>
+        <v>0.7876907062359523</v>
       </c>
       <c r="EU5">
-        <v>0.8041820065296631</v>
+        <v>0.8043313907770723</v>
       </c>
       <c r="EV5">
-        <v>0.8221811606209858</v>
+        <v>0.822354494950712</v>
       </c>
       <c r="EW5">
-        <v>0.8272411123655369</v>
+        <v>0.8274134638455909</v>
       </c>
       <c r="EX5">
-        <v>0.8275151560517019</v>
+        <v>0.8276773025741879</v>
       </c>
       <c r="EY5">
-        <v>0.8285054498017075</v>
+        <v>0.8286587715300737</v>
       </c>
       <c r="EZ5">
-        <v>0.8325357185982416</v>
+        <v>0.8326860733503855</v>
       </c>
       <c r="FA5">
-        <v>0.8403517142036554</v>
+        <v>0.8405063968086186</v>
       </c>
       <c r="FB5">
-        <v>0.8427621000819684</v>
+        <v>0.8429106943103672</v>
       </c>
       <c r="FC5">
-        <v>0.8434074289993894</v>
+        <v>0.843546533710722</v>
       </c>
       <c r="FD5">
-        <v>0.8503425599492731</v>
+        <v>0.8504842951492476</v>
       </c>
       <c r="FE5">
-        <v>0.8679920120582503</v>
+        <v>0.8681570234894412</v>
       </c>
       <c r="FF5">
-        <v>0.8804666734284738</v>
+        <v>0.8806449896334382</v>
       </c>
       <c r="FG5">
-        <v>0.8937065987600635</v>
+        <v>0.8938996943485794</v>
       </c>
       <c r="FH5">
-        <v>0.8979867228439838</v>
+        <v>0.898177332909826</v>
       </c>
       <c r="FI5">
-        <v>0.8983132718474982</v>
+        <v>0.8984937781298225</v>
       </c>
       <c r="FJ5">
-        <v>0.9023216676451365</v>
+        <v>0.9024991648035094</v>
       </c>
       <c r="FK5">
-        <v>0.9070029328088055</v>
+        <v>0.9071787174151247</v>
       </c>
       <c r="FL5">
-        <v>0.9199450921554277</v>
+        <v>0.9201350823712084</v>
       </c>
       <c r="FM5">
-        <v>0.9356228213639463</v>
+        <v>0.9358322884397255</v>
       </c>
       <c r="FN5">
-        <v>0.9387070750082395</v>
+        <v>0.9389117522031983</v>
       </c>
       <c r="FO5">
-        <v>0.9419802972429927</v>
+        <v>0.9421805486863014</v>
       </c>
       <c r="FP5">
-        <v>0.9489818038895255</v>
+        <v>0.9491848137227706</v>
       </c>
       <c r="FQ5">
-        <v>0.9525306503103639</v>
+        <v>0.9527297655003614</v>
       </c>
       <c r="FR5">
-        <v>0.9536634132531769</v>
+        <v>0.9538539781771593</v>
       </c>
       <c r="FS5">
-        <v>0.9538727301026096</v>
+        <v>0.9540529653449665</v>
       </c>
       <c r="FT5">
-        <v>0.9557856524060369</v>
+        <v>0.9559588406945424</v>
       </c>
       <c r="FU5">
-        <v>0.95711768363879</v>
+        <v>0.9572827056372464</v>
       </c>
       <c r="FV5">
-        <v>0.9576909955098467</v>
+        <v>0.9578463892194585</v>
       </c>
       <c r="FW5">
-        <v>0.9603445643758828</v>
+        <v>0.9604943383054272</v>
       </c>
       <c r="FX5">
-        <v>0.9624695052686063</v>
+        <v>0.9626126407891947</v>
       </c>
       <c r="FY5">
-        <v>0.9628781770979747</v>
+        <v>0.9630113670799492</v>
       </c>
       <c r="FZ5">
-        <v>0.9634400802996074</v>
+        <v>0.9635636200090345</v>
       </c>
       <c r="GA5">
-        <v>0.9661788977613397</v>
+        <v>0.9662969819587417</v>
       </c>
       <c r="GB5">
-        <v>0.9685281026427414</v>
+        <v>0.9686399805721051</v>
       </c>
       <c r="GC5">
-        <v>0.973258062403952</v>
+        <v>0.9733683216123233</v>
       </c>
       <c r="GD5">
-        <v>0.977506915189451</v>
+        <v>0.9776146286175582</v>
       </c>
       <c r="GE5">
-        <v>0.9780867976601759</v>
+        <v>0.9781848954605217</v>
       </c>
       <c r="GF5">
-        <v>0.9784304598928263</v>
+        <v>0.9785184868856419</v>
       </c>
       <c r="GG5">
-        <v>0.9797243764275037</v>
+        <v>0.9798041636859303</v>
       </c>
       <c r="GH5">
-        <v>0.9823321805958501</v>
+        <v>0.9824062598888588</v>
       </c>
       <c r="GI5">
-        <v>0.9829676248037701</v>
+        <v>0.9830321955325731</v>
       </c>
       <c r="GJ5">
-        <v>0.9858196093597892</v>
+        <v>0.9858789426415908</v>
       </c>
       <c r="GK5">
-        <v>0.9887984037094064</v>
+        <v>0.9888527438977514</v>
       </c>
       <c r="GL5">
-        <v>0.9903944208288323</v>
+        <v>0.9904411034093469</v>
       </c>
       <c r="GM5">
-        <v>0.9915126487723792</v>
+        <v>0.9915507530789582</v>
       </c>
       <c r="GN5">
-        <v>0.9919633144496276</v>
+        <v>0.9919915541367811</v>
       </c>
       <c r="GO5">
-        <v>0.9922828958834937</v>
+        <v>0.9923010183611131</v>
       </c>
       <c r="GP5">
-        <v>0.9933180844312328</v>
+        <v>0.993327468623847</v>
       </c>
       <c r="GQ5">
-        <v>0.9933188766372928</v>
+        <v>0.993327468623847</v>
       </c>
       <c r="GR5">
-        <v>0.994954426254723</v>
+        <v>0.9949554368097874</v>
       </c>
       <c r="GS5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001479870825048841</v>
+        <v>0.0001268889200124546</v>
       </c>
       <c r="C6">
-        <v>0.0002933571947886346</v>
+        <v>0.0002511509189417916</v>
       </c>
       <c r="D6">
-        <v>0.0003007673571147921</v>
+        <v>0.0002511509189417916</v>
       </c>
       <c r="E6">
-        <v>0.0003207787288057497</v>
+        <v>0.0002511509189417916</v>
       </c>
       <c r="F6">
-        <v>0.0003305311566298283</v>
+        <v>0.0002511509189417916</v>
       </c>
       <c r="G6">
-        <v>0.0003394906283869022</v>
+        <v>0.0002511509189417916</v>
       </c>
       <c r="H6">
-        <v>0.000377555327603363</v>
+        <v>0.000267699482829823</v>
       </c>
       <c r="I6">
-        <v>0.0004433989371671371</v>
+        <v>0.000312132584596081</v>
       </c>
       <c r="J6">
-        <v>0.000448999716040402</v>
+        <v>0.000312132584596081</v>
       </c>
       <c r="K6">
-        <v>0.0004503623872555475</v>
+        <v>0.000312132584596081</v>
       </c>
       <c r="L6">
-        <v>0.0004505140475183628</v>
+        <v>0.000312132584596081</v>
       </c>
       <c r="M6">
-        <v>0.0004720928693417697</v>
+        <v>0.000312132584596081</v>
       </c>
       <c r="N6">
-        <v>0.0004858224095019135</v>
+        <v>0.000312132584596081</v>
       </c>
       <c r="O6">
-        <v>0.0005148934919584152</v>
+        <v>0.0003196533340713132</v>
       </c>
       <c r="P6">
-        <v>0.0005476884587295844</v>
+        <v>0.0003309121276932815</v>
       </c>
       <c r="Q6">
-        <v>0.0005691760365452812</v>
+        <v>0.0003309121276932815</v>
       </c>
       <c r="R6">
-        <v>0.000663946869553401</v>
+        <v>0.0004043824468219473</v>
       </c>
       <c r="S6">
-        <v>0.0008685853368453178</v>
+        <v>0.0005881381648908196</v>
       </c>
       <c r="T6">
-        <v>0.0009857930467493498</v>
+        <v>0.0006841306757055855</v>
       </c>
       <c r="U6">
-        <v>0.001165289831916799</v>
+        <v>0.0008426491120108172</v>
       </c>
       <c r="V6">
-        <v>0.001218797596438196</v>
+        <v>0.0008746994624724561</v>
       </c>
       <c r="W6">
-        <v>0.001243288120507641</v>
+        <v>0.0008776222362801633</v>
       </c>
       <c r="X6">
-        <v>0.001252906053320355</v>
+        <v>0.0008776222362801633</v>
       </c>
       <c r="Y6">
-        <v>0.001265467759381817</v>
+        <v>0.0008776222362801633</v>
       </c>
       <c r="Z6">
-        <v>0.001269040771283736</v>
+        <v>0.0008776222362801633</v>
       </c>
       <c r="AA6">
-        <v>0.001269092028743067</v>
+        <v>0.0008776222362801633</v>
       </c>
       <c r="AB6">
-        <v>0.001298269225208535</v>
+        <v>0.0008852495032560981</v>
       </c>
       <c r="AC6">
-        <v>0.001375795521759495</v>
+        <v>0.0009414097146800297</v>
       </c>
       <c r="AD6">
-        <v>0.001420659945550531</v>
+        <v>0.0009647838586606798</v>
       </c>
       <c r="AE6">
-        <v>0.00146352096917228</v>
+        <v>0.0009861469846709605</v>
       </c>
       <c r="AF6">
-        <v>0.00162576778288211</v>
+        <v>0.001127349857604757</v>
       </c>
       <c r="AG6">
-        <v>0.001906919006639342</v>
+        <v>0.001387909267004559</v>
       </c>
       <c r="AH6">
-        <v>0.002112767854033536</v>
+        <v>0.001572879967568677</v>
       </c>
       <c r="AI6">
-        <v>0.002423270780270981</v>
+        <v>0.001862902687421155</v>
       </c>
       <c r="AJ6">
-        <v>0.002480461035103549</v>
+        <v>0.00189864953062798</v>
       </c>
       <c r="AK6">
-        <v>0.002505587620226741</v>
+        <v>0.001902210784070933</v>
       </c>
       <c r="AL6">
-        <v>0.002608281788904382</v>
+        <v>0.001983634566846528</v>
       </c>
       <c r="AM6">
-        <v>0.002661933489437942</v>
+        <v>0.002015829400627815</v>
       </c>
       <c r="AN6">
-        <v>0.002668057322955404</v>
+        <v>0.002015829400627815</v>
       </c>
       <c r="AO6">
-        <v>0.002707331319274051</v>
+        <v>0.002033591859892962</v>
       </c>
       <c r="AP6">
-        <v>0.002720434842381296</v>
+        <v>0.002033591859892962</v>
       </c>
       <c r="AQ6">
-        <v>0.002726666088507835</v>
+        <v>0.002033591859892962</v>
       </c>
       <c r="AR6">
-        <v>0.002765400284780868</v>
+        <v>0.002050812466557328</v>
       </c>
       <c r="AS6">
-        <v>0.002919519167803889</v>
+        <v>0.002183856502867433</v>
       </c>
       <c r="AT6">
-        <v>0.002937552099327668</v>
+        <v>0.002183856502867433</v>
       </c>
       <c r="AU6">
-        <v>0.002938541067011236</v>
+        <v>0.002183856502867433</v>
       </c>
       <c r="AV6">
-        <v>0.002953757205296997</v>
+        <v>0.002183856502867433</v>
       </c>
       <c r="AW6">
-        <v>0.003049371333376375</v>
+        <v>0.00225817332364296</v>
       </c>
       <c r="AX6">
-        <v>0.003183526634712476</v>
+        <v>0.002371177868022892</v>
       </c>
       <c r="AY6">
-        <v>0.003481998319933285</v>
+        <v>0.002649123598833827</v>
       </c>
       <c r="AZ6">
-        <v>0.003752417022783621</v>
+        <v>0.002898909677602028</v>
       </c>
       <c r="BA6">
-        <v>0.003881122673659227</v>
+        <v>0.003006443849573941</v>
       </c>
       <c r="BB6">
-        <v>0.003960773294389691</v>
+        <v>0.003064736462784279</v>
       </c>
       <c r="BC6">
-        <v>0.003995705647341469</v>
+        <v>0.003078140769861182</v>
       </c>
       <c r="BD6">
-        <v>0.003995848273903521</v>
+        <v>0.003078140769861182</v>
       </c>
       <c r="BE6">
-        <v>0.004023300946223268</v>
+        <v>0.003084036955298566</v>
       </c>
       <c r="BF6">
-        <v>0.004024203977599574</v>
+        <v>0.003084036955298566</v>
       </c>
       <c r="BG6">
-        <v>0.004076284602000378</v>
+        <v>0.003114654739030529</v>
       </c>
       <c r="BH6">
-        <v>0.004147112853985353</v>
+        <v>0.003164091437002167</v>
       </c>
       <c r="BI6">
-        <v>0.004175709372401755</v>
+        <v>0.003171135817937871</v>
       </c>
       <c r="BJ6">
-        <v>0.004178028596597729</v>
+        <v>0.003171135817937871</v>
       </c>
       <c r="BK6">
-        <v>0.004306957407492192</v>
+        <v>0.003278893998480348</v>
       </c>
       <c r="BL6">
-        <v>0.004622046274117149</v>
+        <v>0.003573520096465519</v>
       </c>
       <c r="BM6">
-        <v>0.004801227619257943</v>
+        <v>0.003731721893303558</v>
       </c>
       <c r="BN6">
-        <v>0.004880668175970658</v>
+        <v>0.003789803643741146</v>
       </c>
       <c r="BO6">
-        <v>0.004944581651371336</v>
+        <v>0.003832299272132531</v>
       </c>
       <c r="BP6">
-        <v>0.005034967969008966</v>
+        <v>0.003901368404051276</v>
       </c>
       <c r="BQ6">
-        <v>0.005067258781737534</v>
+        <v>0.003912121126617123</v>
       </c>
       <c r="BR6">
-        <v>0.005072114466547839</v>
+        <v>0.003912121126617123</v>
       </c>
       <c r="BS6">
-        <v>0.005072171195132632</v>
+        <v>0.003912121126617123</v>
       </c>
       <c r="BT6">
-        <v>0.005088757924534208</v>
+        <v>0.003912121126617123</v>
       </c>
       <c r="BU6">
-        <v>0.005155288900156064</v>
+        <v>0.003957244208106962</v>
       </c>
       <c r="BV6">
-        <v>0.005155350408826261</v>
+        <v>0.003957244208106962</v>
       </c>
       <c r="BW6">
-        <v>0.005155411917496459</v>
+        <v>0.003957244208106962</v>
       </c>
       <c r="BX6">
-        <v>0.005156488708087447</v>
+        <v>0.003957244208106962</v>
       </c>
       <c r="BY6">
-        <v>0.005214185008962775</v>
+        <v>0.003993499021564277</v>
       </c>
       <c r="BZ6">
-        <v>0.005246609791702664</v>
+        <v>0.004004386223553849</v>
       </c>
       <c r="CA6">
-        <v>0.005252210570575929</v>
+        <v>0.004004386223553849</v>
       </c>
       <c r="CB6">
-        <v>0.005262441079440405</v>
+        <v>0.004004386223553849</v>
       </c>
       <c r="CC6">
-        <v>0.005268672325566944</v>
+        <v>0.004004386223553849</v>
       </c>
       <c r="CD6">
-        <v>0.005317241616671042</v>
+        <v>0.004031479322368696</v>
       </c>
       <c r="CE6">
-        <v>0.005446438017588116</v>
+        <v>0.004139506110427741</v>
       </c>
       <c r="CF6">
-        <v>0.005592875659962073</v>
+        <v>0.004264839698662213</v>
       </c>
       <c r="CG6">
-        <v>0.005807525198099923</v>
+        <v>0.004458644554033984</v>
       </c>
       <c r="CH6">
-        <v>0.005965422541442222</v>
+        <v>0.004595481418017205</v>
       </c>
       <c r="CI6">
-        <v>0.006005787344853041</v>
+        <v>0.004614338832098767</v>
       </c>
       <c r="CJ6">
-        <v>0.006125819114995706</v>
+        <v>0.004713166141460703</v>
       </c>
       <c r="CK6">
-        <v>0.006242326064840524</v>
+        <v>0.004808455227620924</v>
       </c>
       <c r="CL6">
-        <v>0.006285625325499304</v>
+        <v>0.004830258257036556</v>
       </c>
       <c r="CM6">
-        <v>0.01051027718248169</v>
+        <v>0.009049313208743056</v>
       </c>
       <c r="CN6">
-        <v>0.1083888254532029</v>
+        <v>0.1072783775287609</v>
       </c>
       <c r="CO6">
-        <v>0.1674467604435887</v>
+        <v>0.1665392156679346</v>
       </c>
       <c r="CP6">
-        <v>0.2631010485263603</v>
+        <v>0.2625355621928172</v>
       </c>
       <c r="CQ6">
-        <v>0.2682492385613815</v>
+        <v>0.2676816670174501</v>
       </c>
       <c r="CR6">
-        <v>0.2722810456020685</v>
+        <v>0.2717071438727743</v>
       </c>
       <c r="CS6">
-        <v>0.2725017523507182</v>
+        <v>0.2719070289708137</v>
       </c>
       <c r="CT6">
-        <v>0.3279812840387294</v>
+        <v>0.3275758571577941</v>
       </c>
       <c r="CU6">
-        <v>0.3526082751197062</v>
+        <v>0.3522748299242366</v>
       </c>
       <c r="CV6">
-        <v>0.3758810610862527</v>
+        <v>0.3756144482978649</v>
       </c>
       <c r="CW6">
-        <v>0.37728493680488</v>
+        <v>0.3770020012902597</v>
       </c>
       <c r="CX6">
-        <v>0.3786439112197131</v>
+        <v>0.3783444822445229</v>
       </c>
       <c r="CY6">
-        <v>0.3815086554617835</v>
+        <v>0.3811984586195397</v>
       </c>
       <c r="CZ6">
-        <v>0.3819751288712004</v>
+        <v>0.381645044890364</v>
       </c>
       <c r="DA6">
-        <v>0.3839059395343536</v>
+        <v>0.3835615364637286</v>
       </c>
       <c r="DB6">
-        <v>0.3864965354532586</v>
+        <v>0.3861403220841052</v>
       </c>
       <c r="DC6">
-        <v>0.3866883702094686</v>
+        <v>0.3863112254057992</v>
       </c>
       <c r="DD6">
-        <v>0.3936093607942911</v>
+        <v>0.3932368717410032</v>
       </c>
       <c r="DE6">
-        <v>0.3965487075426654</v>
+        <v>0.3961657342935854</v>
       </c>
       <c r="DF6">
-        <v>0.3966969812951945</v>
+        <v>0.3962929109736665</v>
       </c>
       <c r="DG6">
-        <v>0.4093371573632874</v>
+        <v>0.4089594896293594</v>
       </c>
       <c r="DH6">
-        <v>0.4235438765637528</v>
+        <v>0.4231985680975492</v>
       </c>
       <c r="DI6">
-        <v>0.4246290116554465</v>
+        <v>0.4242661684721511</v>
       </c>
       <c r="DJ6">
-        <v>0.4308596961819384</v>
+        <v>0.4304988839043633</v>
       </c>
       <c r="DK6">
-        <v>0.4312354024136855</v>
+        <v>0.4308543578611267</v>
       </c>
       <c r="DL6">
-        <v>0.4338459321342748</v>
+        <v>0.4334531530801944</v>
       </c>
       <c r="DM6">
-        <v>0.4353570322619625</v>
+        <v>0.4349483381956111</v>
       </c>
       <c r="DN6">
-        <v>0.4355944145220213</v>
+        <v>0.4351649622126258</v>
       </c>
       <c r="DO6">
-        <v>0.4383176431521337</v>
+        <v>0.437876884871616</v>
       </c>
       <c r="DP6">
-        <v>0.4396717706665572</v>
+        <v>0.4392145004954406</v>
       </c>
       <c r="DQ6">
-        <v>0.440597391644772</v>
+        <v>0.4401219802143436</v>
       </c>
       <c r="DR6">
-        <v>0.4408621231971418</v>
+        <v>0.440366057517605</v>
       </c>
       <c r="DS6">
-        <v>0.4489423528799198</v>
+        <v>0.4484553508833337</v>
       </c>
       <c r="DT6">
-        <v>0.4609230618922878</v>
+        <v>0.4604599549019767</v>
       </c>
       <c r="DU6">
-        <v>0.463019648669449</v>
+        <v>0.4625428529424261</v>
       </c>
       <c r="DV6">
-        <v>0.4650669689424472</v>
+        <v>0.4645762971459797</v>
       </c>
       <c r="DW6">
-        <v>0.495095486479852</v>
+        <v>0.4946973353279247</v>
       </c>
       <c r="DX6">
-        <v>0.495129404599718</v>
+        <v>0.4947097215453594</v>
       </c>
       <c r="DY6">
-        <v>0.4953779004607159</v>
+        <v>0.4949375014220703</v>
       </c>
       <c r="DZ6">
-        <v>0.4954589067375609</v>
+        <v>0.4949971548461909</v>
       </c>
       <c r="EA6">
-        <v>0.5338489839815161</v>
+        <v>0.5335115470309832</v>
       </c>
       <c r="EB6">
-        <v>0.6090401003351531</v>
+        <v>0.6089669119242773</v>
       </c>
       <c r="EC6">
-        <v>0.6182241321112023</v>
+        <v>0.6181642045201796</v>
       </c>
       <c r="ED6">
-        <v>0.6182333462599809</v>
+        <v>0.6181642045201796</v>
       </c>
       <c r="EE6">
-        <v>0.6182625234564464</v>
+        <v>0.6181718317871555</v>
       </c>
       <c r="EF6">
-        <v>0.6183259352078047</v>
+        <v>0.6182138237837309</v>
       </c>
       <c r="EG6">
-        <v>0.6183320590413222</v>
+        <v>0.6182138237837309</v>
       </c>
       <c r="EH6">
-        <v>0.6186830553109813</v>
+        <v>0.618544493820355</v>
       </c>
       <c r="EI6">
-        <v>0.6237646553403757</v>
+        <v>0.6236237554351213</v>
       </c>
       <c r="EJ6">
-        <v>0.6448247461199499</v>
+        <v>0.6447422649897685</v>
       </c>
       <c r="EK6">
-        <v>0.6920127041073245</v>
+        <v>0.6920879912971293</v>
       </c>
       <c r="EL6">
-        <v>0.7341785826703343</v>
+        <v>0.7343925420441353</v>
       </c>
       <c r="EM6">
-        <v>0.7519017361679379</v>
+        <v>0.7521614258261007</v>
       </c>
       <c r="EN6">
-        <v>0.7530234770627248</v>
+        <v>0.7532657711950221</v>
       </c>
       <c r="EO6">
-        <v>0.7530247407050316</v>
+        <v>0.7532657711950221</v>
       </c>
       <c r="EP6">
-        <v>0.7557694361369579</v>
+        <v>0.755999242281968</v>
       </c>
       <c r="EQ6">
-        <v>0.7682521961917491</v>
+        <v>0.768507806360031</v>
       </c>
       <c r="ER6">
-        <v>0.7778043039989007</v>
+        <v>0.7780745745726158</v>
       </c>
       <c r="ES6">
-        <v>0.786938704770756</v>
+        <v>0.7872220474456032</v>
       </c>
       <c r="ET6">
-        <v>0.8043470922417619</v>
+        <v>0.8046749683232752</v>
       </c>
       <c r="EU6">
-        <v>0.8250857109941718</v>
+        <v>0.8254707834739239</v>
       </c>
       <c r="EV6">
-        <v>0.8425568764704824</v>
+        <v>0.8429867210662529</v>
       </c>
       <c r="EW6">
-        <v>0.8483702404617107</v>
+        <v>0.8488005291285422</v>
       </c>
       <c r="EX6">
-        <v>0.8487872308669463</v>
+        <v>0.8491974442392248</v>
       </c>
       <c r="EY6">
-        <v>0.8491553985480564</v>
+        <v>0.8495453509804943</v>
       </c>
       <c r="EZ6">
-        <v>0.8520421594919872</v>
+        <v>0.8524214277744731</v>
       </c>
       <c r="FA6">
-        <v>0.8564829894672367</v>
+        <v>0.8568574828479227</v>
       </c>
       <c r="FB6">
-        <v>0.8572860780750975</v>
+        <v>0.857641964274966</v>
       </c>
       <c r="FC6">
-        <v>0.85930126074538</v>
+        <v>0.8596431486746239</v>
       </c>
       <c r="FD6">
-        <v>0.8713222117611484</v>
+        <v>0.8716881477143129</v>
       </c>
       <c r="FE6">
-        <v>0.890357545369631</v>
+        <v>0.8907742010881519</v>
       </c>
       <c r="FF6">
-        <v>0.9046362395761782</v>
+        <v>0.9050855282427834</v>
       </c>
       <c r="FG6">
-        <v>0.9188272787753187</v>
+        <v>0.9193088670874455</v>
       </c>
       <c r="FH6">
-        <v>0.9222449446641109</v>
+        <v>0.9227178675584019</v>
       </c>
       <c r="FI6">
-        <v>0.9234492732658764</v>
+        <v>0.9239051146687786</v>
       </c>
       <c r="FJ6">
-        <v>0.9251669804110224</v>
+        <v>0.9256076924116307</v>
       </c>
       <c r="FK6">
-        <v>0.9282774453738561</v>
+        <v>0.9287083238447446</v>
       </c>
       <c r="FL6">
-        <v>0.9423121275597844</v>
+        <v>0.9427747111386464</v>
       </c>
       <c r="FM6">
-        <v>0.9492673161474967</v>
+        <v>0.9497346855124602</v>
       </c>
       <c r="FN6">
-        <v>0.9499081463416468</v>
+        <v>0.9503562915485464</v>
       </c>
       <c r="FO6">
-        <v>0.9537421222656171</v>
+        <v>0.9541831850469783</v>
       </c>
       <c r="FP6">
-        <v>0.9590512435142369</v>
+        <v>0.9594908330158626</v>
       </c>
       <c r="FQ6">
-        <v>0.9608670327676707</v>
+        <v>0.9612918658179498</v>
       </c>
       <c r="FR6">
-        <v>0.9615518049755338</v>
+        <v>0.9619575809544473</v>
       </c>
       <c r="FS6">
-        <v>0.961552198264167</v>
+        <v>0.9619575809544473</v>
       </c>
       <c r="FT6">
-        <v>0.9639454366663953</v>
+        <v>0.9643382586188055</v>
       </c>
       <c r="FU6">
-        <v>0.9652554016770871</v>
+        <v>0.9656315438138009</v>
       </c>
       <c r="FV6">
-        <v>0.965801507423233</v>
+        <v>0.9661580652182242</v>
       </c>
       <c r="FW6">
-        <v>0.9680275793113358</v>
+        <v>0.9683709407284725</v>
       </c>
       <c r="FX6">
-        <v>0.9686221829615796</v>
+        <v>0.9689461444471742</v>
       </c>
       <c r="FY6">
-        <v>0.9686322010194262</v>
+        <v>0.9689461444471742</v>
       </c>
       <c r="FZ6">
-        <v>0.9689974721502915</v>
+        <v>0.9692911436242518</v>
       </c>
       <c r="GA6">
-        <v>0.9696464842451329</v>
+        <v>0.9699209626721838</v>
       </c>
       <c r="GB6">
-        <v>0.9712800880831721</v>
+        <v>0.9715391173104799</v>
       </c>
       <c r="GC6">
-        <v>0.9749119703900656</v>
+        <v>0.9751631487437743</v>
       </c>
       <c r="GD6">
-        <v>0.9757541005612255</v>
+        <v>0.9759868201871653</v>
       </c>
       <c r="GE6">
-        <v>0.9758154642864106</v>
+        <v>0.9760267563700791</v>
       </c>
       <c r="GF6">
-        <v>0.9767326174639099</v>
+        <v>0.9769257360899956</v>
       </c>
       <c r="GG6">
-        <v>0.9801795136551721</v>
+        <v>0.9803640780097787</v>
       </c>
       <c r="GH6">
-        <v>0.9833335146216846</v>
+        <v>0.9835084109894424</v>
       </c>
       <c r="GI6">
-        <v>0.9839510393738653</v>
+        <v>0.9841066229661058</v>
       </c>
       <c r="GJ6">
-        <v>0.9859018407387077</v>
+        <v>0.9860431812545249</v>
       </c>
       <c r="GK6">
-        <v>0.9871076695406</v>
+        <v>0.9872319342694436</v>
       </c>
       <c r="GL6">
-        <v>0.987663457487564</v>
+        <v>0.9877681746906348</v>
       </c>
       <c r="GM6">
-        <v>0.9880699251419105</v>
+        <v>0.9881545270383407</v>
       </c>
       <c r="GN6">
-        <v>0.988147658958479</v>
+        <v>0.9882108955588638</v>
       </c>
       <c r="GO6">
-        <v>0.9882310158255226</v>
+        <v>0.988272908511152</v>
       </c>
       <c r="GP6">
-        <v>0.9884912279875105</v>
+        <v>0.9885124492393386</v>
       </c>
       <c r="GQ6">
-        <v>0.9891765149854171</v>
+        <v>0.9891786811233358</v>
       </c>
       <c r="GR6">
-        <v>0.9935785507573884</v>
+        <v>0.9935757944810293</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>131</v>
       </c>
       <c r="E2">
-        <v>0.01212149238248066</v>
+        <v>0.01177774364702654</v>
       </c>
       <c r="F2">
-        <v>0.5758899755910358</v>
+        <v>0.575831285592826</v>
       </c>
       <c r="G2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>131</v>
       </c>
       <c r="E3">
-        <v>0.005576817679985527</v>
+        <v>0.05665141555609031</v>
       </c>
       <c r="F3">
-        <v>0.5735394097093385</v>
+        <v>0.5734717280817461</v>
       </c>
       <c r="G3">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>14</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>131</v>
       </c>
       <c r="E4">
-        <v>0.006438500963779023</v>
+        <v>0.006158274715383874</v>
       </c>
       <c r="F4">
-        <v>0.584728176432381</v>
+        <v>0.5846633247243654</v>
       </c>
       <c r="G4">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>131</v>
       </c>
       <c r="E5">
-        <v>0.00557937409517568</v>
+        <v>0.005178794876005815</v>
       </c>
       <c r="F5">
-        <v>0.5881900269188987</v>
+        <v>0.588127137216359</v>
       </c>
       <c r="G5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>130</v>
       </c>
       <c r="E6">
-        <v>0.006125819114995706</v>
+        <v>0.004830258257036556</v>
       </c>
       <c r="F6">
-        <v>0.5338489839815161</v>
+        <v>0.5335115470309832</v>
       </c>
       <c r="G6">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>14</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>142</v>
       </c>
       <c r="E2">
-        <v>0.01212149238248066</v>
+        <v>0.01177774364702654</v>
       </c>
       <c r="F2">
-        <v>0.7196589670991147</v>
+        <v>0.7196749431831913</v>
       </c>
       <c r="G2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>141</v>
       </c>
       <c r="E3">
-        <v>0.005576817679985527</v>
+        <v>0.05665141555609031</v>
       </c>
       <c r="F3">
-        <v>0.7216856681685287</v>
+        <v>0.7217169813591318</v>
       </c>
       <c r="G3">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <v>14</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>141</v>
       </c>
       <c r="E4">
-        <v>0.006438500963779023</v>
+        <v>0.006158274715383874</v>
       </c>
       <c r="F4">
-        <v>0.7077298002688246</v>
+        <v>0.7077497209164244</v>
       </c>
       <c r="G4">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>141</v>
       </c>
       <c r="E5">
-        <v>0.00557937409517568</v>
+        <v>0.005178794876005815</v>
       </c>
       <c r="F5">
-        <v>0.7248977883722828</v>
+        <v>0.7249909946971166</v>
       </c>
       <c r="G5">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>141</v>
       </c>
       <c r="E6">
-        <v>0.006125819114995706</v>
+        <v>0.004830258257036556</v>
       </c>
       <c r="F6">
-        <v>0.7341785826703343</v>
+        <v>0.7343925420441353</v>
       </c>
       <c r="G6">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H6">
         <v>14</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>151</v>
       </c>
       <c r="E2">
-        <v>0.01212149238248066</v>
+        <v>0.01177774364702654</v>
       </c>
       <c r="F2">
-        <v>0.8162422444014047</v>
+        <v>0.8163003191749437</v>
       </c>
       <c r="G2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>150</v>
       </c>
       <c r="E3">
-        <v>0.005576817679985527</v>
+        <v>0.05665141555609031</v>
       </c>
       <c r="F3">
-        <v>0.8162587581807534</v>
+        <v>0.8163385151952303</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3">
         <v>14</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>150</v>
       </c>
       <c r="E4">
-        <v>0.006438500963779023</v>
+        <v>0.006158274715383874</v>
       </c>
       <c r="F4">
-        <v>0.8014397721679373</v>
+        <v>0.8015154039827873</v>
       </c>
       <c r="G4">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>150</v>
       </c>
       <c r="E5">
-        <v>0.00557937409517568</v>
+        <v>0.005178794876005815</v>
       </c>
       <c r="F5">
-        <v>0.8041820065296631</v>
+        <v>0.8043313907770723</v>
       </c>
       <c r="G5">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>149</v>
       </c>
       <c r="E6">
-        <v>0.006125819114995706</v>
+        <v>0.004830258257036556</v>
       </c>
       <c r="F6">
-        <v>0.8043470922417619</v>
+        <v>0.8046749683232752</v>
       </c>
       <c r="G6">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H6">
         <v>14</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>162</v>
       </c>
       <c r="E2">
-        <v>0.01212149238248066</v>
+        <v>0.01177774364702654</v>
       </c>
       <c r="F2">
-        <v>0.9083630663041</v>
+        <v>0.908450059793475</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>163</v>
       </c>
       <c r="E3">
-        <v>0.005576817679985527</v>
+        <v>0.05665141555609031</v>
       </c>
       <c r="F3">
-        <v>0.9054708796869831</v>
+        <v>0.905576471105915</v>
       </c>
       <c r="G3">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H3">
         <v>14</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>162</v>
       </c>
       <c r="E4">
-        <v>0.006438500963779023</v>
+        <v>0.006158274715383874</v>
       </c>
       <c r="F4">
-        <v>0.9034307825902894</v>
+        <v>0.9035528869002375</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>165</v>
       </c>
       <c r="E5">
-        <v>0.00557937409517568</v>
+        <v>0.005178794876005815</v>
       </c>
       <c r="F5">
-        <v>0.9023216676451365</v>
+        <v>0.9024991648035094</v>
       </c>
       <c r="G5">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>161</v>
       </c>
       <c r="E6">
-        <v>0.006125819114995706</v>
+        <v>0.004830258257036556</v>
       </c>
       <c r="F6">
-        <v>0.9046362395761782</v>
+        <v>0.9050855282427834</v>
       </c>
       <c r="G6">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H6">
         <v>14</v>

--- a/on_trucks/Processed_Stand_Alone/14_245-70R19.xlsx
+++ b/on_trucks/Processed_Stand_Alone/14_245-70R19.xlsx
@@ -1994,13 +1994,13 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>1.501603814898358E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.675501722217567E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2009,250 +2009,250 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.867560495703332E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3.232332188781483E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4.82011776510491E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5.645293983591441E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0001070860410079198</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0001329628357848901</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0001266094700472907</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0001768420061180792</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0002199793851493583</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0002132629101775027</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.000230740132961199</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>8.512674459750981E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>5.645293983591441E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>3.37031069532451E-05</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>1.224375454108888E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>1.087091119625285E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>8.430760955749085E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0001123623891874032</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0001633367966260831</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0001633367966260831</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0002951629530862631</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.000332571100722069</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0003087189043940217</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0002610064350820454</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.000280271230984743</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0002245023925091033</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0001705165733997684</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>8.644708267334127E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.826147567772906E-05</v>
+        <v>0</v>
       </c>
       <c r="AK2">
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>5.713023638842323E-06</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>1.656153177298242E-05</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>3.232332188781483E-05</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>7.248405189594768E-05</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0001348601193150135</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0002357147624977255</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0002427667239402267</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0003171642541122066</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0003455437213135127</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0003503903153374062</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0003341666455927401</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0003189028068340474</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0001932722160702188</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0001284624770896561</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>4.385221371854463E-05</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>3.232332188781483E-05</v>
+        <v>0</v>
       </c>
       <c r="BB2">
         <v>0</v>
       </c>
       <c r="BC2">
-        <v>1.516984730138469E-06</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>2.486989099883578E-06</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>2.013799709803006E-05</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>5.37935802874733E-05</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0001361233203048118</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0003337570380397399</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.000396356255354137</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0003566856232301855</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0003481507397282113</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0003421168772897049</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.0002424168155846671</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0001884519937789751</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0001522430644055179</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0001237849824186468</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>4.968709417822922E-05</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>2.969863090935423E-05</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>5.440441006545711E-06</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>3.352633767966509E-06</v>
+        <v>0</v>
       </c>
       <c r="BU2">
         <v>0</v>
       </c>
       <c r="BV2">
-        <v>6.545955048294935E-06</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>1.867560495703332E-05</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>8.030995113192294E-05</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0002427667239402267</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.000262949986741216</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0001941806547043302</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0001481070859919959</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.0001627897658241214</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0001615404262573667</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.00018430245418984</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0002499208395668479</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.0001421886086410488</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.0001020349824871227</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.0001247694837351635</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>1.185247709372357E-05</v>
+        <v>0</v>
       </c>
       <c r="CK2">
         <v>0</v>
@@ -2261,337 +2261,337 @@
         <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0001334586844081912</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.07661401701658226</v>
+        <v>0.21911790508344</v>
       </c>
       <c r="CO2">
-        <v>0.0001334586844081912</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.121079985923909</v>
+        <v>0.4282303160268252</v>
       </c>
       <c r="CQ2">
-        <v>0.02273384697145878</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.0003558826415019299</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.01138701717601467</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.0386922841409281</v>
+        <v>0.04078141127384603</v>
       </c>
       <c r="CU2">
-        <v>0.03327078934774478</v>
+        <v>0.01528546740984602</v>
       </c>
       <c r="CV2">
-        <v>0.01266944200796617</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.02164382469630103</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>2.982858400224368E-05</v>
+        <v>0</v>
       </c>
       <c r="CY2">
         <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.0005618081424025658</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.00606983634680161</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>9.580525964224745E-05</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.00476565628661</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.004906440605391491</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.004645348041932014</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.0001461212394781088</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.007273944038474306</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.02569635033732715</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.00288230153503717</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.002611996779913642</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.000979305397217755</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.001247179249061095</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.0002402364387605284</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.002404925434735561</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.003816561248010677</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>6.685525066384816E-06</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.002167105550030185</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>2.802631877564086E-05</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.003723968943728984</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.0264958341830168</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.0007337017980403946</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.0008190711799926329</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.02553261840767636</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.0092245140814165</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.002990828370787912</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.0008119638929569295</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.007766691506147734</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.07666487993214174</v>
+        <v>0.219357100746137</v>
       </c>
       <c r="EC2">
-        <v>0.02226896887061866</v>
+        <v>0</v>
       </c>
       <c r="ED2">
         <v>0</v>
       </c>
       <c r="EE2">
-        <v>1.070677193092129E-05</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>4.657704622251563E-05</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.0002994737855950881</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.004039195918751173</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.0007763932796125679</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.01877278570520027</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.03509698829786129</v>
+        <v>0.02387362763001432</v>
       </c>
       <c r="EL2">
-        <v>0.04136577433427553</v>
+        <v>0.05335417182989147</v>
       </c>
       <c r="EM2">
-        <v>0.02116679358029712</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.001790894919059638</v>
+        <v>0</v>
       </c>
       <c r="EO2">
         <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.0004598714375049046</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.007650460921824011</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.01273380905212688</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.01177965174176606</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.01722133216970507</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.02385219158674006</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.02113716416302595</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.009934428113625299</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.001039617900076361</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.0008073592983620571</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.002367049721784412</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.006668330258936437</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.003417169914082255</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.0003542366450546793</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.007566840010767069</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.02107296125412727</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.01869766479890212</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.02022408270281352</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.008522085217651245</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>2.621768930433519E-05</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.001848365579988115</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.00176458213498877</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.009020032570491842</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.01364579561004258</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.001397612919765514</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.002322758221654853</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.008091564430288637</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.003505894731211069</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.002724952065100003</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.001182936006924241</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.001176615898593699</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.001287825244971427</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.0004476507165455326</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.002102908045585251</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.001470211947812021</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>2.876435998714332E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>3.848184906113396E-05</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.0004897617297602289</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.000496962543870548</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.003163384472340005</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.00326409406598902</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.0001809090677380429</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.0003443372570798402</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.001681411595077649</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.003691891509074085</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.000487389674976429</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.00176458213498877</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.002211994142216626</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.0004399228681121264</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.0005387689060257157</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>1.814887628583037E-07</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.0002269501396701443</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>2.211937432883099E-06</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.0002775551927280127</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.003676815685256402</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.008005560555457918</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,16 +2767,16 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>3.174146327111925E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2.019596360006354E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.636994816892863E-06</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2785,46 +2785,46 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6.100471952793301E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0001221037293474882</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0001420364936834002</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>8.205820208410774E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0001989977742423596</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0002742550342137221</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0001852949272342173</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0001233876345451223</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>7.703868794304378E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.539309294484334E-06</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>2.981062325460143E-05</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2.294064080559863E-06</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -2833,34 +2833,34 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>3.285813925617419E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>2.538651294138868E-05</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>2.475856401476605E-05</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0002440713395776594</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0003365769613315066</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0001309927427140612</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>6.458900292167255E-05</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>6.289014896601373E-05</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>5.158055946726189E-05</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>7.020459860065102E-05</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -2875,43 +2875,43 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>2.549769743372496E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>7.417894668040083E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0001059970797814962</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0001084044060312556</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0001291131233634361</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>5.789669713144646E-05</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>8.205820208410774E-05</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0001215919531395615</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>7.25674082085856E-05</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.000113543370324911</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>7.560253222659306E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
         <v>0</v>
       </c>
       <c r="AX3">
-        <v>1.72261665276491E-06</v>
+        <v>0</v>
       </c>
       <c r="AY3">
         <v>0</v>
@@ -2923,52 +2923,52 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>1.56890405206804E-05</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>9.10021329899321E-05</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>5.278685034534126E-05</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>4.175711506078275E-05</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>5.791836983878863E-05</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>2.294064080559863E-06</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>1.227901170026498E-05</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>2.159672523274994E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>2.450918272824953E-05</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>3.413405207988594E-05</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0001581863244920671</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>7.555422611439213E-06</v>
+        <v>0</v>
       </c>
       <c r="BN3">
         <v>0</v>
       </c>
       <c r="BO3">
-        <v>1.142604501374449E-05</v>
+        <v>0</v>
       </c>
       <c r="BP3">
         <v>0</v>
       </c>
       <c r="BQ3">
-        <v>1.049177914689664E-05</v>
+        <v>0</v>
       </c>
       <c r="BR3">
         <v>0</v>
@@ -2977,40 +2977,40 @@
         <v>0</v>
       </c>
       <c r="BT3">
-        <v>2.241650614924269E-05</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>1.65217389713784E-05</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>7.960197710123535E-06</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>7.807222982525134E-05</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.0001101048126136621</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>5.84397821428297E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0001973800292677489</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.0001696582540808735</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>7.458439548495308E-05</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>7.018091278409566E-05</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>6.286763537764766E-05</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>2.286406056949348E-06</v>
+        <v>0</v>
       </c>
       <c r="CF3">
         <v>0</v>
@@ -3022,349 +3022,349 @@
         <v>0</v>
       </c>
       <c r="CI3">
-        <v>5.541412604473182E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>3.118928272999416E-05</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>9.10021329899321E-05</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.00018439416346883</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>9.21192794679409E-05</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.05141271933109419</v>
+        <v>0.07771715916759157</v>
       </c>
       <c r="CO3">
-        <v>0.00405040097984441</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.1375384416150219</v>
+        <v>0.3906867206356441</v>
       </c>
       <c r="CQ3">
-        <v>0.04940350219580707</v>
+        <v>0.07041592802491521</v>
       </c>
       <c r="CR3">
         <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.01474304808394716</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.01548953821081636</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.04230324998417796</v>
+        <v>0.04461454416353634</v>
       </c>
       <c r="CV3">
-        <v>0.01470421539742441</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.01329657856131879</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.0002881173683227306</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>7.21910839189254E-05</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.0002264448716385829</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.002684840729021005</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.0004474217977970689</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.005089610800572603</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.001975009010598476</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.00342308601745087</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.0004189973664098415</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.002196727513736135</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.0171396000450634</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.002253455750125614</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.005793413201844005</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.00612240089510286</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.000744801534164655</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.0007287469531529215</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.005441675172168894</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.002348140154675315</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.0007152978119622757</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.003188229248839199</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.0001246779664762963</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.001321885207274015</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.02155859900290945</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.0004818175355552634</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.004782368891221096</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.01404388254089326</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.009487305437048855</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.005690532910143145</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.0001604800176840325</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.008980053969869799</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.0973615266916571</v>
+        <v>0.244689089367578</v>
       </c>
       <c r="EC3">
-        <v>0.03892905170482019</v>
+        <v>0.03235315084464484</v>
       </c>
       <c r="ED3">
-        <v>0.0008185448979678583</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>7.400087010261333E-05</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>2.424596094049917E-05</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>4.317169717372624E-05</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.001721455552735049</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.00115414676115094</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.01433006438479144</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.03743612050247486</v>
+        <v>0.02692803496393675</v>
       </c>
       <c r="EL3">
-        <v>0.05371445094522853</v>
+        <v>0.08608134950225085</v>
       </c>
       <c r="EM3">
-        <v>0.03732218913212716</v>
+        <v>0.0265140233299022</v>
       </c>
       <c r="EN3">
-        <v>0.00802284206155787</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.0006539147485286519</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>8.205820208410774E-05</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.004008825419505601</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.009261497849617835</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.00707605237301276</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.01050721153250995</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.01768694251715455</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.02067631359802233</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.01222423602615127</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.002169161932199448</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.0001555515439295383</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.0006738518073640789</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.004485834800869878</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.001997138296315651</v>
+        <v>0</v>
       </c>
       <c r="FC3">
         <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.003804549992159902</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.01447969215565251</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.01112692733296464</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.01178682223062917</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.005657876194426282</v>
+        <v>0</v>
       </c>
       <c r="FI3">
         <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.003571967206088577</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.002256688337033204</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.00877925258241141</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.01472378990640219</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.00196795511996168</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.0007183435230727935</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.006220577758838491</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.001605734006750404</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.0006692046984064744</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0001935620289997095</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.003707256654128668</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.003862120210727002</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.001504469207664269</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.002904111767854697</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.003066458865251086</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.000541586557894977</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.0002415280048264796</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.001307885138855389</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.0006709012459456105</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.003637163815122911</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.00371692958884026</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.0001957686809952129</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.000387834916293425</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.001829520977101972</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.005652966049876011</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.001447871608148147</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.002702502233669411</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.004004518907404629</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.00195288232760828</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.002097888556299067</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.0009686015181511163</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.0002289096140454931</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.001235099378370593</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.0001590576874530831</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.0009962978767079956</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.004696322336884519</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,40 +3540,40 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001384009306972302</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>5.251116576255768E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>7.567320926961266E-06</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001133061644759987</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0002241833627524716</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>6.672902325062162E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>6.967735090967723E-05</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0001268655721990696</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.27596931153397E-06</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1.876704929187526E-06</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -3582,94 +3582,94 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>3.544935691722724E-05</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2.327489406321667E-07</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>2.455677922364721E-05</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>2.969296732933615E-05</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>3.405645742257729E-05</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0002134138309520424</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0002257270406983852</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0001126745802199352</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0002151039260718039</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0002222730511571368</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>1.410357119457113E-05</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>2.455677922364721E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>8.824928009413887E-05</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>1.578617324725742E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.586906254844514E-06</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>1.562988613016697E-05</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0001074052600161628</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.000171906874964797</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>8.572907448928217E-05</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>9.217241132588645E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0001175761914731054</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>3.723487650650643E-05</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0001792740697267049</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0001682792152719098</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>4.755427461729462E-05</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>3.066358483662973E-06</v>
+        <v>0</v>
       </c>
       <c r="AT4">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>6.269919691118617E-05</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>2.243851198911039E-06</v>
+        <v>0</v>
       </c>
       <c r="AX4">
         <v>0</v>
@@ -3690,40 +3690,40 @@
         <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0001539856491717366</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>7.399670259270856E-05</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>5.873768623793758E-06</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0001136699446725653</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>7.792043555258445E-05</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0001666170038932018</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.0003287699890472753</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.0003616147332217818</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.0001516884193814243</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>7.687881512736299E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>9.318266379393712E-05</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>4.217850960871633E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
         <v>0</v>
@@ -3732,37 +3732,37 @@
         <v>0</v>
       </c>
       <c r="BN4">
-        <v>2.708092359465488E-05</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>2.250719910477411E-05</v>
+        <v>0</v>
       </c>
       <c r="BP4">
         <v>0</v>
       </c>
       <c r="BQ4">
-        <v>9.536091561353664E-05</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.0001305687132290492</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>8.205316641286292E-05</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.000151842996429225</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.0001492771616101933</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>6.498797647620258E-05</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>4.95789966563517E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>9.697420178971968E-05</v>
+        <v>0</v>
       </c>
       <c r="BY4">
         <v>0</v>
@@ -3771,13 +3771,13 @@
         <v>0</v>
       </c>
       <c r="CA4">
-        <v>2.327489406321667E-07</v>
+        <v>0</v>
       </c>
       <c r="CB4">
         <v>0</v>
       </c>
       <c r="CC4">
-        <v>1.764655342248167E-05</v>
+        <v>0</v>
       </c>
       <c r="CD4">
         <v>0</v>
@@ -3786,358 +3786,358 @@
         <v>0</v>
       </c>
       <c r="CF4">
-        <v>1.258632022693785E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>6.759956666206168E-05</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>1.278525495027299E-05</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.0001036639367833533</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>6.897628257357382E-05</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>4.999866147677399E-05</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.0001525479494660569</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0003991959087715766</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.09218677596498935</v>
+        <v>0.2779402333227241</v>
       </c>
       <c r="CO4">
-        <v>0.0001016534579794928</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.1139135467031083</v>
+        <v>0.3750935330929568</v>
       </c>
       <c r="CQ4">
-        <v>0.02860191033981031</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.001090998132304949</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.01194183161280195</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.02720862838235668</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.02641865446499406</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.01666868740103706</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.01095684271523613</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.002379941633765213</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.0001229542192197369</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.0002775673306596764</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.007031402689705092</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>8.507494795566682E-05</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.004233341161974265</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.005192725776772285</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.009261485728289486</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.0005247539417672349</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.005662266950671106</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.02267940374004732</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.0007640489435387745</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.007131898896338788</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.002216615499027491</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.001062541197651697</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>4.971475793590751E-07</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.003817376719238127</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.002683591769234001</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.0002100530441919312</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.0039193549191755</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.0007605538742885341</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.004319709372858168</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.02587771789824842</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.0004247921818471599</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.0004731079168787126</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.02846913667545384</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.007178112517682596</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.003408961111059297</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.0005842606986282546</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.01064352708391879</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.087619549337925</v>
+        <v>0.2575174496994184</v>
       </c>
       <c r="EC4">
-        <v>0.03409645708164191</v>
+        <v>0.01818390633573096</v>
       </c>
       <c r="ED4">
-        <v>0.0007015783502521312</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.0001206353932967666</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.0001652846216281474</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.000310099396474003</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.002939600755962425</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.0001866195782469173</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.01071046358122587</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.02788849606435569</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.04596716136897518</v>
+        <v>0.07126487754916966</v>
       </c>
       <c r="EM4">
-        <v>0.02810935031167232</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.004613377429393262</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.0002729845552175829</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.0002552248949287884</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.009115299333698795</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.01324659445664619</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.007847897699231665</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.01106560632594075</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.01923934805963343</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.01754535522339363</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.007436012592745019</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.001255000685550956</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.0004262108585338086</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.002680595043009684</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.008511620845342434</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.003566942478297347</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.001127064174449492</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.009170715390559478</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.02136734807143348</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.01352428748240472</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.01542633007173016</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.006262337573286484</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>3.982817555896136E-05</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.002703691591263426</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.002865964851958353</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.01213411528795691</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.0168411350734002</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.003649762796010792</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.003141796024759501</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.007809629392210236</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.004195703718336601</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.001993505822501846</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.0004241026174315126</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.001523709539905703</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.001655491203880272</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.0003668716644341072</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.002147428077963268</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.002502022859608901</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.000338842677624249</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.0001210101167353337</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.001575769035118925</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.001653636559645891</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.003885213205587683</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.003779481263389708</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.0006443347819894737</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>2.93573642288008E-05</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.0008724604882217027</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.002483299603309258</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.0003679891766931476</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0012236799855643</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.001404660983780186</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.0003207122386703075</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.001035192403917584</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.0004379031769632064</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>3.544935691722724E-05</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.0007131286167899432</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
         <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.001248108645755984</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.004019787148392561</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,22 +4313,22 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001611972813066355</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0001095348154319114</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>6.707912578335846E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>4.310580693676018E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.540011308622741E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2.625916191895159E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -4340,31 +4340,31 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.278087657346275E-06</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>8.673428606271666E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0001370122793567459</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>6.490593636350121E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0001663622644643134</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>7.29711862366748E-06</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>4.363129454048651E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0002145123353948794</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4373,10 +4373,10 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>1.24686984679169E-05</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>3.14449050015628E-05</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -4385,10 +4385,10 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>3.542371093487974E-06</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>5.872635094985955E-06</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -4397,85 +4397,85 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>1.298566368161031E-06</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0001276950306728942</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>6.527760113927267E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>4.59905788530718E-05</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.000137531558019603</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0001023852355508135</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>2.849854764577863E-06</v>
+        <v>0</v>
       </c>
       <c r="AK5">
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0001023852355508135</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>7.507428085207604E-07</v>
+        <v>0</v>
       </c>
       <c r="AN5">
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0001181960625109952</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>6.910557299251484E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>1.553213097951424E-05</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.69747581344833E-05</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>1.380677882833261E-05</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>7.686881204654626E-06</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>5.792834725045553E-05</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>7.515707107201608E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>4.566957150030345E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>2.368592313484033E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.0001561853424797274</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.0003387480922848142</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.0001002422041300147</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>8.516327974532078E-05</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>9.060272574260234E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="BG5">
-        <v>1.547651401846E-06</v>
+        <v>0</v>
       </c>
       <c r="BH5">
         <v>0</v>
@@ -4496,34 +4496,34 @@
         <v>0</v>
       </c>
       <c r="BK5">
-        <v>2.894384502981594E-05</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>5.677386297713157E-05</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.0001428591939868206</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>6.808909813521425E-05</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>7.96910296600933E-06</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.0001678446152818195</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0001859737707895528</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.0001031146884150821</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>6.707912578335846E-05</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0001271584487328366</v>
+        <v>0</v>
       </c>
       <c r="BU5">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="BW5">
-        <v>6.803352024930825E-06</v>
+        <v>0</v>
       </c>
       <c r="BX5">
         <v>0</v>
@@ -4541,376 +4541,376 @@
         <v>0</v>
       </c>
       <c r="BZ5">
-        <v>8.783478250809165E-05</v>
+        <v>0</v>
       </c>
       <c r="CA5">
         <v>0</v>
       </c>
       <c r="CB5">
-        <v>1.24686984679169E-05</v>
+        <v>0</v>
       </c>
       <c r="CC5">
         <v>0</v>
       </c>
       <c r="CD5">
-        <v>2.462966811999307E-05</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.0001927961413905011</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>6.195758617515468E-05</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.0001576630643950523</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.0001828267885974411</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.0001078213000448784</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>5.419778873995269E-05</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.0001535418886599346</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.000169412751078707</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.0004259526718033459</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1173745492195717</v>
+        <v>0.3301208805139454</v>
       </c>
       <c r="CO5">
-        <v>0.007411470463071257</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.1195970775266593</v>
+        <v>0.3385226235752986</v>
       </c>
       <c r="CQ5">
-        <v>0.0269104440683889</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.001184983048754391</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.008479741633658345</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.02797740602112318</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.02798886305498475</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.0168567771246058</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.001455366142299316</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.0005478585880058891</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>7.410265324380709E-05</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.001768406974067217</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.003525922681340987</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>9.17548264318811E-05</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.0005997917244269797</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.002644266804302888</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.004857856120161244</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.0011489523554873</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.004375148389544432</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.01630369244692381</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.0009017988364397024</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.006371396220062284</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.001920893532143556</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.000886692885077447</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.001147499160741973</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.004303086201468746</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.001062782135220859</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.0007539678317994053</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.004027301820311727</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.001510052413475646</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.006296853561612215</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.02198398563509106</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.0001389244568053503</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.000598591175563466</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.02282459827887903</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.00182774679482583</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.001122675220002065</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
         <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.02239504216803796</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.09127406947393822</v>
+        <v>0.2314541846156042</v>
       </c>
       <c r="EC5">
-        <v>0.0285410419907681</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.0005365874115803843</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>3.068788411921812E-05</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.000755148702819015</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.0008588772608116754</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.003354309539529585</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.001059143136796269</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.01520657249513111</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.04110818879189036</v>
+        <v>0.04181392734959903</v>
       </c>
       <c r="EL5">
-        <v>0.04541330026731189</v>
+        <v>0.05808838394555254</v>
       </c>
       <c r="EM5">
-        <v>0.02516502833145496</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.003367735560093793</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.0001515004426053993</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.0004559617143926622</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.005536123846539474</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.008194051201448484</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.008117731425293101</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.01171157901700778</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.01664068454112</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.01802310417363974</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.005058968894878864</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.0002638387285970244</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.0009814689558858307</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.004027301820311727</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.007820323458233133</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.002404297501748597</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.0006358394003546707</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.00693776143852565</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.01767272834019364</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.01248796614399699</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.01325470471514126</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.004277638561246649</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.0003164452199964274</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.004005386673686982</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.004679552611615203</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.01295636495608381</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.01569720606851708</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.00307946376347283</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.003268796483103092</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.007004265036469236</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.003544951777590723</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.001124212676797917</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.0001989871678071743</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.001905875349575902</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.001323864942703994</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.0005636835822121401</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.002647949085968653</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.002118302483767513</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.0003987262907543931</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.0005522529290853022</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.002733361949707245</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.002342998613363441</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.004728341040218197</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.004246307005234837</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.000570266842963411</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.0003335914251202321</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.001285676800288315</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.002602096202928492</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.0006259356437143799</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.00284674710901768</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.002973801256160484</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.001588359511595559</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.001109649669611402</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.0004408010578228124</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.000309464224331993</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.001026450262733935</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
         <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.001627968185940309</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.005044563190212354</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,10 +5086,10 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001268889200124546</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0001242619989293371</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5104,10 +5104,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.654856388803139E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>4.443310176625798E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -5125,31 +5125,31 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>7.520749475232137E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.125879362196829E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>7.347031912866586E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0001837557180688723</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>9.599251081476581E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0001585184363052317</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>3.205035046163888E-05</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>2.922773807707202E-06</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -5164,46 +5164,46 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>7.627266975934834E-06</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>5.61602114239316E-05</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>2.33741439806501E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>2.136312601028067E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0001412028729337964</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0002605594093998016</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0001849707005641183</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0002900227198524783</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>3.574684320682492E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>3.561253442952863E-06</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>8.142378277559462E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>3.219483378128702E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>1.776245926514722E-05</v>
+        <v>0</v>
       </c>
       <c r="AP6">
         <v>0</v>
@@ -5212,10 +5212,10 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>1.722060666436584E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0001330440363101042</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>0</v>
@@ -5227,67 +5227,67 @@
         <v>0</v>
       </c>
       <c r="AW6">
-        <v>7.431682077552754E-05</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.0001130045443799317</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0002779457308109351</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.0002497860787682007</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.0001075341719719134</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>5.829261321033826E-05</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>1.340430707690292E-05</v>
+        <v>0</v>
       </c>
       <c r="BD6">
         <v>0</v>
       </c>
       <c r="BE6">
-        <v>5.896185437383686E-06</v>
+        <v>0</v>
       </c>
       <c r="BF6">
         <v>0</v>
       </c>
       <c r="BG6">
-        <v>3.061778373196281E-05</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>4.943669797163794E-05</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>7.044380935704137E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
         <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.0001077581805424773</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.0002946260979851707</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.0001582017968380392</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>5.808175043758808E-05</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>4.249562839138475E-05</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>6.906913191874557E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>1.075272256584688E-05</v>
+        <v>0</v>
       </c>
       <c r="BR6">
         <v>0</v>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="BU6">
-        <v>4.512308148983838E-05</v>
+        <v>0</v>
       </c>
       <c r="BV6">
         <v>0</v>
@@ -5311,10 +5311,10 @@
         <v>0</v>
       </c>
       <c r="BY6">
-        <v>3.625481345731587E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>1.088720198957174E-05</v>
+        <v>0</v>
       </c>
       <c r="CA6">
         <v>0</v>
@@ -5326,364 +5326,364 @@
         <v>0</v>
       </c>
       <c r="CD6">
-        <v>2.70930988148463E-05</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.0001080267880590447</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.0001253335882344725</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.0001938048553717706</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.0001368368639832209</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>1.88574140815617E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>9.882730936193636E-05</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>9.528908616022048E-05</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>2.180302941563197E-05</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.0042190549517065</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.09822906432001784</v>
+        <v>0.2504430649200666</v>
       </c>
       <c r="CO6">
-        <v>0.05926083813917367</v>
+        <v>0.1072114605370734</v>
       </c>
       <c r="CP6">
-        <v>0.09599634652488259</v>
+        <v>0.2422364878373026</v>
       </c>
       <c r="CQ6">
-        <v>0.005146104824632946</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.004025476855324201</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.0001998850980393863</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.05566882818698045</v>
+        <v>0.09400866947276722</v>
       </c>
       <c r="CU6">
-        <v>0.02469897276644251</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.02333961837362823</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.001387552992394828</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.001342480954263178</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.002853976375016789</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.0004465862708243092</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.001916491573364589</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.002578785620376563</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.0001709033216940102</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.006925646335204032</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.002928862552582171</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.0001271766800811208</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.01266657865569285</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.01423907846818982</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.001067600374601909</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.006232715432212198</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.0003554739567634243</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.002598795219067663</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.001495185115416731</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.0002166240170146659</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.002711922658990229</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.001337615623824631</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.0009074797189029441</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.0002440773032614688</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.008089293365728683</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.01200460401864302</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.002082898040449424</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.002033444203553545</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.03012103818194501</v>
+        <v>0.0001052176225564188</v>
       </c>
       <c r="DX6">
-        <v>1.238621743472377E-05</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.0002277798767109311</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>5.965342412061036E-05</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.03851439218479229</v>
+        <v>0.03095582792242179</v>
       </c>
       <c r="EB6">
-        <v>0.07545536489329402</v>
+        <v>0.1667360598465541</v>
       </c>
       <c r="EC6">
-        <v>0.009197292595902247</v>
+        <v>0</v>
       </c>
       <c r="ED6">
         <v>0</v>
       </c>
       <c r="EE6">
-        <v>7.627266975934834E-06</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>4.199199657538912E-05</v>
+        <v>0</v>
       </c>
       <c r="EG6">
         <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.0003306700366241061</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.005079261614766269</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.0211185095546472</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.04734572630736082</v>
+        <v>0.06341627786303444</v>
       </c>
       <c r="EL6">
-        <v>0.04230455074700595</v>
+        <v>0.04488693397822332</v>
       </c>
       <c r="EM6">
-        <v>0.01776888378196543</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.001104345368921441</v>
+        <v>0</v>
       </c>
       <c r="EO6">
         <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.002733471086945868</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.01250856407806298</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.009566768212584738</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.0091474728729875</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.01745292087767208</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.0207958151506487</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.01751593759232909</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.005813808062289288</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.0003969151106826547</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.0003479067412694997</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.002876076793978671</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.004436055073449696</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.0007844814270432174</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.002001184399657895</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.01204499903968905</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.01908605337383892</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.01431132715463154</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.01422333884466212</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.003409000470956401</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.001187247110376706</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.001702577742852149</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.003100631433113902</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.01406638729390189</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.006959974373813742</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.0006216060360861487</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.003826893498431942</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.005307647968884276</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.001801032802087235</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.0006657151364975261</v>
+        <v>0</v>
       </c>
       <c r="FS6">
         <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.002380677664358202</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.001293285194995421</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.0005265214044233851</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.002212875510248308</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.0005752037187017017</v>
+        <v>0</v>
       </c>
       <c r="FY6">
         <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.0003449991770775891</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.0006298190479318938</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.001618154638296209</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.003624031433294349</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.0008236714433910542</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>3.993618291372205E-05</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.0008989797199164739</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.003438341919783041</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.003144332979663769</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.000598211976663484</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.001936558288419128</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.001188753014918559</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.0005362404211912352</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.0003863523477058629</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>5.636852052306861E-05</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>6.201295228821077E-05</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.0002395407281865423</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0006662318839972599</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.004397113357693429</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.006424205518970775</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>1.501603814898358E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.501603814898358E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.177105537115925E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3.177105537115925E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3.177105537115925E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>5.044666032819257E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>8.27699822160074E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0001309711598670565</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0001874240997029709</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0002945101407108907</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0004274729764957809</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0005540824465430716</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0007309244526611508</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0009509038378105091</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.001164166747988012</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.001394906880949211</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.001480033625546721</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.001536486565382635</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.00157018967233588</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.001582433426876969</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.001582433426876969</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.001593304338073222</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.001677611947630713</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.001789974336818116</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.001953311133444199</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.002116647930070282</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.002411810883156545</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.002744381983878614</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.003053100888272636</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.003314107323354681</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.003594378554339424</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.003818880946848528</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.003989397520248296</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.004075844602921637</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.004094106078599367</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.004094106078599367</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.004099819102238209</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.004116380634011192</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.004148703955899007</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.004221188007794955</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.004356048127109968</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.004591762889607693</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.00483452961354792</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.005151693867660127</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.005497237588973639</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.005847627904311046</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.006181794549903786</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.006500697356737833</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.006693969572808052</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.006822432049897708</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.006866284263616252</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.006898607585504067</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.006898607585504067</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.006900124570234206</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.00690261155933409</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.00692274955643212</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.006976543136719593</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.007112666457024405</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.007446423495064145</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.007842779750418282</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.008199465373648468</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.008547616113376679</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.008889732990666383</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.009132149806251049</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.009320601800030024</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.009472844864435542</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.009596629846854188</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.009646316941032417</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.009676015571941771</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.009681456012948318</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.009684808646716284</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.009684808646716284</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.009691354601764578</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.009710030206721612</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.009790340157853534</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.01003310688179376</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.01029605686853498</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.01049023752323931</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0106383446092313</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.01080113437505542</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.01096267480131279</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.01114697725550263</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.01139689809506948</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.01153908670371053</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.01164112168619765</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.01176589116993281</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.01177774364702654</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.01177774364702654</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.01177774364702654</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.01191120233143473</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.08852521934801698</v>
+        <v>0.21911790508344</v>
       </c>
       <c r="CO2">
-        <v>0.08865867803242516</v>
+        <v>0.21911790508344</v>
       </c>
       <c r="CP2">
-        <v>0.2097386639563342</v>
+        <v>0.6473482211102651</v>
       </c>
       <c r="CQ2">
-        <v>0.2324725109277929</v>
+        <v>0.6473482211102651</v>
       </c>
       <c r="CR2">
-        <v>0.2328283935692949</v>
+        <v>0.6473482211102651</v>
       </c>
       <c r="CS2">
-        <v>0.2442154107453096</v>
+        <v>0.6473482211102651</v>
       </c>
       <c r="CT2">
-        <v>0.2829076948862377</v>
+        <v>0.6881296323841112</v>
       </c>
       <c r="CU2">
-        <v>0.3161784842339825</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="CV2">
-        <v>0.3288479262419486</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="CW2">
-        <v>0.3504917509382497</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="CX2">
-        <v>0.3505215795222519</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="CY2">
-        <v>0.3505215795222519</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="CZ2">
-        <v>0.3510833876646545</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DA2">
-        <v>0.3571532240114561</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DB2">
-        <v>0.3572490292710984</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DC2">
-        <v>0.3620146855577084</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DD2">
-        <v>0.3669211261630999</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DE2">
-        <v>0.3715664742050319</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DF2">
-        <v>0.37171259544451</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DG2">
-        <v>0.3789865394829843</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DH2">
-        <v>0.4046828898203114</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DI2">
-        <v>0.4075651913553486</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DJ2">
-        <v>0.4101771881352622</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DK2">
-        <v>0.41115649353248</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DL2">
-        <v>0.4124036727815411</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DM2">
-        <v>0.4126439092203016</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DN2">
-        <v>0.4150488346550372</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DO2">
-        <v>0.4188653959030478</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DP2">
-        <v>0.4188720814281142</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DQ2">
-        <v>0.4210391869781444</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DR2">
-        <v>0.42106721329692</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DS2">
-        <v>0.424791182240649</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DT2">
-        <v>0.4512870164236659</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DU2">
-        <v>0.4520207182217063</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DV2">
-        <v>0.4528397894016989</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DW2">
-        <v>0.4783724078093752</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DX2">
-        <v>0.4875969218907917</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DY2">
-        <v>0.4905877502615796</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="DZ2">
-        <v>0.4913997141545365</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="EA2">
-        <v>0.4991664056606843</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="EB2">
-        <v>0.575831285592826</v>
+        <v>0.9227722005400942</v>
       </c>
       <c r="EC2">
-        <v>0.5981002544634447</v>
+        <v>0.9227722005400942</v>
       </c>
       <c r="ED2">
-        <v>0.5981002544634447</v>
+        <v>0.9227722005400942</v>
       </c>
       <c r="EE2">
-        <v>0.5981109612353757</v>
+        <v>0.9227722005400942</v>
       </c>
       <c r="EF2">
-        <v>0.5981575382815981</v>
+        <v>0.9227722005400942</v>
       </c>
       <c r="EG2">
-        <v>0.5984570120671933</v>
+        <v>0.9227722005400942</v>
       </c>
       <c r="EH2">
-        <v>0.6024962079859444</v>
+        <v>0.9227722005400942</v>
       </c>
       <c r="EI2">
-        <v>0.6032726012655569</v>
+        <v>0.9227722005400942</v>
       </c>
       <c r="EJ2">
-        <v>0.6220453869707572</v>
+        <v>0.9227722005400942</v>
       </c>
       <c r="EK2">
-        <v>0.6571423752686185</v>
+        <v>0.9466458281701086</v>
       </c>
       <c r="EL2">
-        <v>0.6985081496028941</v>
+        <v>1</v>
       </c>
       <c r="EM2">
-        <v>0.7196749431831913</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0.7214658381022508</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0.7214658381022508</v>
+        <v>1</v>
       </c>
       <c r="EP2">
-        <v>0.7219257095397558</v>
+        <v>1</v>
       </c>
       <c r="EQ2">
-        <v>0.7295761704615797</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.7423099795137066</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.7540896312554727</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.7713109634251778</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.7951631550119178</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.8163003191749437</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.826234747288569</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.8272743651886454</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.8280817244870075</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.8304487742087918</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.8371171044677282</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.8405342743818105</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.8408885110268651</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.8484553510376321</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.8695283122917594</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.8882259770906615</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.908450059793475</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.9169721450111263</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.9169983627004307</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.9188467282804188</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.9206113104154076</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.9296313429858994</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.943277138595942</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.9446747515157075</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.9469975097373623</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.955089074167651</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9585949688988621</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9613199209639621</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9625028569708863</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9636794728694801</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9649672981144515</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.965414948830997</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9675178568765822</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9689880688243943</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9690168331843814</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9690553150334426</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9695450767632028</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9700420393070733</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9732054237794133</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9764695178454024</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9766504269131404</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9769947641702202</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9786761757652979</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.982368067274372</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9828554569493484</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9846200390843372</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9868320332265538</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9872719560946659</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9878107250006916</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9878109064894545</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9880378566291246</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9880400685665575</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9883176237592854</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9919944394445418</v>
+        <v>1</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>3.174146327111925E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5.193742687118278E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5.193742687118278E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>6.057442168807565E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>6.057442168807565E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>6.057442168807565E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0001215791412160087</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0002436828705634969</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0003857193642468971</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0004677775663310048</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0006667753405733644</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0009410303747870865</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.001126325302021304</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.001249712936566426</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.00132675162450947</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.001328290933803955</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.001328290933803955</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.001358101557058556</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.001358101557058556</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.001360395621139116</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.001360395621139116</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.001360395621139116</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.00139325376039529</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.001418640273336679</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.001443398837351445</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.001687470176929104</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.002024047138260611</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.002155039880974672</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.002219628883896345</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.002282519032862358</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.00233409959232962</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.002404304190930271</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.002404304190930271</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.002404304190930271</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.002404304190930271</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.002404304190930271</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.002429801888363997</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.002503980835044398</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.002609977914825894</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.002718382320857149</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.002847495444220585</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.002905392141352031</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.002987450343436139</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0031090422965757</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.003181609704784286</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.003295153075109197</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.003370755607335791</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.003370755607335791</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.003372478223988556</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.003372478223988556</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.003372478223988556</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.003372478223988556</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.003388167264509236</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.003479169397499168</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.003531956247844509</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.003573713362905292</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.003631631732744081</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.003633925796824641</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.003646204808524906</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.003667801533757655</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.003692310716485905</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.003726444768565791</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.003884631093057858</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.003892186515669297</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.003892186515669297</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.003903612560683042</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.003903612560683042</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.003914104339829938</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.003914104339829938</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.003914104339829938</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.003936520845979181</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.00395304258495056</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.003961002782660684</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.004039075012485935</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.004149179825099597</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.004207619607242427</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.004404999636510176</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.004574657890591049</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.004649242286076002</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.004719423198860097</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.004782290834237745</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.004784577240294694</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.004784577240294694</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.004784577240294694</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.004784577240294694</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.004839991366339426</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.00487118064906942</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.004962182782059352</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.005146576945528182</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.005238696224996123</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.05665141555609031</v>
+        <v>0.07771715916759157</v>
       </c>
       <c r="CO3">
-        <v>0.06070181653593472</v>
+        <v>0.07771715916759157</v>
       </c>
       <c r="CP3">
-        <v>0.1982402581509566</v>
+        <v>0.4684038798032357</v>
       </c>
       <c r="CQ3">
-        <v>0.2476437603467637</v>
+        <v>0.5388198078281509</v>
       </c>
       <c r="CR3">
-        <v>0.2476437603467637</v>
+        <v>0.5388198078281509</v>
       </c>
       <c r="CS3">
-        <v>0.2623868084307108</v>
+        <v>0.5388198078281509</v>
       </c>
       <c r="CT3">
-        <v>0.2778763466415272</v>
+        <v>0.5388198078281509</v>
       </c>
       <c r="CU3">
-        <v>0.3201795966257052</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="CV3">
-        <v>0.3348838120231296</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="CW3">
-        <v>0.3481803905844483</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="CX3">
-        <v>0.3484685079527711</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="CY3">
-        <v>0.34854069903669</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="CZ3">
-        <v>0.3487671439083286</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DA3">
-        <v>0.3514519846373496</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DB3">
-        <v>0.3518994064351467</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DC3">
-        <v>0.3569890172357193</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DD3">
-        <v>0.3589640262463178</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DE3">
-        <v>0.3623871122637687</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DF3">
-        <v>0.3628061096301785</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DG3">
-        <v>0.3650028371439146</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DH3">
-        <v>0.382142437188978</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DI3">
-        <v>0.3843958929391036</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DJ3">
-        <v>0.3901893061409476</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DK3">
-        <v>0.3963117070360505</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DL3">
-        <v>0.3970565085702151</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DM3">
-        <v>0.3977852555233681</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DN3">
-        <v>0.4032269306955369</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DO3">
-        <v>0.4055750708502123</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DP3">
-        <v>0.4062903686621746</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DQ3">
-        <v>0.4094785979110138</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DR3">
-        <v>0.4096032758774901</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DS3">
-        <v>0.4109251610847641</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DT3">
-        <v>0.4324837600876735</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DU3">
-        <v>0.4329655776232288</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DV3">
-        <v>0.4377479465144499</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DW3">
-        <v>0.4517918290553432</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DX3">
-        <v>0.461279134492392</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DY3">
-        <v>0.4669696674025351</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="DZ3">
-        <v>0.4671301474202192</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="EA3">
-        <v>0.476110201390089</v>
+        <v>0.5834343519916873</v>
       </c>
       <c r="EB3">
-        <v>0.5734717280817461</v>
+        <v>0.8281234413592653</v>
       </c>
       <c r="EC3">
-        <v>0.6124007797865663</v>
+        <v>0.8604765922039102</v>
       </c>
       <c r="ED3">
-        <v>0.6132193246845341</v>
+        <v>0.8604765922039102</v>
       </c>
       <c r="EE3">
-        <v>0.6132933255546367</v>
+        <v>0.8604765922039102</v>
       </c>
       <c r="EF3">
-        <v>0.6133175715155772</v>
+        <v>0.8604765922039102</v>
       </c>
       <c r="EG3">
-        <v>0.6133607432127509</v>
+        <v>0.8604765922039102</v>
       </c>
       <c r="EH3">
-        <v>0.615082198765486</v>
+        <v>0.8604765922039102</v>
       </c>
       <c r="EI3">
-        <v>0.6162363455266369</v>
+        <v>0.8604765922039102</v>
       </c>
       <c r="EJ3">
-        <v>0.6305664099114283</v>
+        <v>0.8604765922039102</v>
       </c>
       <c r="EK3">
-        <v>0.6680025304139032</v>
+        <v>0.8874046271678468</v>
       </c>
       <c r="EL3">
-        <v>0.7217169813591318</v>
+        <v>0.9734859766700977</v>
       </c>
       <c r="EM3">
-        <v>0.7590391704912589</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN3">
-        <v>0.7670620125528168</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO3">
-        <v>0.7677159273013454</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP3">
-        <v>0.7677979855034295</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ3">
-        <v>0.7718068109229351</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER3">
-        <v>0.781068308772553</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES3">
-        <v>0.7881443611455657</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET3">
-        <v>0.7986515726780757</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU3">
-        <v>0.8163385151952303</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV3">
-        <v>0.8370148287932526</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW3">
-        <v>0.8492390648194039</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX3">
-        <v>0.8514082267516033</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY3">
-        <v>0.8515637782955329</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ3">
-        <v>0.852237630102897</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA3">
-        <v>0.8567234649037668</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB3">
-        <v>0.8587206032000825</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC3">
-        <v>0.8587206032000825</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD3">
-        <v>0.8625251531922424</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE3">
-        <v>0.8770048453478949</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF3">
-        <v>0.8881317726808595</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG3">
-        <v>0.8999185949114887</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH3">
-        <v>0.905576471105915</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI3">
-        <v>0.905576471105915</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ3">
-        <v>0.9091484383120035</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK3">
-        <v>0.9114051266490367</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL3">
-        <v>0.9201843792314481</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM3">
-        <v>0.9349081691378504</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN3">
-        <v>0.9368761242578121</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO3">
-        <v>0.9375944677808848</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP3">
-        <v>0.9438150455397233</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ3">
-        <v>0.9454207795464737</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR3">
-        <v>0.9460899842448802</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS3">
-        <v>0.9462835462738799</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT3">
-        <v>0.9499908029280085</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU3">
-        <v>0.9538529231387355</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV3">
-        <v>0.9553573923463997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW3">
-        <v>0.9582615041142544</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX3">
-        <v>0.9613279629795054</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY3">
-        <v>0.9618695495374003</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ3">
-        <v>0.9621110775422268</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA3">
-        <v>0.9634189626810822</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB3">
-        <v>0.9640898639270278</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC3">
-        <v>0.9677270277421507</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD3">
-        <v>0.971443957330991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE3">
-        <v>0.9716397260119862</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF3">
-        <v>0.9720275609282797</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG3">
-        <v>0.9738570819053817</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH3">
-        <v>0.9795100479552576</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI3">
-        <v>0.9809579195634058</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ3">
-        <v>0.9836604217970752</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK3">
-        <v>0.9876649407044799</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL3">
-        <v>0.9896178230320881</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM3">
-        <v>0.9917157115883872</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN3">
-        <v>0.9926843131065384</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO3">
-        <v>0.9929132227205839</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP3">
-        <v>0.9941483220989545</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ3">
-        <v>0.9943073797864076</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR3">
-        <v>0.9953036776631156</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001384009306972302</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0001909120964597879</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0001984794173867491</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0003117855818627478</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0005359689446152194</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0006026979678658411</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0006026979678658411</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0006723753187755184</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0007992408909745881</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0007992408909745881</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.000805516860286122</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0008073935652153096</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0008073935652153096</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0008073935652153096</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0008428429221325368</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0008430756710731689</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0008676324502968161</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0008973254176261522</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0009313818750487296</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.001144795706000772</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.001370522746699157</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.001483197326919092</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.001698301252990896</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.001920574304148033</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001934677875342604</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.001934677875342604</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.001959234654566251</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.00204748393466039</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.002063270107907648</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.002063270107907648</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.002064857014162492</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.002064857014162492</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.002080486900292659</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.002187892160308822</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.002359799035273619</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.002445528109762901</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.002445528109762901</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.002537700521088788</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.002655276712561893</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.002692511589068399</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.002871785658795104</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.003040064874067014</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.003087619148684309</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.003090685507167971</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.003090685507167971</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.003090685507167971</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.003153384704079157</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.003155628555278068</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.003155628555278068</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.003155628555278068</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.003309614204449805</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.003383610907042514</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.003389484675666308</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.003503154620338873</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.003581075055891457</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.003747692059784659</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.004076462048831934</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.004438076782053716</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.00458976520143514</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.004666644016562503</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.00475982668035644</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.004802005189965157</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.004802005189965157</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.004802005189965157</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.004829086113559812</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.004851593312664586</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.004851593312664586</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.004946954228278123</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.005077522941507172</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.005159576107920035</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.00531141910434926</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.005460696265959453</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.005525684242435656</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.005575263239092008</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.005672237440881728</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.005672237440881728</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.005672237440881728</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.00567247018982236</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.00567247018982236</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.005690116743244842</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.005690116743244842</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.005690116743244842</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.00570270306347178</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.005770302630133842</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.005783087885084115</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.005886751821867468</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.005955728104441042</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.006005726765917816</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.006158274715383874</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.006557470624155451</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.0987442465891448</v>
+        <v>0.2779402333227241</v>
       </c>
       <c r="CO4">
-        <v>0.09884590004712429</v>
+        <v>0.2779402333227241</v>
       </c>
       <c r="CP4">
-        <v>0.2127594467502326</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="CQ4">
-        <v>0.2413613570900429</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="CR4">
-        <v>0.2424523552223479</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="CS4">
-        <v>0.2543941868351498</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="CT4">
-        <v>0.2816028152175065</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="CU4">
-        <v>0.3080214696825005</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="CV4">
-        <v>0.3246901570835376</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="CW4">
-        <v>0.3356469997987737</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="CX4">
-        <v>0.3380269414325389</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="CY4">
-        <v>0.3381498956517587</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="CZ4">
-        <v>0.3384274629824184</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DA4">
-        <v>0.3454588656721235</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DB4">
-        <v>0.3455439406200791</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DC4">
-        <v>0.3497772817820534</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DD4">
-        <v>0.3549700075588257</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DE4">
-        <v>0.3642314932871152</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DF4">
-        <v>0.3647562472288824</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DG4">
-        <v>0.3704185141795535</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DH4">
-        <v>0.3930979179196009</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DI4">
-        <v>0.3938619668631396</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DJ4">
-        <v>0.4009938657594784</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DK4">
-        <v>0.4032104812585059</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DL4">
-        <v>0.4042730224561576</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DM4">
-        <v>0.404273519603737</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DN4">
-        <v>0.4080908963229751</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DO4">
-        <v>0.4107744880922091</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DP4">
-        <v>0.410984541136401</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DQ4">
-        <v>0.4149038960555765</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DR4">
-        <v>0.4156644499298651</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DS4">
-        <v>0.4199841593027233</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DT4">
-        <v>0.4458618772009717</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DU4">
-        <v>0.4462866693828189</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DV4">
-        <v>0.4467597772996976</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DW4">
-        <v>0.4752289139751514</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DX4">
-        <v>0.482407026492834</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DY4">
-        <v>0.4858159876038933</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="DZ4">
-        <v>0.4864002483025216</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="EA4">
-        <v>0.4970437753864404</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="EB4">
-        <v>0.5846633247243654</v>
+        <v>0.9105512161150993</v>
       </c>
       <c r="EC4">
-        <v>0.6187597818060073</v>
+        <v>0.9287351224508302</v>
       </c>
       <c r="ED4">
-        <v>0.6194613601562594</v>
+        <v>0.9287351224508302</v>
       </c>
       <c r="EE4">
-        <v>0.6195819955495562</v>
+        <v>0.9287351224508302</v>
       </c>
       <c r="EF4">
-        <v>0.6197472801711843</v>
+        <v>0.9287351224508302</v>
       </c>
       <c r="EG4">
-        <v>0.6200573795676583</v>
+        <v>0.9287351224508302</v>
       </c>
       <c r="EH4">
-        <v>0.6229969803236207</v>
+        <v>0.9287351224508302</v>
       </c>
       <c r="EI4">
-        <v>0.6231835999018677</v>
+        <v>0.9287351224508302</v>
       </c>
       <c r="EJ4">
-        <v>0.6338940634830935</v>
+        <v>0.9287351224508302</v>
       </c>
       <c r="EK4">
-        <v>0.6617825595474492</v>
+        <v>0.9287351224508302</v>
       </c>
       <c r="EL4">
-        <v>0.7077497209164244</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM4">
-        <v>0.7358590712280967</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN4">
-        <v>0.74047244865749</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO4">
-        <v>0.7407454332127076</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP4">
-        <v>0.7410006581076364</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ4">
-        <v>0.7501159574413352</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER4">
-        <v>0.7633625518979814</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES4">
-        <v>0.7712104495972131</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET4">
-        <v>0.7822760559231539</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU4">
-        <v>0.8015154039827873</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV4">
-        <v>0.8190607592061809</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW4">
-        <v>0.826496771798926</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX4">
-        <v>0.827751772484477</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY4">
-        <v>0.8281779833430107</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ4">
-        <v>0.8308585783860204</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA4">
-        <v>0.8393701992313628</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB4">
-        <v>0.8429371417096602</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC4">
-        <v>0.8440642058841097</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD4">
-        <v>0.8532349212746692</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE4">
-        <v>0.8746022693461026</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF4">
-        <v>0.8881265568285074</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG4">
-        <v>0.9035528869002375</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH4">
-        <v>0.909815224473524</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI4">
-        <v>0.909855052649083</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ4">
-        <v>0.9125587442403463</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK4">
-        <v>0.9154247090923047</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL4">
-        <v>0.9275588243802616</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM4">
-        <v>0.9443999594536618</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN4">
-        <v>0.9480497222496727</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO4">
-        <v>0.9511915182744322</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP4">
-        <v>0.9590011476666424</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ4">
-        <v>0.9631968513849789</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR4">
-        <v>0.9651903572074807</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS4">
-        <v>0.9656144598249122</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT4">
-        <v>0.9671381693648179</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU4">
-        <v>0.9687936605686982</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV4">
-        <v>0.9691605322331323</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW4">
-        <v>0.9713079603110956</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX4">
-        <v>0.9738099831707044</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY4">
-        <v>0.9741488258483287</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ4">
-        <v>0.9742698359650641</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA4">
-        <v>0.975845605000183</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB4">
-        <v>0.9774992415598289</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC4">
-        <v>0.9813844547654166</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD4">
-        <v>0.9851639360288063</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE4">
-        <v>0.9858082708107957</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF4">
-        <v>0.9858376281750245</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG4">
-        <v>0.9867100886632462</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH4">
-        <v>0.9891933882665555</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI4">
-        <v>0.9895613774432486</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ4">
-        <v>0.9907850574288128</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK4">
-        <v>0.9921897184125931</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL4">
-        <v>0.9925104306512634</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM4">
-        <v>0.993545623055181</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN4">
-        <v>0.9939835262321443</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO4">
-        <v>0.9940189755890615</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP4">
-        <v>0.9947321042058515</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ4">
-        <v>0.9947321042058515</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR4">
-        <v>0.9959802128516074</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001611972813066355</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0002707320967385468</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0003378112225219052</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0003809170294586654</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0003963171425448928</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0004225763044638444</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0004225763044638444</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0004225763044638444</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0004225763044638444</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0004248543921211907</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0005115886781839074</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0006486009575406533</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0007135068939041545</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0008798691583684679</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0008871662769921354</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0008871662769921354</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0009307975715326219</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.001145309906927501</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.001145309906927501</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.001145309906927501</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.001157778605395418</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.001189223510396981</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.001189223510396981</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.001189223510396981</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.001192765881490469</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.001198638516585455</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.001198638516585455</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.001198638516585455</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.001199937082953616</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.00132763211362651</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.001392909714765783</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.001438900293618855</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.001576431851638458</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.001678817087189271</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.001681666941953849</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.001681666941953849</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.001784052177504663</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.001784802920313184</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.001784802920313184</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.001902998982824179</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.001972104555816694</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.001972104555816694</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.001987636686796208</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.002014611444930691</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.002028418223759024</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.002036105104963678</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.002094033452214134</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.00216919052328615</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.002214860094786453</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.002238546017921293</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.002394731360401021</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.002733479452685835</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.00283372165681585</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.002918884936561171</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.003009487662303773</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.003009487662303773</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.003009487662303773</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.003011035313705619</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.003011035313705619</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.003011035313705619</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.003011035313705619</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.003039979158735435</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.003096753021712566</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.003239612215699387</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.003307701313834601</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.003315670416800611</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.00348351503208243</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.003669488802871983</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.003772603491287065</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.003839682617070423</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.00396684106580326</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.00396684106580326</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.00396684106580326</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.003973644417828191</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.003973644417828191</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.003973644417828191</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.004061479200336282</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.004061479200336282</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.004073947898804199</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.004073947898804199</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.004098577566924192</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.004291373708314694</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.004353331294489849</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.004510994358884901</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.004693821147482342</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.004801642447527221</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.004855840236267174</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.005009382124927108</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.005178794876005815</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.005604747547809161</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1229792967673808</v>
+        <v>0.3301208805139454</v>
       </c>
       <c r="CO5">
-        <v>0.1303907672304521</v>
+        <v>0.3301208805139454</v>
       </c>
       <c r="CP5">
-        <v>0.2499878447571113</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="CQ5">
-        <v>0.2768982888255002</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="CR5">
-        <v>0.2780832718742546</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="CS5">
-        <v>0.286563013507913</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="CT5">
-        <v>0.3145404195290362</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="CU5">
-        <v>0.3425292825840209</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="CV5">
-        <v>0.3593860597086267</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="CW5">
-        <v>0.360841425850926</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="CX5">
-        <v>0.3613892844389319</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="CY5">
-        <v>0.3614633870921757</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="CZ5">
-        <v>0.363231794066243</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DA5">
-        <v>0.366757716747584</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DB5">
-        <v>0.3668494715740158</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DC5">
-        <v>0.3674492632984428</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DD5">
-        <v>0.3700935301027457</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DE5">
-        <v>0.374951386222907</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DF5">
-        <v>0.3761003385783943</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DG5">
-        <v>0.3804754869679387</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DH5">
-        <v>0.3967791794148625</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DI5">
-        <v>0.3976809782513022</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DJ5">
-        <v>0.4040523744713645</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DK5">
-        <v>0.405973268003508</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DL5">
-        <v>0.4068599608885854</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DM5">
-        <v>0.4080074600493274</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DN5">
-        <v>0.4123105462507962</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DO5">
-        <v>0.413373328386017</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DP5">
-        <v>0.4141272962178165</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DQ5">
-        <v>0.4181545980381282</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DR5">
-        <v>0.4196646504516038</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DS5">
-        <v>0.425961504013216</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DT5">
-        <v>0.4479454896483071</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DU5">
-        <v>0.4480844141051125</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DV5">
-        <v>0.448683005280676</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DW5">
-        <v>0.471507603559555</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DX5">
-        <v>0.4733353503543808</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DY5">
-        <v>0.4744580255743829</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="DZ5">
-        <v>0.4744580255743829</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="EA5">
-        <v>0.4968530677424208</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="EB5">
-        <v>0.588127137216359</v>
+        <v>0.9000976887048482</v>
       </c>
       <c r="EC5">
-        <v>0.6166681792071271</v>
+        <v>0.9000976887048482</v>
       </c>
       <c r="ED5">
-        <v>0.6172047666187075</v>
+        <v>0.9000976887048482</v>
       </c>
       <c r="EE5">
-        <v>0.6172354545028267</v>
+        <v>0.9000976887048482</v>
       </c>
       <c r="EF5">
-        <v>0.6179906032056457</v>
+        <v>0.9000976887048482</v>
       </c>
       <c r="EG5">
-        <v>0.6188494804664574</v>
+        <v>0.9000976887048482</v>
       </c>
       <c r="EH5">
-        <v>0.6222037900059869</v>
+        <v>0.9000976887048482</v>
       </c>
       <c r="EI5">
-        <v>0.6232629331427831</v>
+        <v>0.9000976887048482</v>
       </c>
       <c r="EJ5">
-        <v>0.6384695056379143</v>
+        <v>0.9000976887048482</v>
       </c>
       <c r="EK5">
-        <v>0.6795776944298046</v>
+        <v>0.9419116160544472</v>
       </c>
       <c r="EL5">
-        <v>0.7249909946971166</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EM5">
-        <v>0.7501560230285715</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EN5">
-        <v>0.7535237585886654</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EO5">
-        <v>0.7536752590312708</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EP5">
-        <v>0.7541312207456634</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EQ5">
-        <v>0.7596673445922029</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="ER5">
-        <v>0.7678613957936513</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="ES5">
-        <v>0.7759791272189445</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="ET5">
-        <v>0.7876907062359523</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EU5">
-        <v>0.8043313907770723</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EV5">
-        <v>0.822354494950712</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EW5">
-        <v>0.8274134638455909</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EX5">
-        <v>0.8276773025741879</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EY5">
-        <v>0.8286587715300737</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EZ5">
-        <v>0.8326860733503855</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FA5">
-        <v>0.8405063968086186</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FB5">
-        <v>0.8429106943103672</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FC5">
-        <v>0.843546533710722</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FD5">
-        <v>0.8504842951492476</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FE5">
-        <v>0.8681570234894412</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FF5">
-        <v>0.8806449896334382</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FG5">
-        <v>0.8938996943485794</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FH5">
-        <v>0.898177332909826</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FI5">
-        <v>0.8984937781298225</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FJ5">
-        <v>0.9024991648035094</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FK5">
-        <v>0.9071787174151247</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FL5">
-        <v>0.9201350823712084</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FM5">
-        <v>0.9358322884397255</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FN5">
-        <v>0.9389117522031983</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FO5">
-        <v>0.9421805486863014</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FP5">
-        <v>0.9491848137227706</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FQ5">
-        <v>0.9527297655003614</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FR5">
-        <v>0.9538539781771593</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FS5">
-        <v>0.9540529653449665</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FT5">
-        <v>0.9559588406945424</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FU5">
-        <v>0.9572827056372464</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FV5">
-        <v>0.9578463892194585</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FW5">
-        <v>0.9604943383054272</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FX5">
-        <v>0.9626126407891947</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FY5">
-        <v>0.9630113670799492</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FZ5">
-        <v>0.9635636200090345</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GA5">
-        <v>0.9662969819587417</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GB5">
-        <v>0.9686399805721051</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GC5">
-        <v>0.9733683216123233</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GD5">
-        <v>0.9776146286175582</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GE5">
-        <v>0.9781848954605217</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GF5">
-        <v>0.9785184868856419</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GG5">
-        <v>0.9798041636859303</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GH5">
-        <v>0.9824062598888588</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GI5">
-        <v>0.9830321955325731</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GJ5">
-        <v>0.9858789426415908</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GK5">
-        <v>0.9888527438977514</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GL5">
-        <v>0.9904411034093469</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GM5">
-        <v>0.9915507530789582</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GN5">
-        <v>0.9919915541367811</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GO5">
-        <v>0.9923010183611131</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GP5">
-        <v>0.993327468623847</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GQ5">
-        <v>0.993327468623847</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GR5">
-        <v>0.9949554368097874</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001268889200124546</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0002511509189417916</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0002511509189417916</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0002511509189417916</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0002511509189417916</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0002511509189417916</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.000267699482829823</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.000312132584596081</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.000312132584596081</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.000312132584596081</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.000312132584596081</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.000312132584596081</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.000312132584596081</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0003196533340713132</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0003309121276932815</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0003309121276932815</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0004043824468219473</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0005881381648908196</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0006841306757055855</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0008426491120108172</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0008746994624724561</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0008776222362801633</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0008776222362801633</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0008776222362801633</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0008776222362801633</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0008776222362801633</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0008852495032560981</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0009414097146800297</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0009647838586606798</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0009861469846709605</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.001127349857604757</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.001387909267004559</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.001572879967568677</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.001862902687421155</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.00189864953062798</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.001902210784070933</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.001983634566846528</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.002015829400627815</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.002015829400627815</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.002033591859892962</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.002033591859892962</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.002033591859892962</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.002050812466557328</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.002183856502867433</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.002183856502867433</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.002183856502867433</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.002183856502867433</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.00225817332364296</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.002371177868022892</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.002649123598833827</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.002898909677602028</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.003006443849573941</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.003064736462784279</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.003078140769861182</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.003078140769861182</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.003084036955298566</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.003084036955298566</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.003114654739030529</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.003164091437002167</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.003171135817937871</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.003171135817937871</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.003278893998480348</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.003573520096465519</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.003731721893303558</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.003789803643741146</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.003832299272132531</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.003901368404051276</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.003912121126617123</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.003912121126617123</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.003912121126617123</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.003912121126617123</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.003957244208106962</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.003957244208106962</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.003957244208106962</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.003957244208106962</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.003993499021564277</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.004004386223553849</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.004004386223553849</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.004004386223553849</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.004004386223553849</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.004031479322368696</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.004139506110427741</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.004264839698662213</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.004458644554033984</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.004595481418017205</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.004614338832098767</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.004713166141460703</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.004808455227620924</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.004830258257036556</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.009049313208743056</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1072783775287609</v>
+        <v>0.2504430649200666</v>
       </c>
       <c r="CO6">
-        <v>0.1665392156679346</v>
+        <v>0.35765452545714</v>
       </c>
       <c r="CP6">
-        <v>0.2625355621928172</v>
+        <v>0.5998910132944426</v>
       </c>
       <c r="CQ6">
-        <v>0.2676816670174501</v>
+        <v>0.5998910132944426</v>
       </c>
       <c r="CR6">
-        <v>0.2717071438727743</v>
+        <v>0.5998910132944426</v>
       </c>
       <c r="CS6">
-        <v>0.2719070289708137</v>
+        <v>0.5998910132944426</v>
       </c>
       <c r="CT6">
-        <v>0.3275758571577941</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="CU6">
-        <v>0.3522748299242366</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="CV6">
-        <v>0.3756144482978649</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="CW6">
-        <v>0.3770020012902597</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="CX6">
-        <v>0.3783444822445229</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="CY6">
-        <v>0.3811984586195397</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="CZ6">
-        <v>0.381645044890364</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="DA6">
-        <v>0.3835615364637286</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="DB6">
-        <v>0.3861403220841052</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="DC6">
-        <v>0.3863112254057992</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="DD6">
-        <v>0.3932368717410032</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="DE6">
-        <v>0.3961657342935854</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="DF6">
-        <v>0.3962929109736665</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="DG6">
-        <v>0.4089594896293594</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="DH6">
-        <v>0.4231985680975492</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="DI6">
-        <v>0.4242661684721511</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="DJ6">
-        <v>0.4304988839043633</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="DK6">
-        <v>0.4308543578611267</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="DL6">
-        <v>0.4334531530801944</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="DM6">
-        <v>0.4349483381956111</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="DN6">
-        <v>0.4351649622126258</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="DO6">
-        <v>0.437876884871616</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="DP6">
-        <v>0.4392145004954406</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="DQ6">
-        <v>0.4401219802143436</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="DR6">
-        <v>0.440366057517605</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="DS6">
-        <v>0.4484553508833337</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="DT6">
-        <v>0.4604599549019767</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="DU6">
-        <v>0.4625428529424261</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="DV6">
-        <v>0.4645762971459797</v>
+        <v>0.6938996827672098</v>
       </c>
       <c r="DW6">
-        <v>0.4946973353279247</v>
+        <v>0.6940049003897663</v>
       </c>
       <c r="DX6">
-        <v>0.4947097215453594</v>
+        <v>0.6940049003897663</v>
       </c>
       <c r="DY6">
-        <v>0.4949375014220703</v>
+        <v>0.6940049003897663</v>
       </c>
       <c r="DZ6">
-        <v>0.4949971548461909</v>
+        <v>0.6940049003897663</v>
       </c>
       <c r="EA6">
-        <v>0.5335115470309832</v>
+        <v>0.7249607283121881</v>
       </c>
       <c r="EB6">
-        <v>0.6089669119242773</v>
+        <v>0.8916967881587422</v>
       </c>
       <c r="EC6">
-        <v>0.6181642045201796</v>
+        <v>0.8916967881587422</v>
       </c>
       <c r="ED6">
-        <v>0.6181642045201796</v>
+        <v>0.8916967881587422</v>
       </c>
       <c r="EE6">
-        <v>0.6181718317871555</v>
+        <v>0.8916967881587422</v>
       </c>
       <c r="EF6">
-        <v>0.6182138237837309</v>
+        <v>0.8916967881587422</v>
       </c>
       <c r="EG6">
-        <v>0.6182138237837309</v>
+        <v>0.8916967881587422</v>
       </c>
       <c r="EH6">
-        <v>0.618544493820355</v>
+        <v>0.8916967881587422</v>
       </c>
       <c r="EI6">
-        <v>0.6236237554351213</v>
+        <v>0.8916967881587422</v>
       </c>
       <c r="EJ6">
-        <v>0.6447422649897685</v>
+        <v>0.8916967881587422</v>
       </c>
       <c r="EK6">
-        <v>0.6920879912971293</v>
+        <v>0.9551130660217766</v>
       </c>
       <c r="EL6">
-        <v>0.7343925420441353</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM6">
-        <v>0.7521614258261007</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN6">
-        <v>0.7532657711950221</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO6">
-        <v>0.7532657711950221</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP6">
-        <v>0.755999242281968</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ6">
-        <v>0.768507806360031</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER6">
-        <v>0.7780745745726158</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES6">
-        <v>0.7872220474456032</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET6">
-        <v>0.8046749683232752</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU6">
-        <v>0.8254707834739239</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV6">
-        <v>0.8429867210662529</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW6">
-        <v>0.8488005291285422</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX6">
-        <v>0.8491974442392248</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY6">
-        <v>0.8495453509804943</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ6">
-        <v>0.8524214277744731</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA6">
-        <v>0.8568574828479227</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB6">
-        <v>0.857641964274966</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC6">
-        <v>0.8596431486746239</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD6">
-        <v>0.8716881477143129</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE6">
-        <v>0.8907742010881519</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF6">
-        <v>0.9050855282427834</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG6">
-        <v>0.9193088670874455</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH6">
-        <v>0.9227178675584019</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI6">
-        <v>0.9239051146687786</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ6">
-        <v>0.9256076924116307</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK6">
-        <v>0.9287083238447446</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL6">
-        <v>0.9427747111386464</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM6">
-        <v>0.9497346855124602</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN6">
-        <v>0.9503562915485464</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO6">
-        <v>0.9541831850469783</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP6">
-        <v>0.9594908330158626</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ6">
-        <v>0.9612918658179498</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR6">
-        <v>0.9619575809544473</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS6">
-        <v>0.9619575809544473</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT6">
-        <v>0.9643382586188055</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU6">
-        <v>0.9656315438138009</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV6">
-        <v>0.9661580652182242</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW6">
-        <v>0.9683709407284725</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX6">
-        <v>0.9689461444471742</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY6">
-        <v>0.9689461444471742</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ6">
-        <v>0.9692911436242518</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA6">
-        <v>0.9699209626721838</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB6">
-        <v>0.9715391173104799</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC6">
-        <v>0.9751631487437743</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD6">
-        <v>0.9759868201871653</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE6">
-        <v>0.9760267563700791</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF6">
-        <v>0.9769257360899956</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG6">
-        <v>0.9803640780097787</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH6">
-        <v>0.9835084109894424</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI6">
-        <v>0.9841066229661058</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ6">
-        <v>0.9860431812545249</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK6">
-        <v>0.9872319342694436</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL6">
-        <v>0.9877681746906348</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM6">
-        <v>0.9881545270383407</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN6">
-        <v>0.9882108955588638</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO6">
-        <v>0.988272908511152</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP6">
-        <v>0.9885124492393386</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ6">
-        <v>0.9891786811233358</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR6">
-        <v>0.9935757944810293</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10570,16 +10570,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.01177774364702654</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.575831285592826</v>
+        <v>0.6473482211102651</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -10611,16 +10611,16 @@
         <v>91</v>
       </c>
       <c r="D3">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.05665141555609031</v>
+        <v>0.07771715916759157</v>
       </c>
       <c r="F3">
-        <v>0.5734717280817461</v>
+        <v>0.5388198078281509</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>14</v>
@@ -10652,16 +10652,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.006158274715383874</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5846633247243654</v>
+        <v>0.6530337664156809</v>
       </c>
       <c r="G4">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -10693,16 +10693,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.005178794876005815</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.588127137216359</v>
+        <v>0.668643504089244</v>
       </c>
       <c r="G5">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -10734,16 +10734,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.004830258257036556</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5335115470309832</v>
+        <v>0.5998910132944426</v>
       </c>
       <c r="G6">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>14</v>
@@ -10829,16 +10829,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="E2">
-        <v>0.01177774364702654</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7196749431831913</v>
+        <v>0.7034150997939572</v>
       </c>
       <c r="G2">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -10870,16 +10870,16 @@
         <v>91</v>
       </c>
       <c r="D3">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E3">
-        <v>0.05665141555609031</v>
+        <v>0.07771715916759157</v>
       </c>
       <c r="F3">
-        <v>0.7217169813591318</v>
+        <v>0.8281234413592653</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>14</v>
@@ -10911,16 +10911,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E4">
-        <v>0.006158274715383874</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7077497209164244</v>
+        <v>0.9105512161150993</v>
       </c>
       <c r="G4">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -10952,16 +10952,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E5">
-        <v>0.005178794876005815</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7249909946971166</v>
+        <v>0.9000976887048482</v>
       </c>
       <c r="G5">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -10993,16 +10993,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E6">
-        <v>0.004830258257036556</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7343925420441353</v>
+        <v>0.7249607283121881</v>
       </c>
       <c r="G6">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>14</v>
@@ -11088,16 +11088,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E2">
-        <v>0.01177774364702654</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8163003191749437</v>
+        <v>0.9227722005400942</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -11129,16 +11129,16 @@
         <v>91</v>
       </c>
       <c r="D3">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="E3">
-        <v>0.05665141555609031</v>
+        <v>0.07771715916759157</v>
       </c>
       <c r="F3">
-        <v>0.8163385151952303</v>
+        <v>0.8281234413592653</v>
       </c>
       <c r="G3">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>14</v>
@@ -11170,16 +11170,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="E4">
-        <v>0.006158274715383874</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8015154039827873</v>
+        <v>0.9105512161150993</v>
       </c>
       <c r="G4">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -11211,16 +11211,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="E5">
-        <v>0.005178794876005815</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8043313907770723</v>
+        <v>0.9000976887048482</v>
       </c>
       <c r="G5">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -11252,16 +11252,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E6">
-        <v>0.004830258257036556</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8046749683232752</v>
+        <v>0.8916967881587422</v>
       </c>
       <c r="G6">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>14</v>
@@ -11347,16 +11347,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="E2">
-        <v>0.01177774364702654</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.908450059793475</v>
+        <v>0.9227722005400942</v>
       </c>
       <c r="G2">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -11388,16 +11388,16 @@
         <v>91</v>
       </c>
       <c r="D3">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E3">
-        <v>0.05665141555609031</v>
+        <v>0.07771715916759157</v>
       </c>
       <c r="F3">
-        <v>0.905576471105915</v>
+        <v>0.9734859766700977</v>
       </c>
       <c r="G3">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <v>14</v>
@@ -11429,16 +11429,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="E4">
-        <v>0.006158274715383874</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9035528869002375</v>
+        <v>0.9105512161150993</v>
       </c>
       <c r="G4">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -11470,16 +11470,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="E5">
-        <v>0.005178794876005815</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9024991648035094</v>
+        <v>0.9000976887048482</v>
       </c>
       <c r="G5">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -11511,16 +11511,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="E6">
-        <v>0.004830258257036556</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9050855282427834</v>
+        <v>0.9551130660217766</v>
       </c>
       <c r="G6">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="H6">
         <v>14</v>

--- a/on_trucks/Processed_Stand_Alone/14_245-70R19.xlsx
+++ b/on_trucks/Processed_Stand_Alone/14_245-70R19.xlsx
@@ -668,34 +668,34 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2535530418597089</v>
+        <v>0.217234168501892</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4290918096332108</v>
+        <v>0.3504908067497713</v>
       </c>
       <c r="G2">
-        <v>0.0408497343739408</v>
+        <v>0.05576483577687857</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.02176039529199773</v>
       </c>
       <c r="J2">
-        <v>0.1038490227096531</v>
+        <v>0.1035894472977823</v>
       </c>
       <c r="K2">
-        <v>0.08244653134666728</v>
+        <v>0.08734218701827105</v>
       </c>
       <c r="L2">
-        <v>0.001118378258727295</v>
+        <v>0.02560359552154</v>
       </c>
       <c r="M2">
-        <v>0.03654664210520731</v>
+        <v>0.05249823195440134</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -707,28 +707,28 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.005825745498720536</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.001917348700862494</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.002339254385138458</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.001556806186367774</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.009434243121141149</v>
       </c>
       <c r="X2">
-        <v>0.05254483971288455</v>
+        <v>0.06464293399523534</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -775,34 +775,34 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1591995486004312</v>
+        <v>0.1453692865860276</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5085959835202393</v>
+        <v>0.4097296600829234</v>
       </c>
       <c r="G3">
-        <v>0.1510485190887737</v>
+        <v>0.1392020536359246</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01043734302847849</v>
+        <v>0.03281280833733131</v>
       </c>
       <c r="J3">
-        <v>0.01346571808431946</v>
+        <v>0.0351041378439834</v>
       </c>
       <c r="K3">
-        <v>0.1222440836194686</v>
+        <v>0.1174080381337903</v>
       </c>
       <c r="L3">
-        <v>0.01027980586223355</v>
+        <v>0.0326936125472606</v>
       </c>
       <c r="M3">
-        <v>0.004569278517386157</v>
+        <v>0.02837291264631692</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.003181866290207317</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -835,16 +835,16 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.02015971967866942</v>
+        <v>0.04016895415236196</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.005342167077639329</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.006351985133841842</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.004262517532391602</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -882,34 +882,34 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3312476051538598</v>
+        <v>0.2690150026122948</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4214526566056881</v>
+        <v>0.3353905939507546</v>
       </c>
       <c r="G4">
-        <v>0.06725641454338462</v>
+        <v>0.07476234045099854</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.02386556473686351</v>
       </c>
       <c r="J4">
-        <v>0.06147179647133468</v>
+        <v>0.07050584440094641</v>
       </c>
       <c r="K4">
-        <v>0.05819198840780711</v>
+        <v>0.0680924629307352</v>
       </c>
       <c r="L4">
-        <v>0.01771214484252194</v>
+        <v>0.03830617590257463</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.02085640974895528</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -921,34 +921,34 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.008864135052506812</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.0003160175829059464</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.003246951125483205</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.01567707021917684</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.004681406040617412</v>
       </c>
       <c r="X4">
-        <v>0.04266739397540373</v>
+        <v>0.0566689991761491</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.009171152382554873</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.0005798736864826206</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -989,31 +989,31 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3957297886641696</v>
+        <v>0.3364830122524743</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.009558906841397043</v>
       </c>
       <c r="F5">
-        <v>0.4041250231098616</v>
+        <v>0.3430906671741263</v>
       </c>
       <c r="G5">
-        <v>0.05401653837980331</v>
+        <v>0.06753004201185391</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0127349146499269</v>
       </c>
       <c r="J5">
-        <v>0.05804681133932992</v>
+        <v>0.0707021574696042</v>
       </c>
       <c r="K5">
-        <v>0.0580900883968204</v>
+        <v>0.07073621963472555</v>
       </c>
       <c r="L5">
-        <v>0.01604046817057183</v>
+        <v>0.03764013615558564</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.001966921476296481</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.000531814394979118</v>
       </c>
       <c r="X5">
-        <v>0.01395128193944353</v>
+        <v>0.03599579593237168</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.006466729491490759</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.0003175709722137674</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.006245111542954446</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.30465206320579</v>
+        <v>0.2621932205352391</v>
       </c>
       <c r="E6">
-        <v>0.1650628258909077</v>
+        <v>0.1533255193969241</v>
       </c>
       <c r="F6">
-        <v>0.2966541786545168</v>
+        <v>0.2559555526332172</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.002142178735575715</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1521957806390354</v>
+        <v>0.1432903213833831</v>
       </c>
       <c r="K6">
-        <v>0.04125774415149894</v>
+        <v>0.05676811355763001</v>
       </c>
       <c r="L6">
-        <v>0.03638836051435362</v>
+        <v>0.05297040957461657</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.007113782842906468</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.02315254481328081</v>
       </c>
       <c r="X6">
-        <v>0.003789046943897481</v>
+        <v>0.02754572501174548</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.005177903234059887</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.01036472828142171</v>
       </c>
     </row>
   </sheetData>
@@ -1323,100 +1323,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2535530418597089</v>
+        <v>0.217234168501892</v>
       </c>
       <c r="E2">
-        <v>0.2535530418597089</v>
+        <v>0.217234168501892</v>
       </c>
       <c r="F2">
-        <v>0.6826448514929196</v>
+        <v>0.5677249752516633</v>
       </c>
       <c r="G2">
-        <v>0.7234945858668604</v>
+        <v>0.6234898110285418</v>
       </c>
       <c r="H2">
-        <v>0.7234945858668604</v>
+        <v>0.6234898110285418</v>
       </c>
       <c r="I2">
-        <v>0.7234945858668604</v>
+        <v>0.6452502063205395</v>
       </c>
       <c r="J2">
-        <v>0.8273436085765136</v>
+        <v>0.7488396536183218</v>
       </c>
       <c r="K2">
-        <v>0.9097901399231808</v>
+        <v>0.8361818406365928</v>
       </c>
       <c r="L2">
-        <v>0.9109085181819081</v>
+        <v>0.8617854361581329</v>
       </c>
       <c r="M2">
-        <v>0.9474551602871154</v>
+        <v>0.9142836681125341</v>
       </c>
       <c r="N2">
-        <v>0.9474551602871154</v>
+        <v>0.9142836681125341</v>
       </c>
       <c r="O2">
-        <v>0.9474551602871154</v>
+        <v>0.9142836681125341</v>
       </c>
       <c r="P2">
-        <v>0.9474551602871154</v>
+        <v>0.9142836681125341</v>
       </c>
       <c r="Q2">
-        <v>0.9474551602871154</v>
+        <v>0.9201094136112546</v>
       </c>
       <c r="R2">
-        <v>0.9474551602871154</v>
+        <v>0.9201094136112546</v>
       </c>
       <c r="S2">
-        <v>0.9474551602871154</v>
+        <v>0.9220267623121171</v>
       </c>
       <c r="T2">
-        <v>0.9474551602871154</v>
+        <v>0.9243660166972556</v>
       </c>
       <c r="U2">
-        <v>0.9474551602871154</v>
+        <v>0.9259228228836234</v>
       </c>
       <c r="V2">
-        <v>0.9474551602871154</v>
+        <v>0.9259228228836234</v>
       </c>
       <c r="W2">
-        <v>0.9474551602871154</v>
+        <v>0.9353570660047645</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1430,82 +1430,82 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1591995486004312</v>
+        <v>0.1453692865860276</v>
       </c>
       <c r="E3">
-        <v>0.1591995486004312</v>
+        <v>0.1453692865860276</v>
       </c>
       <c r="F3">
-        <v>0.6677955321206704</v>
+        <v>0.5550989466689511</v>
       </c>
       <c r="G3">
-        <v>0.8188440512094441</v>
+        <v>0.6943010003048756</v>
       </c>
       <c r="H3">
-        <v>0.8188440512094441</v>
+        <v>0.6943010003048756</v>
       </c>
       <c r="I3">
-        <v>0.8292813942379227</v>
+        <v>0.727113808642207</v>
       </c>
       <c r="J3">
-        <v>0.8427471123222422</v>
+        <v>0.7622179464861903</v>
       </c>
       <c r="K3">
-        <v>0.9649911959417108</v>
+        <v>0.8796259846199806</v>
       </c>
       <c r="L3">
-        <v>0.9752710018039443</v>
+        <v>0.9123195971672412</v>
       </c>
       <c r="M3">
-        <v>0.9798402803213305</v>
+        <v>0.9406925098135581</v>
       </c>
       <c r="N3">
-        <v>0.9798402803213305</v>
+        <v>0.9406925098135581</v>
       </c>
       <c r="O3">
-        <v>0.9798402803213305</v>
+        <v>0.9406925098135581</v>
       </c>
       <c r="P3">
-        <v>0.9798402803213305</v>
+        <v>0.9406925098135581</v>
       </c>
       <c r="Q3">
-        <v>0.9798402803213305</v>
+        <v>0.9406925098135581</v>
       </c>
       <c r="R3">
-        <v>0.9798402803213305</v>
+        <v>0.9406925098135581</v>
       </c>
       <c r="S3">
-        <v>0.9798402803213305</v>
+        <v>0.9438743761037655</v>
       </c>
       <c r="T3">
-        <v>0.9798402803213305</v>
+        <v>0.9438743761037655</v>
       </c>
       <c r="U3">
-        <v>0.9798402803213305</v>
+        <v>0.9438743761037655</v>
       </c>
       <c r="V3">
-        <v>0.9798402803213305</v>
+        <v>0.9438743761037655</v>
       </c>
       <c r="W3">
-        <v>0.9798402803213305</v>
+        <v>0.9438743761037655</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0.9840433302561274</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0.9840433302561274</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.9893854973337668</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0.9957374824676086</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.9957374824676086</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.9957374824676086</v>
       </c>
       <c r="AD3">
         <v>1</v>
@@ -1537,100 +1537,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3312476051538598</v>
+        <v>0.2690150026122948</v>
       </c>
       <c r="E4">
-        <v>0.3312476051538598</v>
+        <v>0.2690150026122948</v>
       </c>
       <c r="F4">
-        <v>0.7527002617595479</v>
+        <v>0.6044055965630494</v>
       </c>
       <c r="G4">
-        <v>0.8199566763029325</v>
+        <v>0.6791679370140479</v>
       </c>
       <c r="H4">
-        <v>0.8199566763029325</v>
+        <v>0.6791679370140479</v>
       </c>
       <c r="I4">
-        <v>0.8199566763029325</v>
+        <v>0.7030335017509114</v>
       </c>
       <c r="J4">
-        <v>0.8814284727742672</v>
+        <v>0.7735393461518578</v>
       </c>
       <c r="K4">
-        <v>0.9396204611820743</v>
+        <v>0.8416318090825931</v>
       </c>
       <c r="L4">
-        <v>0.9573326060245962</v>
+        <v>0.8799379849851677</v>
       </c>
       <c r="M4">
-        <v>0.9573326060245962</v>
+        <v>0.900794394734123</v>
       </c>
       <c r="N4">
-        <v>0.9573326060245962</v>
+        <v>0.900794394734123</v>
       </c>
       <c r="O4">
-        <v>0.9573326060245962</v>
+        <v>0.900794394734123</v>
       </c>
       <c r="P4">
-        <v>0.9573326060245962</v>
+        <v>0.900794394734123</v>
       </c>
       <c r="Q4">
-        <v>0.9573326060245962</v>
+        <v>0.9096585297866299</v>
       </c>
       <c r="R4">
-        <v>0.9573326060245962</v>
+        <v>0.9096585297866299</v>
       </c>
       <c r="S4">
-        <v>0.9573326060245962</v>
+        <v>0.9099745473695358</v>
       </c>
       <c r="T4">
-        <v>0.9573326060245962</v>
+        <v>0.913221498495019</v>
       </c>
       <c r="U4">
-        <v>0.9573326060245962</v>
+        <v>0.9288985687141958</v>
       </c>
       <c r="V4">
-        <v>0.9573326060245962</v>
+        <v>0.9288985687141958</v>
       </c>
       <c r="W4">
-        <v>0.9573326060245962</v>
+        <v>0.9335799747548132</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.9902489739309623</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0.9902489739309623</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.9994201263135172</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0.9994201263135172</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.9994201263135172</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9994201263135172</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9994201263135172</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9994201263135172</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9994201263135172</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9994201263135172</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9994201263135172</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1644,100 +1644,100 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3957297886641696</v>
+        <v>0.3364830122524743</v>
       </c>
       <c r="E5">
-        <v>0.3957297886641696</v>
+        <v>0.3460419190938713</v>
       </c>
       <c r="F5">
-        <v>0.7998548117740312</v>
+        <v>0.6891325862679976</v>
       </c>
       <c r="G5">
-        <v>0.8538713501538345</v>
+        <v>0.7566626282798514</v>
       </c>
       <c r="H5">
-        <v>0.8538713501538345</v>
+        <v>0.7566626282798514</v>
       </c>
       <c r="I5">
-        <v>0.8538713501538345</v>
+        <v>0.7693975429297784</v>
       </c>
       <c r="J5">
-        <v>0.9119181614931644</v>
+        <v>0.8400997003993825</v>
       </c>
       <c r="K5">
-        <v>0.9700082498899848</v>
+        <v>0.9108359200341081</v>
       </c>
       <c r="L5">
-        <v>0.9860487180605566</v>
+        <v>0.9484760561896937</v>
       </c>
       <c r="M5">
-        <v>0.9860487180605566</v>
+        <v>0.9484760561896937</v>
       </c>
       <c r="N5">
-        <v>0.9860487180605566</v>
+        <v>0.9484760561896937</v>
       </c>
       <c r="O5">
-        <v>0.9860487180605566</v>
+        <v>0.9484760561896937</v>
       </c>
       <c r="P5">
-        <v>0.9860487180605566</v>
+        <v>0.9484760561896937</v>
       </c>
       <c r="Q5">
-        <v>0.9860487180605566</v>
+        <v>0.9484760561896937</v>
       </c>
       <c r="R5">
-        <v>0.9860487180605566</v>
+        <v>0.9484760561896937</v>
       </c>
       <c r="S5">
-        <v>0.9860487180605566</v>
+        <v>0.9484760561896937</v>
       </c>
       <c r="T5">
-        <v>0.9860487180605566</v>
+        <v>0.9484760561896937</v>
       </c>
       <c r="U5">
-        <v>0.9860487180605566</v>
+        <v>0.9504429776659902</v>
       </c>
       <c r="V5">
-        <v>0.9860487180605566</v>
+        <v>0.9504429776659902</v>
       </c>
       <c r="W5">
-        <v>0.9860487180605566</v>
+        <v>0.9509747920609692</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.9869705879933409</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.9869705879933409</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.9934373174848317</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.9934373174848317</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.9934373174848317</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.9934373174848317</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9937548884570454</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9937548884570454</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9937548884570454</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9937548884570454</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9937548884570454</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1751,100 +1751,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.30465206320579</v>
+        <v>0.2621932205352391</v>
       </c>
       <c r="E6">
-        <v>0.4697148890966977</v>
+        <v>0.4155187399321632</v>
       </c>
       <c r="F6">
-        <v>0.7663690677512145</v>
+        <v>0.6714742925653803</v>
       </c>
       <c r="G6">
-        <v>0.7663690677512145</v>
+        <v>0.673616471300956</v>
       </c>
       <c r="H6">
-        <v>0.7663690677512145</v>
+        <v>0.673616471300956</v>
       </c>
       <c r="I6">
-        <v>0.7663690677512145</v>
+        <v>0.673616471300956</v>
       </c>
       <c r="J6">
-        <v>0.9185648483902499</v>
+        <v>0.8169067926843391</v>
       </c>
       <c r="K6">
-        <v>0.9598225925417488</v>
+        <v>0.8736749062419691</v>
       </c>
       <c r="L6">
-        <v>0.9962109530561025</v>
+        <v>0.9266453158165856</v>
       </c>
       <c r="M6">
-        <v>0.9962109530561025</v>
+        <v>0.9266453158165856</v>
       </c>
       <c r="N6">
-        <v>0.9962109530561025</v>
+        <v>0.9266453158165856</v>
       </c>
       <c r="O6">
-        <v>0.9962109530561025</v>
+        <v>0.9266453158165856</v>
       </c>
       <c r="P6">
-        <v>0.9962109530561025</v>
+        <v>0.9266453158165856</v>
       </c>
       <c r="Q6">
-        <v>0.9962109530561025</v>
+        <v>0.9266453158165856</v>
       </c>
       <c r="R6">
-        <v>0.9962109530561025</v>
+        <v>0.9266453158165856</v>
       </c>
       <c r="S6">
-        <v>0.9962109530561025</v>
+        <v>0.9266453158165856</v>
       </c>
       <c r="T6">
-        <v>0.9962109530561025</v>
+        <v>0.933759098659492</v>
       </c>
       <c r="U6">
-        <v>0.9962109530561025</v>
+        <v>0.933759098659492</v>
       </c>
       <c r="V6">
-        <v>0.9962109530561025</v>
+        <v>0.933759098659492</v>
       </c>
       <c r="W6">
-        <v>0.9962109530561025</v>
+        <v>0.9569116434727728</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.9844573684845183</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0.9844573684845183</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.9896352717185781</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.9896352717185781</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.9896352717185781</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9896352717185781</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9896352717185781</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9896352717185781</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9896352717185781</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9896352717185781</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9896352717185781</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6826448514929196</v>
+        <v>0.5677249752516633</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6677955321206704</v>
+        <v>0.5550989466689511</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7527002617595479</v>
+        <v>0.6044055965630494</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7998548117740312</v>
+        <v>0.6891325862679976</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7663690677512145</v>
+        <v>0.6714742925653803</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2171,16 +2171,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7234945858668604</v>
+        <v>0.7488396536183218</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -2212,16 +2212,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8188440512094441</v>
+        <v>0.727113808642207</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <v>14</v>
@@ -2253,16 +2253,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7527002617595479</v>
+        <v>0.7030335017509114</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -2294,16 +2294,16 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.7566626282798514</v>
+      </c>
+      <c r="G5">
         <v>5</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.7998548117740312</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -2335,16 +2335,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7663690677512145</v>
+        <v>0.8169067926843391</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>14</v>
@@ -2430,16 +2430,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.8361818406365928</v>
+      </c>
+      <c r="G2">
         <v>9</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8273436085765136</v>
-      </c>
-      <c r="G2">
-        <v>8</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -2471,16 +2471,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8188440512094441</v>
+        <v>0.8796259846199806</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>14</v>
@@ -2512,16 +2512,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8199566763029325</v>
+        <v>0.8416318090825931</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -2553,16 +2553,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8538713501538345</v>
+        <v>0.8400997003993825</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9185648483902499</v>
+        <v>0.8169067926843391</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -2689,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9097901399231808</v>
+        <v>0.9142836681125341</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -2730,16 +2730,16 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.9123195971672412</v>
+      </c>
+      <c r="G3">
         <v>10</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9649911959417108</v>
-      </c>
-      <c r="G3">
-        <v>9</v>
       </c>
       <c r="H3">
         <v>14</v>
@@ -2771,16 +2771,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9396204611820743</v>
+        <v>0.900794394734123</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -2812,16 +2812,16 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.9108359200341081</v>
+      </c>
+      <c r="G5">
         <v>9</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9119181614931644</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -2853,16 +2853,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9185648483902499</v>
+        <v>0.9266453158165856</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>14</v>
